--- a/output/swine_datasource.xlsx
+++ b/output/swine_datasource.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12922" uniqueCount="1049">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12326" uniqueCount="1014">
   <si>
     <t>YEAR</t>
   </si>
@@ -103,7 +103,7 @@
     <t>1000000000225</t>
   </si>
   <si>
-    <t>Oversize Market Hog (111-125 kg) A</t>
+    <t>OVERSIZE MARKET HOG (111-125 KG) A</t>
   </si>
   <si>
     <t>-1.000</t>
@@ -130,7 +130,7 @@
     <t>1000000000282</t>
   </si>
   <si>
-    <t>Culled Market Hog (41-50 kg) B</t>
+    <t>CULLED MARKET HOG (41-50 KG) B</t>
   </si>
   <si>
     <t>6900.000</t>
@@ -145,7 +145,7 @@
     <t>1000000000278</t>
   </si>
   <si>
-    <t>Culled Market Hog (31-40 kg) B</t>
+    <t>CULLED MARKET HOG (31-40 KG) B</t>
   </si>
   <si>
     <t>3850.000</t>
@@ -160,7 +160,7 @@
     <t>1000000002357</t>
   </si>
   <si>
-    <t>Culled Sow B</t>
+    <t>CULLED SOW B</t>
   </si>
   <si>
     <t>16560.000</t>
@@ -175,7 +175,7 @@
     <t>1000000000637</t>
   </si>
   <si>
-    <t>Lechon (21 -30 kg) B</t>
+    <t>LECHON (21 -30 KG) B</t>
   </si>
   <si>
     <t>-2.000</t>
@@ -223,7 +223,7 @@
     <t>1000000000217</t>
   </si>
   <si>
-    <t>Heavy Prime Market Hog (101-110 kg) A</t>
+    <t>HEAVY PRIME MARKET HOG (101-110 KG) A</t>
   </si>
   <si>
     <t>-24.000</t>
@@ -253,7 +253,7 @@
     <t>1000000000742</t>
   </si>
   <si>
-    <t>Oversize Market Hog (126-135 kg) A</t>
+    <t>OVERSIZE MARKET HOG (126-135 KG) A</t>
   </si>
   <si>
     <t>21505.000</t>
@@ -274,7 +274,7 @@
     <t>1000000000285</t>
   </si>
   <si>
-    <t>Light Prime Market Hog (61-70 kg) A</t>
+    <t>LIGHT PRIME MARKET HOG (61-70 KG) A</t>
   </si>
   <si>
     <t>10890.000</t>
@@ -283,7 +283,7 @@
     <t>1000000000746</t>
   </si>
   <si>
-    <t>Light Prime Market Hog (71-80 kg) A</t>
+    <t>LIGHT PRIME MARKET HOG (71-80 KG) A</t>
   </si>
   <si>
     <t>11645.000</t>
@@ -307,7 +307,7 @@
     <t>1000000000191</t>
   </si>
   <si>
-    <t>Culled Young Boar (39 below kg)</t>
+    <t>CULLED YOUNG BOAR (39 BELOW KG)</t>
   </si>
   <si>
     <t>2875.000</t>
@@ -316,7 +316,7 @@
     <t>1000000000631</t>
   </si>
   <si>
-    <t>Lechon (11 -20 kg) B</t>
+    <t>LECHON (11 -20 KG) B</t>
   </si>
   <si>
     <t>2027.810</t>
@@ -334,7 +334,7 @@
     <t>1000000000286</t>
   </si>
   <si>
-    <t>Light Prime Market Hog (61-70 kg) B</t>
+    <t>LIGHT PRIME MARKET HOG (61-70 KG) B</t>
   </si>
   <si>
     <t>9765.000</t>
@@ -361,7 +361,7 @@
     <t>1000000000040</t>
   </si>
   <si>
-    <t>Culled Young Boar (40-70 kg)</t>
+    <t>CULLED YOUNG BOAR (40-70 KG)</t>
   </si>
   <si>
     <t>6500.000</t>
@@ -382,7 +382,7 @@
     <t>1000000002285</t>
   </si>
   <si>
-    <t>Culled Market Hog (41-50 kg) A</t>
+    <t>CULLED MARKET HOG (41-50 KG) A</t>
   </si>
   <si>
     <t>28985.000</t>
@@ -391,7 +391,7 @@
     <t>1000000002286</t>
   </si>
   <si>
-    <t>Culled Market Hog (51-60 kg) A</t>
+    <t>CULLED MARKET HOG (51-60 KG) A</t>
   </si>
   <si>
     <t>-20.000</t>
@@ -412,7 +412,7 @@
     <t>1000000000209</t>
   </si>
   <si>
-    <t>Prime Market Hog (91-100 kg) A</t>
+    <t>PRIME MARKET HOG (91-100 KG) A</t>
   </si>
   <si>
     <t>73339.940</t>
@@ -460,7 +460,7 @@
     <t>1000000002356</t>
   </si>
   <si>
-    <t>Culled Sow A</t>
+    <t>CULLED SOW A</t>
   </si>
   <si>
     <t>268985.000</t>
@@ -529,7 +529,7 @@
     <t>1000000000630</t>
   </si>
   <si>
-    <t>Lechon (10 kg &amp; below) B</t>
+    <t>LECHON (10 KG &amp; BELOW) B</t>
   </si>
   <si>
     <t>1441.480</t>
@@ -562,7 +562,7 @@
     <t>1000000000283</t>
   </si>
   <si>
-    <t>Culled Market Hog (51-60 kg) B</t>
+    <t>CULLED MARKET HOG (51-60 KG) B</t>
   </si>
   <si>
     <t>8216.110</t>
@@ -595,7 +595,7 @@
     <t>1000000000747</t>
   </si>
   <si>
-    <t>Light Prime Market Hog (71-80 kg) B</t>
+    <t>LIGHT PRIME MARKET HOG (71-80 KG) B</t>
   </si>
   <si>
     <t>11320.000</t>
@@ -643,7 +643,7 @@
     <t>1000000000740</t>
   </si>
   <si>
-    <t>Prime Market Hog (81-90 kg) A</t>
+    <t>PRIME MARKET HOG (81-90 KG) A</t>
   </si>
   <si>
     <t>47120.000</t>
@@ -700,7 +700,7 @@
     <t>1000000000214</t>
   </si>
   <si>
-    <t>Prime Market Hog (91-100 kg) B</t>
+    <t>PRIME MARKET HOG (91-100 KG) B</t>
   </si>
   <si>
     <t>18315.000</t>
@@ -832,7 +832,7 @@
     <t>1000000000743</t>
   </si>
   <si>
-    <t>Oversize Market Hog (136-150 kg) A</t>
+    <t>OVERSIZE MARKET HOG (136-150 KG) A</t>
   </si>
   <si>
     <t>198632.500</t>
@@ -841,7 +841,7 @@
     <t>1000000000744</t>
   </si>
   <si>
-    <t>Oversize Market Hog (151-165 kg) A</t>
+    <t>OVERSIZE MARKET HOG (151-165 KG) A</t>
   </si>
   <si>
     <t>48150.000</t>
@@ -850,7 +850,7 @@
     <t>1000000000745</t>
   </si>
   <si>
-    <t>Oversize Market Hog (166-180 kg) A</t>
+    <t>OVERSIZE MARKET HOG (166-180 KG) A</t>
   </si>
   <si>
     <t>26475.000</t>
@@ -859,7 +859,7 @@
     <t>1000000000602</t>
   </si>
   <si>
-    <t>Oversize Market Hog (181-200 kg) A</t>
+    <t>OVERSIZE MARKET HOG (181-200 KG) A</t>
   </si>
   <si>
     <t>52780.000</t>
@@ -937,7 +937,7 @@
     <t>1000000000246</t>
   </si>
   <si>
-    <t>Oversize Market Hog (126-150 kg) B</t>
+    <t>OVERSIZE MARKET HOG (126-150 KG) B</t>
   </si>
   <si>
     <t>20590.000</t>
@@ -1066,7 +1066,7 @@
     <t>1000000002355</t>
   </si>
   <si>
-    <t>Culled Market Hog (31-40 kg) A</t>
+    <t>CULLED MARKET HOG (31-40 KG) A</t>
   </si>
   <si>
     <t>12096.420</t>
@@ -1156,7 +1156,7 @@
     <t>1000000000299</t>
   </si>
   <si>
-    <t>Culled Young Boar (126-150 kg)</t>
+    <t>CULLED YOUNG BOAR (126-150 KG)</t>
   </si>
   <si>
     <t>10125.000</t>
@@ -1669,7 +1669,7 @@
     <t>1000000000294</t>
   </si>
   <si>
-    <t>Culled Young Boar (71-100 kg)</t>
+    <t>CULLED YOUNG BOAR (71-100 KG)</t>
   </si>
   <si>
     <t>10500.000</t>
@@ -1864,7 +1864,7 @@
     <t>1000000000296</t>
   </si>
   <si>
-    <t>Culled Young Boar (101-125 kg)</t>
+    <t>CULLED YOUNG BOAR (101-125 KG)</t>
   </si>
   <si>
     <t>10657.500</t>
@@ -1879,7 +1879,7 @@
     <t>1000000000615</t>
   </si>
   <si>
-    <t>Culled Young Boar (150 kg and up)</t>
+    <t>CULLED YOUNG BOAR (150 KG AND UP)</t>
   </si>
   <si>
     <t>52500.000</t>
@@ -1906,7 +1906,7 @@
     <t>1000000000741</t>
   </si>
   <si>
-    <t>Prime Market Hog (81-90 kg) B</t>
+    <t>PRIME MARKET HOG (81-90 KG) B</t>
   </si>
   <si>
     <t>33000.000</t>
@@ -1918,7 +1918,7 @@
     <t>1000000000218</t>
   </si>
   <si>
-    <t>Heavy Prime Market Hog (101-110 kg) B</t>
+    <t>HEAVY PRIME MARKET HOG (101-110 KG) B</t>
   </si>
   <si>
     <t>20200.000</t>
@@ -1927,7 +1927,7 @@
     <t>1000000000230</t>
   </si>
   <si>
-    <t>Oversize Market Hog (111-125 kg) B</t>
+    <t>OVERSIZE MARKET HOG (111-125 KG) B</t>
   </si>
   <si>
     <t>21280.000</t>
@@ -2551,9 +2551,6 @@
     <t>HEAVY PRIME</t>
   </si>
   <si>
-    <t>CULLED MARKET HOG (31-40 KG) B</t>
-  </si>
-  <si>
     <t>31-40 KG</t>
   </si>
   <si>
@@ -2566,18 +2563,12 @@
     <t>OVERSIZE</t>
   </si>
   <si>
-    <t>CULLED MARKET HOG (41-50 KG) B</t>
-  </si>
-  <si>
     <t>41-50 KG</t>
   </si>
   <si>
     <t>OVERSIZE 126-150 KG</t>
   </si>
   <si>
-    <t>CULLED MARKET HOG (51-60 KG) B</t>
-  </si>
-  <si>
     <t>51-60 KG</t>
   </si>
   <si>
@@ -2590,18 +2581,12 @@
     <t>101-125 KG</t>
   </si>
   <si>
-    <t>CULLED YOUNG BOAR (101-125 KG)</t>
-  </si>
-  <si>
     <t>CULLED YOUNG BOAR</t>
   </si>
   <si>
     <t>LIGHT PRIME</t>
   </si>
   <si>
-    <t>CULLED YOUNG BOAR (126-150 KG)</t>
-  </si>
-  <si>
     <t>PRIME 71-89 KG</t>
   </si>
   <si>
@@ -2611,87 +2596,57 @@
     <t>126-150 KG</t>
   </si>
   <si>
-    <t>CULLED YOUNG BOAR (150 KG AND UP)</t>
-  </si>
-  <si>
     <t>PRIME 90-100 KG</t>
   </si>
   <si>
     <t>CULLED YOUNG BOAR (126-150 KG) A</t>
   </si>
   <si>
-    <t>CULLED YOUNG BOAR (40-70 KG)</t>
-  </si>
-  <si>
     <t>OVERSIZE 151-180 KG</t>
   </si>
   <si>
     <t>150 KG AND UP</t>
   </si>
   <si>
-    <t>CULLED YOUNG BOAR (71-100 KG)</t>
-  </si>
-  <si>
     <t>OVERSIZE 181</t>
   </si>
   <si>
     <t>CULLED YOUNG BOAR (150 KG AND UP) A</t>
   </si>
   <si>
-    <t>HEAVY PRIME MARKET HOG (101-110 KG) A</t>
-  </si>
-  <si>
     <t>PIGLETS</t>
   </si>
   <si>
     <t>40-70 KG</t>
   </si>
   <si>
-    <t>HEAVY PRIME MARKET HOG (101-110 KG) B</t>
-  </si>
-  <si>
     <t>CYB</t>
   </si>
   <si>
     <t>CULLED YOUNG BOAR (40-70 KG) A</t>
   </si>
   <si>
-    <t>LIGHT PRIME MARKET HOG (61-70 KG) A</t>
-  </si>
-  <si>
     <t>LECHON</t>
   </si>
   <si>
     <t>71-100 KG</t>
   </si>
   <si>
-    <t>LIGHT PRIME MARKET HOG (61-70 KG) B</t>
-  </si>
-  <si>
     <t>ADJUSTMENT</t>
   </si>
   <si>
     <t>CULLED YOUNG BOAR (71-100 KG) A</t>
   </si>
   <si>
-    <t>LIGHT PRIME MARKET HOG (71-80 KG) A</t>
-  </si>
-  <si>
     <t>REBATE</t>
   </si>
   <si>
     <t>101-110 KG</t>
   </si>
   <si>
-    <t>LIGHT PRIME MARKET HOG (71-80 KG) B</t>
-  </si>
-  <si>
     <t>SD ACCRUAL</t>
   </si>
   <si>
-    <t>OVERSIZE MARKET HOG (111-125 KG) A</t>
-  </si>
-  <si>
     <t xml:space="preserve">OVERSIZE 111-125 KG </t>
   </si>
   <si>
@@ -2701,45 +2656,30 @@
     <t>HEAVY PRIME MARKET HOG (101-110 KG)A</t>
   </si>
   <si>
-    <t>OVERSIZE MARKET HOG (111-125 KG) B</t>
-  </si>
-  <si>
     <t>CULLED SOW</t>
   </si>
   <si>
     <t>61-70 KG</t>
   </si>
   <si>
-    <t>OVERSIZE MARKET HOG (126-135 KG) A</t>
-  </si>
-  <si>
     <t xml:space="preserve">OVERSIZE 126-180 KG </t>
   </si>
   <si>
     <t>PRIME 71-89 KG B</t>
   </si>
   <si>
-    <t>OVERSIZE MARKET HOG (126-150 KG) B</t>
-  </si>
-  <si>
     <t>PRIME 90-100 KG B</t>
   </si>
   <si>
     <t>LIGHT PRIME MARKET HOG (61-70 KG)A</t>
   </si>
   <si>
-    <t>OVERSIZE MARKET HOG (136-150 KG) A</t>
-  </si>
-  <si>
     <t>OVERSIZE 111-125 KG A</t>
   </si>
   <si>
     <t>71-80 KG</t>
   </si>
   <si>
-    <t>OVERSIZE MARKET HOG (151-165 KG) A</t>
-  </si>
-  <si>
     <t>PRIME 71-89 KG A+</t>
   </si>
   <si>
@@ -2752,9 +2692,6 @@
     <t>111-125 KG</t>
   </si>
   <si>
-    <t>OVERSIZE MARKET HOG (166-180 KG) A</t>
-  </si>
-  <si>
     <t>OVERSIZE 126-150 KG A</t>
   </si>
   <si>
@@ -2770,9 +2707,6 @@
     <t>126-135 KG</t>
   </si>
   <si>
-    <t>OVERSIZE MARKET HOG (181-200 KG) A</t>
-  </si>
-  <si>
     <t>OVERSIZE 151-180 KG A</t>
   </si>
   <si>
@@ -2812,9 +2746,6 @@
     <t>151-180 KG</t>
   </si>
   <si>
-    <t>PRIME MARKET HOG (81-90 KG) A</t>
-  </si>
-  <si>
     <t xml:space="preserve">PRIME 81-100 KG </t>
   </si>
   <si>
@@ -2824,54 +2755,33 @@
     <t>166-180 KG</t>
   </si>
   <si>
-    <t>PRIME MARKET HOG (81-90 KG) B</t>
-  </si>
-  <si>
     <t>PRIME 71-89 KG AA</t>
   </si>
   <si>
     <t>181 KG UP</t>
   </si>
   <si>
-    <t>PRIME MARKET HOG (91-100 KG) A</t>
-  </si>
-  <si>
     <t>LIGHT PRIME A</t>
   </si>
   <si>
     <t>181-200 KG</t>
   </si>
   <si>
-    <t>PRIME MARKET HOG (91-100 KG) B</t>
-  </si>
-  <si>
     <t>OVERSIZE 151-180 KG B</t>
   </si>
   <si>
-    <t>CULLED MARKET HOG (51-60 KG) A</t>
-  </si>
-  <si>
     <t>OVERSIZE 181 KG B</t>
   </si>
   <si>
     <t>201-250 KG</t>
   </si>
   <si>
-    <t>LECHON (10 KG &amp; BELOW) B</t>
-  </si>
-  <si>
     <t>PRIME 51-60 KG</t>
   </si>
   <si>
-    <t>LECHON (11 -20 KG) B</t>
-  </si>
-  <si>
     <t>251-300 KG</t>
   </si>
   <si>
-    <t>LECHON (21 -30 KG) B</t>
-  </si>
-  <si>
     <t>LETCHON</t>
   </si>
   <si>
@@ -2884,24 +2794,15 @@
     <t>81-90 KG</t>
   </si>
   <si>
-    <t>CULLED MARKET HOG (41-50 KG) A</t>
-  </si>
-  <si>
     <t>OVERSIZE 181KG B</t>
   </si>
   <si>
-    <t>CULLED SOW A</t>
-  </si>
-  <si>
     <t>OVERSIZE 151-180 KG C</t>
   </si>
   <si>
     <t>91-100 KG</t>
   </si>
   <si>
-    <t>CULLED SOW B</t>
-  </si>
-  <si>
     <t>PRIME 61-70KG A</t>
   </si>
   <si>
@@ -2914,16 +2815,10 @@
     <t>PRIME MARKET HOG (91-100 KG)A</t>
   </si>
   <si>
-    <t>CULLED MARKET HOG (31-40 KG) A</t>
-  </si>
-  <si>
     <t xml:space="preserve">PRIME 71-89 KG </t>
   </si>
   <si>
     <t>HEAVY PRIME MARKET HOG (101-110 KG)</t>
-  </si>
-  <si>
-    <t>CULLED YOUNG BOAR (39 BELOW KG)</t>
   </si>
   <si>
     <t xml:space="preserve">PRIME 90-100 KG </t>
@@ -3507,173 +3402,173 @@
         <v>842</v>
       </c>
       <c r="C2" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="11" t="s">
         <v>843</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="E2" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="11" t="s">
         <v>844</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>843</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>845</v>
       </c>
     </row>
     <row r="3" ht="13.5" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
+        <v>845</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>846</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="C3" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="11" t="s">
         <v>847</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>848</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>849</v>
-      </c>
       <c r="E3" s="11" t="s">
-        <v>848</v>
+        <v>36</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="4" ht="13.5" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>851</v>
+        <v>180</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>851</v>
+        <v>180</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="5" ht="13.5" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="B5" s="11" t="s">
+        <v>850</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>851</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>852</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>614</v>
+      </c>
+      <c r="F5" s="11" t="s">
         <v>853</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>854</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>855</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>856</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>857</v>
       </c>
     </row>
     <row r="6" ht="13.5" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>856</v>
+        <v>614</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>859</v>
+        <v>378</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>857</v>
+        <v>853</v>
       </c>
     </row>
     <row r="7" ht="13.5" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>860</v>
+        <v>855</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>861</v>
+        <v>856</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>859</v>
+        <v>378</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>862</v>
+        <v>857</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>863</v>
+        <v>619</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>857</v>
+        <v>853</v>
       </c>
     </row>
     <row r="8" ht="13.5" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>864</v>
+        <v>858</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>861</v>
+        <v>856</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>865</v>
+        <v>859</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>862</v>
+        <v>857</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>866</v>
+        <v>113</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>857</v>
+        <v>853</v>
       </c>
     </row>
     <row r="9" ht="13.5" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>867</v>
+        <v>860</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>863</v>
+        <v>619</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>868</v>
+        <v>861</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>869</v>
+        <v>549</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>857</v>
+        <v>853</v>
       </c>
     </row>
     <row r="10" ht="13.5" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>870</v>
+        <v>862</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>871</v>
+        <v>863</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>868</v>
+        <v>861</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>872</v>
+        <v>67</v>
       </c>
       <c r="F10" s="11" t="s">
         <v>842</v>
@@ -3681,19 +3576,19 @@
     </row>
     <row r="11" ht="13.5" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>873</v>
+        <v>864</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>873</v>
+        <v>864</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>866</v>
+        <v>113</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>874</v>
+        <v>865</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>875</v>
+        <v>632</v>
       </c>
       <c r="F11" s="11" t="s">
         <v>842</v>
@@ -3701,1574 +3596,1574 @@
     </row>
     <row r="12" ht="13.5" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>857</v>
+        <v>853</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>876</v>
+        <v>866</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>877</v>
+        <v>867</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>874</v>
+        <v>865</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>878</v>
+        <v>84</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
     </row>
     <row r="13" ht="13.5" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>879</v>
+        <v>868</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>879</v>
+        <v>868</v>
       </c>
       <c r="C13" s="11" t="s">
+        <v>549</v>
+      </c>
+      <c r="D13" s="11" t="s">
         <v>869</v>
       </c>
-      <c r="D13" s="11" t="s">
-        <v>880</v>
-      </c>
       <c r="E13" s="11" t="s">
-        <v>881</v>
+        <v>104</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
     </row>
     <row r="14" ht="13.5" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
-        <v>882</v>
+        <v>870</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>882</v>
+        <v>870</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>883</v>
+        <v>871</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>880</v>
+        <v>869</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>884</v>
+        <v>87</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
     </row>
     <row r="15" ht="13.5" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
-        <v>885</v>
+        <v>872</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>885</v>
+        <v>872</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>872</v>
+        <v>67</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>886</v>
+        <v>873</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>887</v>
+        <v>191</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
     </row>
     <row r="16" ht="13.5" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
-        <v>888</v>
+        <v>874</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>888</v>
+        <v>874</v>
       </c>
       <c r="C16" s="11" t="s">
+        <v>632</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>873</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="11" t="s">
         <v>875</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>886</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>889</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>890</v>
       </c>
     </row>
     <row r="17" ht="13.5" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>891</v>
+        <v>876</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>892</v>
+        <v>877</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>886</v>
+        <v>873</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>893</v>
+        <v>635</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>890</v>
+        <v>875</v>
       </c>
     </row>
     <row r="18" ht="13.5" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
-        <v>894</v>
+        <v>878</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>894</v>
+        <v>878</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>878</v>
+        <v>84</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>895</v>
+        <v>879</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>896</v>
+        <v>77</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>897</v>
+        <v>880</v>
       </c>
     </row>
     <row r="19" ht="13.5" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
-        <v>898</v>
+        <v>881</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>861</v>
+        <v>856</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>881</v>
+        <v>104</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>895</v>
+        <v>879</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>899</v>
+        <v>305</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>897</v>
+        <v>880</v>
       </c>
     </row>
     <row r="20" ht="13.5" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
-        <v>900</v>
+        <v>882</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>861</v>
+        <v>856</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>901</v>
+        <v>883</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>895</v>
+        <v>879</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>902</v>
+        <v>270</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>897</v>
+        <v>880</v>
       </c>
     </row>
     <row r="21" ht="13.5" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
-        <v>903</v>
+        <v>884</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>887</v>
+        <v>191</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>904</v>
+        <v>885</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>905</v>
+        <v>273</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>897</v>
+        <v>880</v>
       </c>
     </row>
     <row r="22" ht="13.5" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>906</v>
+        <v>886</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>861</v>
+        <v>856</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>884</v>
+        <v>87</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>904</v>
+        <v>885</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>907</v>
+        <v>887</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>897</v>
+        <v>880</v>
       </c>
     </row>
     <row r="23" ht="13.5" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
-        <v>908</v>
+        <v>888</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>861</v>
+        <v>856</v>
       </c>
       <c r="C23" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" s="11" t="s">
         <v>889</v>
       </c>
-      <c r="D23" s="11" t="s">
-        <v>909</v>
-      </c>
       <c r="E23" s="11" t="s">
-        <v>910</v>
+        <v>276</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>897</v>
+        <v>880</v>
       </c>
     </row>
     <row r="24" ht="13.5" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
-        <v>911</v>
+        <v>890</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>893</v>
+        <v>635</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>909</v>
+        <v>889</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>912</v>
+        <v>891</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>913</v>
+        <v>892</v>
       </c>
     </row>
     <row r="25" ht="13.5" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
-        <v>914</v>
+        <v>893</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>861</v>
+        <v>856</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>896</v>
+        <v>77</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>915</v>
+        <v>894</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>916</v>
+        <v>279</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>913</v>
+        <v>892</v>
       </c>
     </row>
     <row r="26" ht="13.5" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
-        <v>917</v>
+        <v>895</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>899</v>
+        <v>305</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>862</v>
+        <v>857</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>918</v>
+        <v>896</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>913</v>
+        <v>892</v>
       </c>
     </row>
     <row r="27" ht="13.5" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
-        <v>919</v>
+        <v>897</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>861</v>
+        <v>856</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>920</v>
+        <v>898</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>862</v>
+        <v>857</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>921</v>
+        <v>899</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>913</v>
+        <v>892</v>
       </c>
     </row>
     <row r="28" ht="13.5" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
-        <v>922</v>
+        <v>900</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>861</v>
+        <v>856</v>
       </c>
       <c r="C28" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>901</v>
+      </c>
+      <c r="E28" s="11" t="s">
         <v>902</v>
       </c>
-      <c r="D28" s="11" t="s">
-        <v>923</v>
-      </c>
-      <c r="E28" s="11" t="s">
-        <v>924</v>
-      </c>
       <c r="F28" s="11" t="s">
-        <v>913</v>
+        <v>892</v>
       </c>
     </row>
     <row r="29" ht="13.5" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
-        <v>925</v>
+        <v>903</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="C29" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>904</v>
+      </c>
+      <c r="E29" s="11" t="s">
         <v>905</v>
       </c>
-      <c r="D29" s="11" t="s">
-        <v>926</v>
-      </c>
-      <c r="E29" s="11" t="s">
-        <v>927</v>
-      </c>
       <c r="F29" s="11" t="s">
-        <v>913</v>
+        <v>892</v>
       </c>
     </row>
     <row r="30" ht="13.5" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
-        <v>928</v>
+        <v>906</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="C30" s="11" t="s">
+        <v>887</v>
+      </c>
+      <c r="D30" s="11" t="s">
         <v>907</v>
       </c>
-      <c r="D30" s="11" t="s">
-        <v>929</v>
-      </c>
       <c r="E30" s="11" t="s">
-        <v>930</v>
+        <v>207</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>931</v>
+        <v>908</v>
       </c>
     </row>
     <row r="31" ht="13.5" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
-        <v>932</v>
+        <v>909</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="C31" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="D31" s="11" t="s">
         <v>910</v>
       </c>
-      <c r="D31" s="11" t="s">
-        <v>933</v>
-      </c>
       <c r="E31" s="11" t="s">
-        <v>934</v>
+        <v>628</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>931</v>
+        <v>908</v>
       </c>
     </row>
     <row r="32" ht="13.5" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
-        <v>935</v>
+        <v>911</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>861</v>
+        <v>856</v>
       </c>
       <c r="C32" s="11" t="s">
+        <v>891</v>
+      </c>
+      <c r="D32" s="11" t="s">
         <v>912</v>
       </c>
-      <c r="D32" s="11" t="s">
-        <v>936</v>
-      </c>
       <c r="E32" s="11" t="s">
-        <v>937</v>
+        <v>130</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>931</v>
+        <v>908</v>
       </c>
     </row>
     <row r="33" ht="13.5" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
-        <v>938</v>
+        <v>913</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>916</v>
+        <v>279</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>939</v>
+        <v>914</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>940</v>
+        <v>226</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>931</v>
+        <v>908</v>
       </c>
     </row>
     <row r="34" ht="13.5" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
-        <v>941</v>
+        <v>915</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>918</v>
+        <v>896</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>939</v>
+        <v>914</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>942</v>
+        <v>123</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="35" ht="13.5" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
-        <v>943</v>
+        <v>916</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>921</v>
+        <v>899</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>944</v>
+        <v>917</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>945</v>
+        <v>169</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>879</v>
+        <v>868</v>
       </c>
     </row>
     <row r="36" ht="13.5" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
-        <v>946</v>
+        <v>918</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>924</v>
+        <v>902</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>944</v>
+        <v>917</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>947</v>
+        <v>98</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>879</v>
+        <v>868</v>
       </c>
     </row>
     <row r="37" ht="13.5" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
-        <v>912</v>
+        <v>891</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>927</v>
+        <v>905</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>948</v>
+        <v>919</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>949</v>
+        <v>51</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>879</v>
+        <v>868</v>
       </c>
     </row>
     <row r="38" ht="13.5" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
-        <v>950</v>
+        <v>920</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>879</v>
+        <v>868</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>951</v>
+        <v>921</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>948</v>
+        <v>919</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>952</v>
+        <v>922</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>913</v>
+        <v>892</v>
       </c>
     </row>
     <row r="39" ht="13.5" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
-        <v>857</v>
+        <v>853</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>930</v>
+        <v>207</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>953</v>
+        <v>923</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>954</v>
+        <v>120</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="40" ht="13.5" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
-        <v>955</v>
+        <v>924</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>934</v>
+        <v>628</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>953</v>
+        <v>923</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>956</v>
+        <v>146</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>894</v>
+        <v>878</v>
       </c>
     </row>
     <row r="41" ht="13.5" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
-        <v>957</v>
+        <v>925</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>937</v>
+        <v>130</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>958</v>
+        <v>926</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>959</v>
+        <v>46</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>894</v>
+        <v>878</v>
       </c>
     </row>
     <row r="42" ht="13.5" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
-        <v>960</v>
+        <v>927</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>940</v>
+        <v>226</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>958</v>
+        <v>926</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>951</v>
+        <v>921</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>961</v>
+        <v>928</v>
       </c>
     </row>
     <row r="43" ht="13.5" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
-        <v>962</v>
+        <v>929</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>963</v>
+        <v>930</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>958</v>
+        <v>926</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>964</v>
+        <v>348</v>
       </c>
       <c r="F43" s="11" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="44" ht="13.5" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
-        <v>965</v>
+        <v>931</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>861</v>
+        <v>856</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>966</v>
+        <v>932</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>886</v>
+        <v>873</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>967</v>
+        <v>95</v>
       </c>
       <c r="F44" s="11" t="s">
-        <v>857</v>
+        <v>853</v>
       </c>
     </row>
     <row r="45" ht="13.5" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
-        <v>968</v>
+        <v>933</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>861</v>
+        <v>856</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>969</v>
+        <v>934</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>970</v>
+        <v>935</v>
       </c>
       <c r="E45" s="11" t="s">
-        <v>971</v>
+        <v>936</v>
       </c>
       <c r="F45" s="11" t="s">
-        <v>879</v>
+        <v>868</v>
       </c>
     </row>
     <row r="46" ht="13.5" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
-        <v>890</v>
+        <v>875</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>942</v>
+        <v>123</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>972</v>
+        <v>937</v>
       </c>
       <c r="F46" s="11" t="s">
-        <v>879</v>
+        <v>868</v>
       </c>
     </row>
     <row r="47" ht="13.5" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
-        <v>973</v>
+        <v>938</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>945</v>
+        <v>169</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>974</v>
+        <v>939</v>
       </c>
       <c r="E47" s="11"/>
       <c r="F47" s="11"/>
     </row>
     <row r="48" ht="13.5" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
-        <v>975</v>
+        <v>940</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>976</v>
+        <v>941</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>977</v>
+        <v>942</v>
       </c>
       <c r="E48" s="11"/>
       <c r="F48" s="11"/>
     </row>
     <row r="49" ht="13.5" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
-        <v>978</v>
+        <v>943</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>969</v>
+        <v>934</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>970</v>
+        <v>935</v>
       </c>
       <c r="E49" s="11"/>
       <c r="F49" s="11"/>
     </row>
     <row r="50" ht="13.5" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="11" t="s">
-        <v>979</v>
+        <v>944</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>952</v>
+        <v>922</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>936</v>
+        <v>912</v>
       </c>
       <c r="E50" s="11"/>
       <c r="F50" s="11"/>
     </row>
     <row r="51" ht="13.5" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="s">
-        <v>980</v>
+        <v>945</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>964</v>
+        <v>348</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="E51" s="11"/>
       <c r="F51" s="11"/>
     </row>
     <row r="52" ht="13.5" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="11" t="s">
-        <v>981</v>
+        <v>946</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>967</v>
+        <v>95</v>
       </c>
       <c r="D52" s="11" t="s">
-        <v>982</v>
+        <v>947</v>
       </c>
       <c r="E52" s="11"/>
       <c r="F52" s="11"/>
     </row>
     <row r="53" ht="13.5" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
-        <v>983</v>
+        <v>948</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>971</v>
+        <v>936</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>974</v>
+        <v>939</v>
       </c>
       <c r="E53" s="11"/>
       <c r="F53" s="11"/>
     </row>
     <row r="54" ht="13.5" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
-        <v>984</v>
+        <v>949</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>861</v>
+        <v>856</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>954</v>
+        <v>120</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="E54" s="11"/>
       <c r="F54" s="11"/>
     </row>
     <row r="55" ht="13.5" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="11" t="s">
-        <v>985</v>
+        <v>950</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>861</v>
+        <v>856</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>956</v>
+        <v>146</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>986</v>
+        <v>951</v>
       </c>
       <c r="E55" s="11"/>
       <c r="F55" s="11"/>
     </row>
     <row r="56" ht="13.5" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
-        <v>987</v>
+        <v>952</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>959</v>
+        <v>46</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>986</v>
+        <v>951</v>
       </c>
       <c r="E56" s="11"/>
       <c r="F56" s="11"/>
     </row>
     <row r="57" ht="13.5" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="11" t="s">
-        <v>988</v>
+        <v>953</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>989</v>
+        <v>954</v>
       </c>
       <c r="D57" s="11" t="s">
-        <v>977</v>
+        <v>942</v>
       </c>
       <c r="E57" s="11"/>
       <c r="F57" s="11"/>
     </row>
     <row r="58" ht="13.5" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="11" t="s">
-        <v>990</v>
+        <v>955</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>990</v>
+        <v>955</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>947</v>
+        <v>98</v>
       </c>
       <c r="D58" s="11" t="s">
-        <v>977</v>
+        <v>942</v>
       </c>
       <c r="E58" s="11"/>
       <c r="F58" s="11"/>
     </row>
     <row r="59" ht="13.5" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="11" t="s">
-        <v>991</v>
+        <v>956</v>
       </c>
       <c r="B59" s="11" t="s">
         <v>842</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>972</v>
+        <v>937</v>
       </c>
       <c r="D59" s="11" t="s">
-        <v>970</v>
+        <v>935</v>
       </c>
       <c r="E59" s="11"/>
       <c r="F59" s="11"/>
     </row>
     <row r="60" ht="13.5" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="11" t="s">
-        <v>992</v>
+        <v>957</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>949</v>
+        <v>51</v>
       </c>
       <c r="D60" s="11" t="s">
-        <v>970</v>
+        <v>935</v>
       </c>
       <c r="E60" s="11"/>
       <c r="F60" s="11"/>
     </row>
     <row r="61" ht="13.5" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="11" t="s">
-        <v>920</v>
+        <v>898</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>993</v>
+        <v>958</v>
       </c>
       <c r="D61" s="11" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="E61" s="11"/>
       <c r="F61" s="11"/>
     </row>
     <row r="62" ht="13.5" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="11" t="s">
-        <v>994</v>
+        <v>959</v>
       </c>
       <c r="B62" s="11" t="s">
         <v>842</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>894</v>
+        <v>878</v>
       </c>
       <c r="D62" s="11" t="s">
-        <v>986</v>
+        <v>951</v>
       </c>
       <c r="E62" s="11"/>
       <c r="F62" s="11"/>
     </row>
     <row r="63" ht="13.5" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="11" t="s">
-        <v>889</v>
+        <v>27</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>995</v>
+        <v>960</v>
       </c>
       <c r="D63" s="11" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="E63" s="11"/>
       <c r="F63" s="11"/>
     </row>
     <row r="64" ht="13.5" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="11" t="s">
-        <v>996</v>
+        <v>961</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>861</v>
+        <v>856</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>997</v>
+        <v>962</v>
       </c>
       <c r="D64" s="11" t="s">
-        <v>862</v>
+        <v>857</v>
       </c>
       <c r="E64" s="11"/>
       <c r="F64" s="11"/>
     </row>
     <row r="65" ht="13.5" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="11" t="s">
-        <v>998</v>
+        <v>963</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>861</v>
+        <v>856</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>999</v>
+        <v>964</v>
       </c>
       <c r="D65" s="11" t="s">
-        <v>874</v>
+        <v>865</v>
       </c>
       <c r="E65" s="11"/>
       <c r="F65" s="11"/>
     </row>
     <row r="66" ht="13.5" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="11" t="s">
-        <v>1000</v>
+        <v>965</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>1001</v>
+        <v>966</v>
       </c>
       <c r="D66" s="11" t="s">
-        <v>880</v>
+        <v>869</v>
       </c>
       <c r="E66" s="11"/>
       <c r="F66" s="11"/>
     </row>
     <row r="67" ht="13.5" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="11" t="s">
-        <v>952</v>
+        <v>922</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>1002</v>
+        <v>967</v>
       </c>
       <c r="D67" s="11" t="s">
-        <v>1003</v>
+        <v>968</v>
       </c>
       <c r="E67" s="11"/>
       <c r="F67" s="11"/>
     </row>
     <row r="68" ht="13.5" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="11" t="s">
-        <v>893</v>
+        <v>635</v>
       </c>
       <c r="B68" s="11" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>1004</v>
+        <v>969</v>
       </c>
       <c r="D68" s="11" t="s">
-        <v>1003</v>
+        <v>968</v>
       </c>
       <c r="E68" s="11"/>
       <c r="F68" s="11"/>
     </row>
     <row r="69" ht="13.5" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="11" t="s">
-        <v>899</v>
+        <v>305</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>994</v>
+        <v>959</v>
       </c>
       <c r="D69" s="11" t="s">
-        <v>886</v>
+        <v>873</v>
       </c>
       <c r="E69" s="11"/>
       <c r="F69" s="11"/>
     </row>
     <row r="70" ht="13.5" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="11" t="s">
-        <v>907</v>
+        <v>887</v>
       </c>
       <c r="B70" s="11" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>1005</v>
+        <v>970</v>
       </c>
       <c r="D70" s="11" t="s">
-        <v>886</v>
+        <v>873</v>
       </c>
       <c r="E70" s="11"/>
       <c r="F70" s="11"/>
     </row>
     <row r="71" ht="13.5" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="11" t="s">
-        <v>930</v>
+        <v>207</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>861</v>
+        <v>856</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>1006</v>
+        <v>971</v>
       </c>
       <c r="D71" s="11" t="s">
-        <v>886</v>
+        <v>873</v>
       </c>
       <c r="E71" s="11"/>
       <c r="F71" s="11"/>
     </row>
     <row r="72" ht="13.5" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="11" t="s">
-        <v>1007</v>
+        <v>972</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>861</v>
+        <v>856</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>1008</v>
+        <v>973</v>
       </c>
       <c r="D72" s="11" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="E72" s="11"/>
       <c r="F72" s="11"/>
     </row>
     <row r="73" ht="13.5" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="11" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>861</v>
+        <v>856</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>1009</v>
+        <v>974</v>
       </c>
       <c r="D73" s="11" t="s">
-        <v>895</v>
+        <v>879</v>
       </c>
       <c r="E73" s="11"/>
       <c r="F73" s="11"/>
     </row>
     <row r="74" ht="13.5" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="11" t="s">
-        <v>1010</v>
+        <v>975</v>
       </c>
       <c r="B74" s="11" t="s">
-        <v>861</v>
+        <v>856</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>1011</v>
+        <v>976</v>
       </c>
       <c r="D74" s="11" t="s">
-        <v>895</v>
+        <v>879</v>
       </c>
       <c r="E74" s="11"/>
       <c r="F74" s="11"/>
     </row>
     <row r="75" ht="13.5" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="11" t="s">
-        <v>1012</v>
+        <v>977</v>
       </c>
       <c r="B75" s="11" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>1013</v>
+        <v>978</v>
       </c>
       <c r="D75" s="11" t="s">
-        <v>904</v>
+        <v>885</v>
       </c>
       <c r="E75" s="11"/>
       <c r="F75" s="11"/>
     </row>
     <row r="76" ht="13.5" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="11" t="s">
-        <v>1014</v>
+        <v>979</v>
       </c>
       <c r="B76" s="11" t="s">
-        <v>861</v>
+        <v>856</v>
       </c>
       <c r="C76" s="11" t="s">
-        <v>992</v>
+        <v>957</v>
       </c>
       <c r="D76" s="11" t="s">
-        <v>909</v>
+        <v>889</v>
       </c>
       <c r="E76" s="11"/>
       <c r="F76" s="11"/>
     </row>
     <row r="77" ht="13.5" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="11" t="s">
-        <v>934</v>
+        <v>628</v>
       </c>
       <c r="B77" s="11" t="s">
-        <v>861</v>
+        <v>856</v>
       </c>
       <c r="C77" s="11" t="s">
-        <v>1015</v>
+        <v>980</v>
       </c>
       <c r="D77" s="11" t="s">
-        <v>862</v>
+        <v>857</v>
       </c>
       <c r="E77" s="11"/>
       <c r="F77" s="11"/>
     </row>
     <row r="78" ht="13.5" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="11" t="s">
-        <v>902</v>
+        <v>270</v>
       </c>
       <c r="B78" s="11" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>1000</v>
+        <v>965</v>
       </c>
       <c r="D78" s="11" t="s">
-        <v>929</v>
+        <v>907</v>
       </c>
       <c r="E78" s="11"/>
       <c r="F78" s="11"/>
     </row>
     <row r="79" ht="13.5" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="11" t="s">
-        <v>1016</v>
+        <v>981</v>
       </c>
       <c r="B79" s="11" t="s">
-        <v>861</v>
+        <v>856</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>1017</v>
+        <v>982</v>
       </c>
       <c r="D79" s="11" t="s">
-        <v>929</v>
+        <v>907</v>
       </c>
       <c r="E79" s="11"/>
       <c r="F79" s="11"/>
     </row>
     <row r="80" ht="13.5" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="11" t="s">
-        <v>869</v>
+        <v>549</v>
       </c>
       <c r="B80" s="11" t="s">
-        <v>876</v>
+        <v>866</v>
       </c>
       <c r="C80" s="11" t="s">
-        <v>1018</v>
+        <v>983</v>
       </c>
       <c r="D80" s="11" t="s">
-        <v>929</v>
+        <v>907</v>
       </c>
       <c r="E80" s="11"/>
       <c r="F80" s="11"/>
     </row>
     <row r="81" ht="13.5" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="11" t="s">
-        <v>856</v>
+        <v>614</v>
       </c>
       <c r="B81" s="11" t="s">
-        <v>876</v>
+        <v>866</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>1019</v>
+        <v>984</v>
       </c>
       <c r="D81" s="11" t="s">
-        <v>1020</v>
+        <v>985</v>
       </c>
       <c r="E81" s="11"/>
       <c r="F81" s="11"/>
     </row>
     <row r="82" ht="13.5" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="11" t="s">
-        <v>905</v>
+        <v>273</v>
       </c>
       <c r="B82" s="11" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>1021</v>
+        <v>986</v>
       </c>
       <c r="D82" s="11" t="s">
-        <v>1020</v>
+        <v>985</v>
       </c>
       <c r="E82" s="11"/>
       <c r="F82" s="11"/>
     </row>
     <row r="83" ht="13.5" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="11" t="s">
-        <v>910</v>
+        <v>276</v>
       </c>
       <c r="B83" s="11" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="C83" s="11" t="s">
-        <v>1022</v>
+        <v>987</v>
       </c>
       <c r="D83" s="11" t="s">
-        <v>1020</v>
+        <v>985</v>
       </c>
       <c r="E83" s="11"/>
       <c r="F83" s="11"/>
     </row>
     <row r="84" ht="13.5" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="11" t="s">
-        <v>896</v>
+        <v>77</v>
       </c>
       <c r="B84" s="11" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="C84" s="11" t="s">
-        <v>1023</v>
+        <v>988</v>
       </c>
       <c r="D84" s="11" t="s">
-        <v>1020</v>
+        <v>985</v>
       </c>
       <c r="E84" s="11"/>
       <c r="F84" s="11"/>
     </row>
     <row r="85" ht="13.5" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="11" t="s">
-        <v>937</v>
+        <v>130</v>
       </c>
       <c r="B85" s="11" t="s">
-        <v>861</v>
+        <v>856</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>1024</v>
+        <v>989</v>
       </c>
       <c r="D85" s="11" t="s">
-        <v>1020</v>
+        <v>985</v>
       </c>
       <c r="E85" s="11"/>
       <c r="F85" s="11"/>
     </row>
     <row r="86" ht="13.5" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="11" t="s">
-        <v>859</v>
+        <v>378</v>
       </c>
       <c r="B86" s="11" t="s">
-        <v>876</v>
+        <v>866</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>1007</v>
+        <v>972</v>
       </c>
       <c r="D86" s="11" t="s">
-        <v>953</v>
+        <v>923</v>
       </c>
       <c r="E86" s="11"/>
       <c r="F86" s="11"/>
     </row>
     <row r="87" ht="13.5" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="11" t="s">
-        <v>1013</v>
+        <v>978</v>
       </c>
       <c r="B87" s="11" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
       <c r="C87" s="11" t="s">
-        <v>996</v>
+        <v>961</v>
       </c>
       <c r="D87" s="11" t="s">
-        <v>1025</v>
+        <v>990</v>
       </c>
       <c r="E87" s="11"/>
       <c r="F87" s="11"/>
     </row>
     <row r="88" ht="13.5" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="11" t="s">
-        <v>1026</v>
+        <v>991</v>
       </c>
       <c r="B88" s="11" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="C88" s="11" t="s">
-        <v>998</v>
+        <v>963</v>
       </c>
       <c r="D88" s="11" t="s">
-        <v>1025</v>
+        <v>990</v>
       </c>
       <c r="E88" s="11"/>
       <c r="F88" s="11"/>
     </row>
     <row r="89" ht="13.5" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="11" t="s">
-        <v>1027</v>
+        <v>992</v>
       </c>
       <c r="B89" s="11" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="C89" s="11" t="s">
-        <v>1028</v>
+        <v>993</v>
       </c>
       <c r="D89" s="11" t="s">
-        <v>1025</v>
+        <v>990</v>
       </c>
       <c r="E89" s="11"/>
       <c r="F89" s="11"/>
     </row>
     <row r="90" ht="13.5" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="11" t="s">
-        <v>1029</v>
+        <v>994</v>
       </c>
       <c r="B90" s="11" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="C90" s="11" t="s">
-        <v>1030</v>
+        <v>995</v>
       </c>
       <c r="D90" s="11" t="s">
-        <v>1025</v>
+        <v>990</v>
       </c>
       <c r="E90" s="11"/>
       <c r="F90" s="11"/>
     </row>
     <row r="91" ht="13.5" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="11" t="s">
-        <v>1031</v>
+        <v>996</v>
       </c>
       <c r="B91" s="11" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="C91" s="11" t="s">
-        <v>1032</v>
+        <v>997</v>
       </c>
       <c r="D91" s="11" t="s">
-        <v>1025</v>
+        <v>990</v>
       </c>
       <c r="E91" s="11"/>
       <c r="F91" s="11"/>
     </row>
     <row r="92" ht="13.5" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="11" t="s">
-        <v>1033</v>
+        <v>998</v>
       </c>
       <c r="B92" s="11" t="s">
-        <v>861</v>
+        <v>856</v>
       </c>
       <c r="C92" s="11" t="s">
-        <v>1034</v>
+        <v>999</v>
       </c>
       <c r="D92" s="11" t="s">
-        <v>1025</v>
+        <v>990</v>
       </c>
       <c r="E92" s="11"/>
       <c r="F92" s="11"/>
     </row>
     <row r="93" ht="13.5" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="11" t="s">
-        <v>897</v>
+        <v>880</v>
       </c>
       <c r="B93" s="11" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="C93" s="11" t="s">
-        <v>1035</v>
+        <v>1000</v>
       </c>
       <c r="D93" s="11" t="s">
-        <v>958</v>
+        <v>926</v>
       </c>
       <c r="E93" s="11"/>
       <c r="F93" s="11"/>
     </row>
     <row r="94" ht="13.5" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="11" t="s">
-        <v>1036</v>
+        <v>1001</v>
       </c>
       <c r="B94" s="11" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
       <c r="C94" s="11" t="s">
-        <v>1037</v>
+        <v>1002</v>
       </c>
       <c r="D94" s="11" t="s">
-        <v>958</v>
+        <v>926</v>
       </c>
       <c r="E94" s="11"/>
       <c r="F94" s="11"/>
     </row>
     <row r="95" ht="13.5" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="11" t="s">
-        <v>1038</v>
+        <v>1003</v>
       </c>
       <c r="B95" s="11" t="s">
-        <v>861</v>
+        <v>856</v>
       </c>
       <c r="C95" s="11" t="s">
-        <v>885</v>
+        <v>872</v>
       </c>
       <c r="D95" s="11" t="s">
-        <v>885</v>
+        <v>872</v>
       </c>
       <c r="E95" s="11"/>
       <c r="F95" s="11"/>
     </row>
     <row r="96" ht="13.5" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="11" t="s">
-        <v>1039</v>
+        <v>1004</v>
       </c>
       <c r="B96" s="11" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="C96" s="11" t="s">
-        <v>990</v>
+        <v>955</v>
       </c>
       <c r="D96" s="11" t="s">
-        <v>990</v>
+        <v>955</v>
       </c>
       <c r="E96" s="11"/>
       <c r="F96" s="11"/>
     </row>
     <row r="97" ht="13.5" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="11" t="s">
-        <v>1040</v>
+        <v>1005</v>
       </c>
       <c r="B97" s="11" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="C97" s="11" t="s">
-        <v>882</v>
+        <v>870</v>
       </c>
       <c r="D97" s="11" t="s">
-        <v>882</v>
+        <v>870</v>
       </c>
       <c r="E97" s="11"/>
       <c r="F97" s="11"/>
     </row>
     <row r="98" ht="13.5" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="11" t="s">
-        <v>1041</v>
+        <v>1006</v>
       </c>
       <c r="B98" s="11" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="C98" s="11" t="s">
-        <v>1010</v>
+        <v>975</v>
       </c>
       <c r="D98" s="11" t="s">
-        <v>1010</v>
+        <v>975</v>
       </c>
       <c r="E98" s="11"/>
       <c r="F98" s="11"/>
     </row>
     <row r="99" ht="13.5" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="11" t="s">
-        <v>1042</v>
+        <v>1007</v>
       </c>
       <c r="B99" s="11" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="C99" s="11" t="s">
-        <v>888</v>
+        <v>874</v>
       </c>
       <c r="D99" s="11" t="s">
-        <v>888</v>
+        <v>874</v>
       </c>
       <c r="E99" s="11"/>
       <c r="F99" s="11"/>
     </row>
     <row r="100" ht="13.5" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="11" t="s">
-        <v>1043</v>
+        <v>1008</v>
       </c>
       <c r="B100" s="11" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="C100" s="11" t="s">
-        <v>1044</v>
+        <v>1009</v>
       </c>
       <c r="D100" s="11" t="s">
-        <v>1045</v>
+        <v>1010</v>
       </c>
       <c r="E100" s="11"/>
       <c r="F100" s="11"/>
     </row>
     <row r="101" ht="13.5" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="11" t="s">
-        <v>1046</v>
+        <v>1011</v>
       </c>
       <c r="B101" s="11" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="C101" s="11"/>
       <c r="D101" s="11"/>
@@ -5277,10 +5172,10 @@
     </row>
     <row r="102" ht="13.5" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="11" t="s">
-        <v>1047</v>
+        <v>1012</v>
       </c>
       <c r="B102" s="11" t="s">
-        <v>861</v>
+        <v>856</v>
       </c>
       <c r="C102" s="11"/>
       <c r="D102" s="11"/>
@@ -5289,10 +5184,10 @@
     </row>
     <row r="103" ht="13.5" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="11" t="s">
-        <v>913</v>
+        <v>892</v>
       </c>
       <c r="B103" s="11" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="C103" s="11"/>
       <c r="D103" s="11"/>
@@ -5301,10 +5196,10 @@
     </row>
     <row r="104" ht="13.5" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="11" t="s">
-        <v>931</v>
+        <v>908</v>
       </c>
       <c r="B104" s="11" t="s">
-        <v>861</v>
+        <v>856</v>
       </c>
       <c r="C104" s="11"/>
       <c r="D104" s="11"/>
@@ -5313,10 +5208,10 @@
     </row>
     <row r="105" ht="13.5" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="11" t="s">
-        <v>1048</v>
+        <v>1013</v>
       </c>
       <c r="B105" s="11" t="s">
-        <v>876</v>
+        <v>866</v>
       </c>
       <c r="C105" s="11"/>
       <c r="D105" s="11"/>
@@ -5325,10 +5220,10 @@
     </row>
     <row r="106" ht="13.5" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="11" t="s">
-        <v>972</v>
+        <v>937</v>
       </c>
       <c r="B106" s="11" t="s">
-        <v>879</v>
+        <v>868</v>
       </c>
       <c r="C106" s="11"/>
       <c r="D106" s="11"/>
@@ -5466,8 +5361,8 @@
       <c r="K2" t="s">
         <v>27</v>
       </c>
-      <c r="L2" t="s">
-        <v>25</v>
+      <c r="L2">
+        <f>VLOOKUP(K2,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M2" s="8" t="s">
         <v>28</v>
@@ -5540,8 +5435,8 @@
       <c r="K3" t="s">
         <v>36</v>
       </c>
-      <c r="L3" t="s">
-        <v>25</v>
+      <c r="L3">
+        <f>VLOOKUP(K3,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M3" s="8" t="s">
         <v>28</v>
@@ -5614,8 +5509,8 @@
       <c r="K4" t="s">
         <v>41</v>
       </c>
-      <c r="L4" t="s">
-        <v>25</v>
+      <c r="L4">
+        <f>VLOOKUP(K4,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M4" s="8" t="s">
         <v>28</v>
@@ -5688,8 +5583,8 @@
       <c r="K5" t="s">
         <v>46</v>
       </c>
-      <c r="L5" t="s">
-        <v>25</v>
+      <c r="L5">
+        <f>VLOOKUP(K5,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M5" s="8" t="s">
         <v>28</v>
@@ -5762,8 +5657,8 @@
       <c r="K6" t="s">
         <v>51</v>
       </c>
-      <c r="L6" t="s">
-        <v>25</v>
+      <c r="L6">
+        <f>VLOOKUP(K6,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M6" s="8" t="s">
         <v>52</v>
@@ -5836,8 +5731,8 @@
       <c r="K7" t="s">
         <v>41</v>
       </c>
-      <c r="L7" t="s">
-        <v>25</v>
+      <c r="L7">
+        <f>VLOOKUP(K7,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M7" s="8" t="s">
         <v>28</v>
@@ -5910,8 +5805,8 @@
       <c r="K8" t="s">
         <v>51</v>
       </c>
-      <c r="L8" t="s">
-        <v>25</v>
+      <c r="L8">
+        <f>VLOOKUP(K8,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M8" s="8" t="s">
         <v>28</v>
@@ -5984,8 +5879,8 @@
       <c r="K9" t="s">
         <v>41</v>
       </c>
-      <c r="L9" t="s">
-        <v>25</v>
+      <c r="L9">
+        <f>VLOOKUP(K9,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M9" s="8" t="s">
         <v>52</v>
@@ -6058,8 +5953,8 @@
       <c r="K10" t="s">
         <v>67</v>
       </c>
-      <c r="L10" t="s">
-        <v>25</v>
+      <c r="L10">
+        <f>VLOOKUP(K10,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M10" s="8" t="s">
         <v>68</v>
@@ -6132,8 +6027,8 @@
       <c r="K11" t="s">
         <v>67</v>
       </c>
-      <c r="L11" t="s">
-        <v>25</v>
+      <c r="L11">
+        <f>VLOOKUP(K11,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M11" s="8" t="s">
         <v>28</v>
@@ -6206,8 +6101,8 @@
       <c r="K12" t="s">
         <v>27</v>
       </c>
-      <c r="L12" t="s">
-        <v>25</v>
+      <c r="L12">
+        <f>VLOOKUP(K12,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M12" s="8" t="s">
         <v>71</v>
@@ -6280,8 +6175,8 @@
       <c r="K13" t="s">
         <v>27</v>
       </c>
-      <c r="L13" t="s">
-        <v>25</v>
+      <c r="L13">
+        <f>VLOOKUP(K13,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M13" s="8" t="s">
         <v>52</v>
@@ -6354,8 +6249,8 @@
       <c r="K14" t="s">
         <v>27</v>
       </c>
-      <c r="L14" t="s">
-        <v>25</v>
+      <c r="L14">
+        <f>VLOOKUP(K14,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M14" s="8" t="s">
         <v>71</v>
@@ -6428,8 +6323,8 @@
       <c r="K15" t="s">
         <v>77</v>
       </c>
-      <c r="L15" t="s">
-        <v>25</v>
+      <c r="L15">
+        <f>VLOOKUP(K15,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M15" s="8" t="s">
         <v>28</v>
@@ -6502,8 +6397,8 @@
       <c r="K16" t="s">
         <v>67</v>
       </c>
-      <c r="L16" t="s">
-        <v>25</v>
+      <c r="L16">
+        <f>VLOOKUP(K16,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M16" s="8" t="s">
         <v>79</v>
@@ -6576,8 +6471,8 @@
       <c r="K17" t="s">
         <v>27</v>
       </c>
-      <c r="L17" t="s">
-        <v>25</v>
+      <c r="L17">
+        <f>VLOOKUP(K17,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M17" s="8" t="s">
         <v>81</v>
@@ -6650,8 +6545,8 @@
       <c r="K18" t="s">
         <v>84</v>
       </c>
-      <c r="L18" t="s">
-        <v>25</v>
+      <c r="L18">
+        <f>VLOOKUP(K18,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M18" s="8" t="s">
         <v>28</v>
@@ -6724,8 +6619,8 @@
       <c r="K19" t="s">
         <v>87</v>
       </c>
-      <c r="L19" t="s">
-        <v>25</v>
+      <c r="L19">
+        <f>VLOOKUP(K19,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M19" s="8" t="s">
         <v>28</v>
@@ -6798,8 +6693,8 @@
       <c r="K20" t="s">
         <v>67</v>
       </c>
-      <c r="L20" t="s">
-        <v>25</v>
+      <c r="L20">
+        <f>VLOOKUP(K20,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M20" s="8" t="s">
         <v>89</v>
@@ -6872,8 +6767,8 @@
       <c r="K21" t="s">
         <v>27</v>
       </c>
-      <c r="L21" t="s">
-        <v>25</v>
+      <c r="L21">
+        <f>VLOOKUP(K21,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M21" s="8" t="s">
         <v>71</v>
@@ -6946,8 +6841,8 @@
       <c r="K22" t="s">
         <v>41</v>
       </c>
-      <c r="L22" t="s">
-        <v>25</v>
+      <c r="L22">
+        <f>VLOOKUP(K22,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M22" s="8" t="s">
         <v>81</v>
@@ -7020,8 +6915,8 @@
       <c r="K23" t="s">
         <v>95</v>
       </c>
-      <c r="L23" t="s">
-        <v>25</v>
+      <c r="L23">
+        <f>VLOOKUP(K23,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M23" s="8" t="s">
         <v>28</v>
@@ -7094,8 +6989,8 @@
       <c r="K24" t="s">
         <v>98</v>
       </c>
-      <c r="L24" t="s">
-        <v>25</v>
+      <c r="L24">
+        <f>VLOOKUP(K24,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M24" s="8" t="s">
         <v>28</v>
@@ -7168,8 +7063,8 @@
       <c r="K25" t="s">
         <v>51</v>
       </c>
-      <c r="L25" t="s">
-        <v>25</v>
+      <c r="L25">
+        <f>VLOOKUP(K25,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M25" s="8" t="s">
         <v>100</v>
@@ -7242,8 +7137,8 @@
       <c r="K26" t="s">
         <v>36</v>
       </c>
-      <c r="L26" t="s">
-        <v>25</v>
+      <c r="L26">
+        <f>VLOOKUP(K26,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M26" s="8" t="s">
         <v>28</v>
@@ -7316,8 +7211,8 @@
       <c r="K27" t="s">
         <v>104</v>
       </c>
-      <c r="L27" t="s">
-        <v>25</v>
+      <c r="L27">
+        <f>VLOOKUP(K27,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M27" s="8" t="s">
         <v>28</v>
@@ -7390,8 +7285,8 @@
       <c r="K28" t="s">
         <v>98</v>
       </c>
-      <c r="L28" t="s">
-        <v>25</v>
+      <c r="L28">
+        <f>VLOOKUP(K28,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M28" s="8" t="s">
         <v>28</v>
@@ -7464,8 +7359,8 @@
       <c r="K29" t="s">
         <v>51</v>
       </c>
-      <c r="L29" t="s">
-        <v>25</v>
+      <c r="L29">
+        <f>VLOOKUP(K29,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M29" s="8" t="s">
         <v>106</v>
@@ -7538,8 +7433,8 @@
       <c r="K30" t="s">
         <v>41</v>
       </c>
-      <c r="L30" t="s">
-        <v>25</v>
+      <c r="L30">
+        <f>VLOOKUP(K30,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M30" s="8" t="s">
         <v>52</v>
@@ -7612,8 +7507,8 @@
       <c r="K31" t="s">
         <v>36</v>
       </c>
-      <c r="L31" t="s">
-        <v>25</v>
+      <c r="L31">
+        <f>VLOOKUP(K31,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M31" s="8" t="s">
         <v>28</v>
@@ -7686,8 +7581,8 @@
       <c r="K32" t="s">
         <v>98</v>
       </c>
-      <c r="L32" t="s">
-        <v>25</v>
+      <c r="L32">
+        <f>VLOOKUP(K32,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M32" s="8" t="s">
         <v>100</v>
@@ -7760,8 +7655,8 @@
       <c r="K33" t="s">
         <v>51</v>
       </c>
-      <c r="L33" t="s">
-        <v>25</v>
+      <c r="L33">
+        <f>VLOOKUP(K33,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M33" s="8" t="s">
         <v>81</v>
@@ -7834,8 +7729,8 @@
       <c r="K34" t="s">
         <v>41</v>
       </c>
-      <c r="L34" t="s">
-        <v>25</v>
+      <c r="L34">
+        <f>VLOOKUP(K34,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M34" s="8" t="s">
         <v>52</v>
@@ -7908,8 +7803,8 @@
       <c r="K35" t="s">
         <v>95</v>
       </c>
-      <c r="L35" t="s">
-        <v>25</v>
+      <c r="L35">
+        <f>VLOOKUP(K35,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M35" s="8" t="s">
         <v>28</v>
@@ -7982,8 +7877,8 @@
       <c r="K36" t="s">
         <v>113</v>
       </c>
-      <c r="L36" t="s">
-        <v>25</v>
+      <c r="L36">
+        <f>VLOOKUP(K36,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M36" s="8" t="s">
         <v>28</v>
@@ -8056,8 +7951,8 @@
       <c r="K37" t="s">
         <v>98</v>
       </c>
-      <c r="L37" t="s">
-        <v>25</v>
+      <c r="L37">
+        <f>VLOOKUP(K37,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M37" s="8" t="s">
         <v>28</v>
@@ -8130,8 +8025,8 @@
       <c r="K38" t="s">
         <v>51</v>
       </c>
-      <c r="L38" t="s">
-        <v>25</v>
+      <c r="L38">
+        <f>VLOOKUP(K38,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M38" s="8" t="s">
         <v>52</v>
@@ -8204,8 +8099,8 @@
       <c r="K39" t="s">
         <v>41</v>
       </c>
-      <c r="L39" t="s">
-        <v>25</v>
+      <c r="L39">
+        <f>VLOOKUP(K39,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M39" s="8" t="s">
         <v>52</v>
@@ -8278,8 +8173,8 @@
       <c r="K40" t="s">
         <v>36</v>
       </c>
-      <c r="L40" t="s">
-        <v>25</v>
+      <c r="L40">
+        <f>VLOOKUP(K40,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M40" s="8" t="s">
         <v>28</v>
@@ -8352,8 +8247,8 @@
       <c r="K41" t="s">
         <v>98</v>
       </c>
-      <c r="L41" t="s">
-        <v>25</v>
+      <c r="L41">
+        <f>VLOOKUP(K41,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M41" s="8" t="s">
         <v>28</v>
@@ -8426,8 +8321,8 @@
       <c r="K42" t="s">
         <v>51</v>
       </c>
-      <c r="L42" t="s">
-        <v>25</v>
+      <c r="L42">
+        <f>VLOOKUP(K42,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M42" s="8" t="s">
         <v>52</v>
@@ -8500,8 +8395,8 @@
       <c r="K43" t="s">
         <v>41</v>
       </c>
-      <c r="L43" t="s">
-        <v>25</v>
+      <c r="L43">
+        <f>VLOOKUP(K43,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M43" s="8" t="s">
         <v>28</v>
@@ -8574,8 +8469,8 @@
       <c r="K44" t="s">
         <v>36</v>
       </c>
-      <c r="L44" t="s">
-        <v>25</v>
+      <c r="L44">
+        <f>VLOOKUP(K44,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M44" s="8" t="s">
         <v>28</v>
@@ -8648,8 +8543,8 @@
       <c r="K45" t="s">
         <v>113</v>
       </c>
-      <c r="L45" t="s">
-        <v>25</v>
+      <c r="L45">
+        <f>VLOOKUP(K45,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M45" s="8" t="s">
         <v>28</v>
@@ -8722,8 +8617,8 @@
       <c r="K46" t="s">
         <v>120</v>
       </c>
-      <c r="L46" t="s">
-        <v>25</v>
+      <c r="L46">
+        <f>VLOOKUP(K46,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M46" s="8" t="s">
         <v>81</v>
@@ -8796,8 +8691,8 @@
       <c r="K47" t="s">
         <v>123</v>
       </c>
-      <c r="L47" t="s">
-        <v>25</v>
+      <c r="L47">
+        <f>VLOOKUP(K47,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M47" s="8" t="s">
         <v>124</v>
@@ -8870,8 +8765,8 @@
       <c r="K48" t="s">
         <v>84</v>
       </c>
-      <c r="L48" t="s">
-        <v>25</v>
+      <c r="L48">
+        <f>VLOOKUP(K48,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M48" s="8" t="s">
         <v>126</v>
@@ -8944,8 +8839,8 @@
       <c r="K49" t="s">
         <v>67</v>
       </c>
-      <c r="L49" t="s">
-        <v>25</v>
+      <c r="L49">
+        <f>VLOOKUP(K49,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M49" s="8" t="s">
         <v>28</v>
@@ -9018,8 +8913,8 @@
       <c r="K50" t="s">
         <v>130</v>
       </c>
-      <c r="L50" t="s">
-        <v>25</v>
+      <c r="L50">
+        <f>VLOOKUP(K50,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M50" s="8" t="s">
         <v>81</v>
@@ -9092,8 +8987,8 @@
       <c r="K51" t="s">
         <v>67</v>
       </c>
-      <c r="L51" t="s">
-        <v>25</v>
+      <c r="L51">
+        <f>VLOOKUP(K51,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M51" s="8" t="s">
         <v>132</v>
@@ -9166,8 +9061,8 @@
       <c r="K52" t="s">
         <v>67</v>
       </c>
-      <c r="L52" t="s">
-        <v>25</v>
+      <c r="L52">
+        <f>VLOOKUP(K52,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M52" s="8" t="s">
         <v>28</v>
@@ -9240,8 +9135,8 @@
       <c r="K53" t="s">
         <v>67</v>
       </c>
-      <c r="L53" t="s">
-        <v>25</v>
+      <c r="L53">
+        <f>VLOOKUP(K53,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M53" s="8" t="s">
         <v>136</v>
@@ -9314,8 +9209,8 @@
       <c r="K54" t="s">
         <v>27</v>
       </c>
-      <c r="L54" t="s">
-        <v>25</v>
+      <c r="L54">
+        <f>VLOOKUP(K54,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M54" s="8" t="s">
         <v>71</v>
@@ -9388,8 +9283,8 @@
       <c r="K55" t="s">
         <v>27</v>
       </c>
-      <c r="L55" t="s">
-        <v>25</v>
+      <c r="L55">
+        <f>VLOOKUP(K55,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M55" s="8" t="s">
         <v>136</v>
@@ -9462,8 +9357,8 @@
       <c r="K56" t="s">
         <v>77</v>
       </c>
-      <c r="L56" t="s">
-        <v>25</v>
+      <c r="L56">
+        <f>VLOOKUP(K56,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M56" s="8" t="s">
         <v>28</v>
@@ -9536,8 +9431,8 @@
       <c r="K57" t="s">
         <v>67</v>
       </c>
-      <c r="L57" t="s">
-        <v>25</v>
+      <c r="L57">
+        <f>VLOOKUP(K57,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M57" s="8" t="s">
         <v>106</v>
@@ -9610,8 +9505,8 @@
       <c r="K58" t="s">
         <v>27</v>
       </c>
-      <c r="L58" t="s">
-        <v>25</v>
+      <c r="L58">
+        <f>VLOOKUP(K58,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M58" s="8" t="s">
         <v>28</v>
@@ -9684,8 +9579,8 @@
       <c r="K59" t="s">
         <v>146</v>
       </c>
-      <c r="L59" t="s">
-        <v>25</v>
+      <c r="L59">
+        <f>VLOOKUP(K59,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M59" s="8" t="s">
         <v>79</v>
@@ -9758,8 +9653,8 @@
       <c r="K60" t="s">
         <v>146</v>
       </c>
-      <c r="L60" t="s">
-        <v>25</v>
+      <c r="L60">
+        <f>VLOOKUP(K60,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M60" s="8" t="s">
         <v>100</v>
@@ -9832,8 +9727,8 @@
       <c r="K61" t="s">
         <v>146</v>
       </c>
-      <c r="L61" t="s">
-        <v>25</v>
+      <c r="L61">
+        <f>VLOOKUP(K61,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M61" s="8" t="s">
         <v>132</v>
@@ -9906,8 +9801,8 @@
       <c r="K62" t="s">
         <v>123</v>
       </c>
-      <c r="L62" t="s">
-        <v>25</v>
+      <c r="L62">
+        <f>VLOOKUP(K62,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M62" s="8" t="s">
         <v>152</v>
@@ -9980,8 +9875,8 @@
       <c r="K63" t="s">
         <v>84</v>
       </c>
-      <c r="L63" t="s">
-        <v>25</v>
+      <c r="L63">
+        <f>VLOOKUP(K63,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M63" s="8" t="s">
         <v>126</v>
@@ -10054,8 +9949,8 @@
       <c r="K64" t="s">
         <v>67</v>
       </c>
-      <c r="L64" t="s">
-        <v>25</v>
+      <c r="L64">
+        <f>VLOOKUP(K64,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M64" s="8" t="s">
         <v>71</v>
@@ -10128,8 +10023,8 @@
       <c r="K65" t="s">
         <v>67</v>
       </c>
-      <c r="L65" t="s">
-        <v>25</v>
+      <c r="L65">
+        <f>VLOOKUP(K65,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M65" s="8" t="s">
         <v>157</v>
@@ -10202,8 +10097,8 @@
       <c r="K66" t="s">
         <v>27</v>
       </c>
-      <c r="L66" t="s">
-        <v>25</v>
+      <c r="L66">
+        <f>VLOOKUP(K66,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M66" s="8" t="s">
         <v>100</v>
@@ -10276,8 +10171,8 @@
       <c r="K67" t="s">
         <v>67</v>
       </c>
-      <c r="L67" t="s">
-        <v>25</v>
+      <c r="L67">
+        <f>VLOOKUP(K67,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M67" s="8" t="s">
         <v>71</v>
@@ -10350,8 +10245,8 @@
       <c r="K68" t="s">
         <v>67</v>
       </c>
-      <c r="L68" t="s">
-        <v>25</v>
+      <c r="L68">
+        <f>VLOOKUP(K68,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M68" s="8" t="s">
         <v>124</v>
@@ -10424,8 +10319,8 @@
       <c r="K69" t="s">
         <v>27</v>
       </c>
-      <c r="L69" t="s">
-        <v>25</v>
+      <c r="L69">
+        <f>VLOOKUP(K69,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M69" s="8" t="s">
         <v>28</v>
@@ -10498,8 +10393,8 @@
       <c r="K70" t="s">
         <v>41</v>
       </c>
-      <c r="L70" t="s">
-        <v>25</v>
+      <c r="L70">
+        <f>VLOOKUP(K70,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M70" s="8" t="s">
         <v>52</v>
@@ -10572,8 +10467,8 @@
       <c r="K71" t="s">
         <v>51</v>
       </c>
-      <c r="L71" t="s">
-        <v>25</v>
+      <c r="L71">
+        <f>VLOOKUP(K71,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M71" s="8" t="s">
         <v>100</v>
@@ -10646,8 +10541,8 @@
       <c r="K72" t="s">
         <v>98</v>
       </c>
-      <c r="L72" t="s">
-        <v>25</v>
+      <c r="L72">
+        <f>VLOOKUP(K72,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M72" s="8" t="s">
         <v>28</v>
@@ -10720,8 +10615,8 @@
       <c r="K73" t="s">
         <v>169</v>
       </c>
-      <c r="L73" t="s">
-        <v>25</v>
+      <c r="L73">
+        <f>VLOOKUP(K73,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M73" s="8" t="s">
         <v>52</v>
@@ -10794,8 +10689,8 @@
       <c r="K74" t="s">
         <v>169</v>
       </c>
-      <c r="L74" t="s">
-        <v>25</v>
+      <c r="L74">
+        <f>VLOOKUP(K74,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M74" s="8" t="s">
         <v>52</v>
@@ -10868,8 +10763,8 @@
       <c r="K75" t="s">
         <v>36</v>
       </c>
-      <c r="L75" t="s">
-        <v>25</v>
+      <c r="L75">
+        <f>VLOOKUP(K75,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M75" s="8" t="s">
         <v>28</v>
@@ -10942,8 +10837,8 @@
       <c r="K76" t="s">
         <v>98</v>
       </c>
-      <c r="L76" t="s">
-        <v>25</v>
+      <c r="L76">
+        <f>VLOOKUP(K76,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M76" s="8" t="s">
         <v>52</v>
@@ -11016,8 +10911,8 @@
       <c r="K77" t="s">
         <v>98</v>
       </c>
-      <c r="L77" t="s">
-        <v>25</v>
+      <c r="L77">
+        <f>VLOOKUP(K77,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M77" s="8" t="s">
         <v>52</v>
@@ -11090,8 +10985,8 @@
       <c r="K78" t="s">
         <v>169</v>
       </c>
-      <c r="L78" t="s">
-        <v>25</v>
+      <c r="L78">
+        <f>VLOOKUP(K78,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M78" s="8" t="s">
         <v>174</v>
@@ -11164,8 +11059,8 @@
       <c r="K79" t="s">
         <v>41</v>
       </c>
-      <c r="L79" t="s">
-        <v>25</v>
+      <c r="L79">
+        <f>VLOOKUP(K79,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M79" s="8" t="s">
         <v>100</v>
@@ -11238,8 +11133,8 @@
       <c r="K80" t="s">
         <v>36</v>
       </c>
-      <c r="L80" t="s">
-        <v>25</v>
+      <c r="L80">
+        <f>VLOOKUP(K80,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M80" s="8" t="s">
         <v>100</v>
@@ -11312,8 +11207,8 @@
       <c r="K81" t="s">
         <v>180</v>
       </c>
-      <c r="L81" t="s">
-        <v>25</v>
+      <c r="L81">
+        <f>VLOOKUP(K81,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M81" s="8" t="s">
         <v>28</v>
@@ -11386,8 +11281,8 @@
       <c r="K82" t="s">
         <v>51</v>
       </c>
-      <c r="L82" t="s">
-        <v>25</v>
+      <c r="L82">
+        <f>VLOOKUP(K82,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M82" s="8" t="s">
         <v>71</v>
@@ -11460,8 +11355,8 @@
       <c r="K83" t="s">
         <v>41</v>
       </c>
-      <c r="L83" t="s">
-        <v>25</v>
+      <c r="L83">
+        <f>VLOOKUP(K83,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M83" s="8" t="s">
         <v>28</v>
@@ -11534,8 +11429,8 @@
       <c r="K84" t="s">
         <v>36</v>
       </c>
-      <c r="L84" t="s">
-        <v>25</v>
+      <c r="L84">
+        <f>VLOOKUP(K84,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M84" s="8" t="s">
         <v>81</v>
@@ -11608,8 +11503,8 @@
       <c r="K85" t="s">
         <v>180</v>
       </c>
-      <c r="L85" t="s">
-        <v>25</v>
+      <c r="L85">
+        <f>VLOOKUP(K85,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M85" s="8" t="s">
         <v>52</v>
@@ -11682,8 +11577,8 @@
       <c r="K86" t="s">
         <v>41</v>
       </c>
-      <c r="L86" t="s">
-        <v>25</v>
+      <c r="L86">
+        <f>VLOOKUP(K86,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M86" s="8" t="s">
         <v>52</v>
@@ -11756,8 +11651,8 @@
       <c r="K87" t="s">
         <v>36</v>
       </c>
-      <c r="L87" t="s">
-        <v>25</v>
+      <c r="L87">
+        <f>VLOOKUP(K87,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M87" s="8" t="s">
         <v>28</v>
@@ -11830,8 +11725,8 @@
       <c r="K88" t="s">
         <v>180</v>
       </c>
-      <c r="L88" t="s">
-        <v>25</v>
+      <c r="L88">
+        <f>VLOOKUP(K88,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M88" s="8" t="s">
         <v>81</v>
@@ -11904,8 +11799,8 @@
       <c r="K89" t="s">
         <v>104</v>
       </c>
-      <c r="L89" t="s">
-        <v>25</v>
+      <c r="L89">
+        <f>VLOOKUP(K89,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M89" s="8" t="s">
         <v>71</v>
@@ -11978,8 +11873,8 @@
       <c r="K90" t="s">
         <v>191</v>
       </c>
-      <c r="L90" t="s">
-        <v>25</v>
+      <c r="L90">
+        <f>VLOOKUP(K90,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M90" s="8" t="s">
         <v>28</v>
@@ -12052,8 +11947,8 @@
       <c r="K91" t="s">
         <v>180</v>
       </c>
-      <c r="L91" t="s">
-        <v>25</v>
+      <c r="L91">
+        <f>VLOOKUP(K91,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M91" s="8" t="s">
         <v>52</v>
@@ -12126,8 +12021,8 @@
       <c r="K92" t="s">
         <v>104</v>
       </c>
-      <c r="L92" t="s">
-        <v>25</v>
+      <c r="L92">
+        <f>VLOOKUP(K92,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M92" s="8" t="s">
         <v>71</v>
@@ -12200,8 +12095,8 @@
       <c r="K93" t="s">
         <v>191</v>
       </c>
-      <c r="L93" t="s">
-        <v>25</v>
+      <c r="L93">
+        <f>VLOOKUP(K93,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M93" s="8" t="s">
         <v>81</v>
@@ -12274,8 +12169,8 @@
       <c r="K94" t="s">
         <v>41</v>
       </c>
-      <c r="L94" t="s">
-        <v>25</v>
+      <c r="L94">
+        <f>VLOOKUP(K94,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M94" s="8" t="s">
         <v>52</v>
@@ -12348,8 +12243,8 @@
       <c r="K95" t="s">
         <v>51</v>
       </c>
-      <c r="L95" t="s">
-        <v>25</v>
+      <c r="L95">
+        <f>VLOOKUP(K95,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M95" s="8" t="s">
         <v>100</v>
@@ -12422,8 +12317,8 @@
       <c r="K96" t="s">
         <v>98</v>
       </c>
-      <c r="L96" t="s">
-        <v>25</v>
+      <c r="L96">
+        <f>VLOOKUP(K96,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M96" s="8" t="s">
         <v>106</v>
@@ -12496,8 +12391,8 @@
       <c r="K97" t="s">
         <v>169</v>
       </c>
-      <c r="L97" t="s">
-        <v>25</v>
+      <c r="L97">
+        <f>VLOOKUP(K97,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M97" s="8" t="s">
         <v>152</v>
@@ -12570,8 +12465,8 @@
       <c r="K98" t="s">
         <v>169</v>
       </c>
-      <c r="L98" t="s">
-        <v>25</v>
+      <c r="L98">
+        <f>VLOOKUP(K98,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M98" s="8" t="s">
         <v>199</v>
@@ -12644,8 +12539,8 @@
       <c r="K99" t="s">
         <v>84</v>
       </c>
-      <c r="L99" t="s">
-        <v>25</v>
+      <c r="L99">
+        <f>VLOOKUP(K99,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M99" s="8" t="s">
         <v>89</v>
@@ -12718,8 +12613,8 @@
       <c r="K100" t="s">
         <v>87</v>
       </c>
-      <c r="L100" t="s">
-        <v>25</v>
+      <c r="L100">
+        <f>VLOOKUP(K100,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M100" s="8" t="s">
         <v>204</v>
@@ -12792,8 +12687,8 @@
       <c r="K101" t="s">
         <v>207</v>
       </c>
-      <c r="L101" t="s">
-        <v>25</v>
+      <c r="L101">
+        <f>VLOOKUP(K101,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M101" s="8" t="s">
         <v>71</v>
@@ -12866,8 +12761,8 @@
       <c r="K102" t="s">
         <v>84</v>
       </c>
-      <c r="L102" t="s">
-        <v>25</v>
+      <c r="L102">
+        <f>VLOOKUP(K102,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M102" s="8" t="s">
         <v>106</v>
@@ -12940,8 +12835,8 @@
       <c r="K103" t="s">
         <v>87</v>
       </c>
-      <c r="L103" t="s">
-        <v>25</v>
+      <c r="L103">
+        <f>VLOOKUP(K103,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M103" s="8" t="s">
         <v>211</v>
@@ -13014,8 +12909,8 @@
       <c r="K104" t="s">
         <v>207</v>
       </c>
-      <c r="L104" t="s">
-        <v>25</v>
+      <c r="L104">
+        <f>VLOOKUP(K104,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M104" s="8" t="s">
         <v>52</v>
@@ -13088,8 +12983,8 @@
       <c r="K105" t="s">
         <v>123</v>
       </c>
-      <c r="L105" t="s">
-        <v>25</v>
+      <c r="L105">
+        <f>VLOOKUP(K105,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M105" s="8" t="s">
         <v>71</v>
@@ -13162,8 +13057,8 @@
       <c r="K106" t="s">
         <v>130</v>
       </c>
-      <c r="L106" t="s">
-        <v>25</v>
+      <c r="L106">
+        <f>VLOOKUP(K106,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M106" s="8" t="s">
         <v>28</v>
@@ -13236,8 +13131,8 @@
       <c r="K107" t="s">
         <v>67</v>
       </c>
-      <c r="L107" t="s">
-        <v>25</v>
+      <c r="L107">
+        <f>VLOOKUP(K107,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M107" s="8" t="s">
         <v>106</v>
@@ -13310,8 +13205,8 @@
       <c r="K108" t="s">
         <v>67</v>
       </c>
-      <c r="L108" t="s">
-        <v>25</v>
+      <c r="L108">
+        <f>VLOOKUP(K108,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M108" s="8" t="s">
         <v>28</v>
@@ -13384,8 +13279,8 @@
       <c r="K109" t="s">
         <v>130</v>
       </c>
-      <c r="L109" t="s">
-        <v>25</v>
+      <c r="L109">
+        <f>VLOOKUP(K109,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M109" s="8" t="s">
         <v>219</v>
@@ -13458,8 +13353,8 @@
       <c r="K110" t="s">
         <v>67</v>
       </c>
-      <c r="L110" t="s">
-        <v>25</v>
+      <c r="L110">
+        <f>VLOOKUP(K110,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M110" s="8" t="s">
         <v>52</v>
@@ -13532,8 +13427,8 @@
       <c r="K111" t="s">
         <v>130</v>
       </c>
-      <c r="L111" t="s">
-        <v>25</v>
+      <c r="L111">
+        <f>VLOOKUP(K111,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M111" s="8" t="s">
         <v>52</v>
@@ -13606,8 +13501,8 @@
       <c r="K112" t="s">
         <v>67</v>
       </c>
-      <c r="L112" t="s">
-        <v>25</v>
+      <c r="L112">
+        <f>VLOOKUP(K112,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M112" s="8" t="s">
         <v>71</v>
@@ -13680,8 +13575,8 @@
       <c r="K113" t="s">
         <v>226</v>
       </c>
-      <c r="L113" t="s">
-        <v>25</v>
+      <c r="L113">
+        <f>VLOOKUP(K113,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M113" s="8" t="s">
         <v>28</v>
@@ -13754,8 +13649,8 @@
       <c r="K114" t="s">
         <v>27</v>
       </c>
-      <c r="L114" t="s">
-        <v>25</v>
+      <c r="L114">
+        <f>VLOOKUP(K114,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M114" s="8" t="s">
         <v>106</v>
@@ -13828,8 +13723,8 @@
       <c r="K115" t="s">
         <v>27</v>
       </c>
-      <c r="L115" t="s">
-        <v>25</v>
+      <c r="L115">
+        <f>VLOOKUP(K115,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M115" s="8" t="s">
         <v>89</v>
@@ -13902,8 +13797,8 @@
       <c r="K116" t="s">
         <v>130</v>
       </c>
-      <c r="L116" t="s">
-        <v>25</v>
+      <c r="L116">
+        <f>VLOOKUP(K116,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M116" s="8" t="s">
         <v>152</v>
@@ -13976,8 +13871,8 @@
       <c r="K117" t="s">
         <v>130</v>
       </c>
-      <c r="L117" t="s">
-        <v>25</v>
+      <c r="L117">
+        <f>VLOOKUP(K117,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M117" s="8" t="s">
         <v>79</v>
@@ -14050,8 +13945,8 @@
       <c r="K118" t="s">
         <v>130</v>
       </c>
-      <c r="L118" t="s">
-        <v>25</v>
+      <c r="L118">
+        <f>VLOOKUP(K118,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M118" s="8" t="s">
         <v>100</v>
@@ -14124,8 +14019,8 @@
       <c r="K119" t="s">
         <v>67</v>
       </c>
-      <c r="L119" t="s">
-        <v>25</v>
+      <c r="L119">
+        <f>VLOOKUP(K119,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M119" s="8" t="s">
         <v>233</v>
@@ -14198,8 +14093,8 @@
       <c r="K120" t="s">
         <v>67</v>
       </c>
-      <c r="L120" t="s">
-        <v>25</v>
+      <c r="L120">
+        <f>VLOOKUP(K120,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M120" s="8" t="s">
         <v>235</v>
@@ -14272,8 +14167,8 @@
       <c r="K121" t="s">
         <v>67</v>
       </c>
-      <c r="L121" t="s">
-        <v>25</v>
+      <c r="L121">
+        <f>VLOOKUP(K121,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M121" s="8" t="s">
         <v>81</v>
@@ -14346,8 +14241,8 @@
       <c r="K122" t="s">
         <v>169</v>
       </c>
-      <c r="L122" t="s">
-        <v>25</v>
+      <c r="L122">
+        <f>VLOOKUP(K122,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M122" s="8" t="s">
         <v>239</v>
@@ -14420,8 +14315,8 @@
       <c r="K123" t="s">
         <v>130</v>
       </c>
-      <c r="L123" t="s">
-        <v>25</v>
+      <c r="L123">
+        <f>VLOOKUP(K123,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M123" s="8" t="s">
         <v>242</v>
@@ -14494,8 +14389,8 @@
       <c r="K124" t="s">
         <v>67</v>
       </c>
-      <c r="L124" t="s">
-        <v>25</v>
+      <c r="L124">
+        <f>VLOOKUP(K124,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M124" s="8" t="s">
         <v>132</v>
@@ -14568,8 +14463,8 @@
       <c r="K125" t="s">
         <v>27</v>
       </c>
-      <c r="L125" t="s">
-        <v>25</v>
+      <c r="L125">
+        <f>VLOOKUP(K125,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M125" s="8" t="s">
         <v>28</v>
@@ -14642,8 +14537,8 @@
       <c r="K126" t="s">
         <v>130</v>
       </c>
-      <c r="L126" t="s">
-        <v>25</v>
+      <c r="L126">
+        <f>VLOOKUP(K126,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M126" s="8" t="s">
         <v>211</v>
@@ -14716,8 +14611,8 @@
       <c r="K127" t="s">
         <v>67</v>
       </c>
-      <c r="L127" t="s">
-        <v>25</v>
+      <c r="L127">
+        <f>VLOOKUP(K127,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M127" s="8" t="s">
         <v>89</v>
@@ -14790,8 +14685,8 @@
       <c r="K128" t="s">
         <v>130</v>
       </c>
-      <c r="L128" t="s">
-        <v>25</v>
+      <c r="L128">
+        <f>VLOOKUP(K128,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M128" s="8" t="s">
         <v>249</v>
@@ -14864,8 +14759,8 @@
       <c r="K129" t="s">
         <v>67</v>
       </c>
-      <c r="L129" t="s">
-        <v>25</v>
+      <c r="L129">
+        <f>VLOOKUP(K129,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M129" s="8" t="s">
         <v>199</v>
@@ -14938,8 +14833,8 @@
       <c r="K130" t="s">
         <v>27</v>
       </c>
-      <c r="L130" t="s">
-        <v>25</v>
+      <c r="L130">
+        <f>VLOOKUP(K130,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M130" s="8" t="s">
         <v>28</v>
@@ -15012,8 +14907,8 @@
       <c r="K131" t="s">
         <v>130</v>
       </c>
-      <c r="L131" t="s">
-        <v>25</v>
+      <c r="L131">
+        <f>VLOOKUP(K131,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M131" s="8" t="s">
         <v>152</v>
@@ -15086,8 +14981,8 @@
       <c r="K132" t="s">
         <v>67</v>
       </c>
-      <c r="L132" t="s">
-        <v>25</v>
+      <c r="L132">
+        <f>VLOOKUP(K132,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M132" s="8" t="s">
         <v>254</v>
@@ -15160,8 +15055,8 @@
       <c r="K133" t="s">
         <v>130</v>
       </c>
-      <c r="L133" t="s">
-        <v>25</v>
+      <c r="L133">
+        <f>VLOOKUP(K133,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M133" s="8" t="s">
         <v>106</v>
@@ -15234,8 +15129,8 @@
       <c r="K134" t="s">
         <v>67</v>
       </c>
-      <c r="L134" t="s">
-        <v>25</v>
+      <c r="L134">
+        <f>VLOOKUP(K134,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M134" s="8" t="s">
         <v>132</v>
@@ -15308,8 +15203,8 @@
       <c r="K135" t="s">
         <v>146</v>
       </c>
-      <c r="L135" t="s">
-        <v>25</v>
+      <c r="L135">
+        <f>VLOOKUP(K135,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M135" s="8" t="s">
         <v>260</v>
@@ -15382,8 +15277,8 @@
       <c r="K136" t="s">
         <v>146</v>
       </c>
-      <c r="L136" t="s">
-        <v>25</v>
+      <c r="L136">
+        <f>VLOOKUP(K136,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M136" s="8" t="s">
         <v>89</v>
@@ -15456,8 +15351,8 @@
       <c r="K137" t="s">
         <v>46</v>
       </c>
-      <c r="L137" t="s">
-        <v>25</v>
+      <c r="L137">
+        <f>VLOOKUP(K137,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M137" s="8" t="s">
         <v>265</v>
@@ -15530,8 +15425,8 @@
       <c r="K138" t="s">
         <v>27</v>
       </c>
-      <c r="L138" t="s">
-        <v>25</v>
+      <c r="L138">
+        <f>VLOOKUP(K138,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M138" s="8" t="s">
         <v>89</v>
@@ -15604,8 +15499,8 @@
       <c r="K139" t="s">
         <v>77</v>
       </c>
-      <c r="L139" t="s">
-        <v>25</v>
+      <c r="L139">
+        <f>VLOOKUP(K139,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M139" s="8" t="s">
         <v>152</v>
@@ -15678,8 +15573,8 @@
       <c r="K140" t="s">
         <v>270</v>
       </c>
-      <c r="L140" t="s">
-        <v>25</v>
+      <c r="L140">
+        <f>VLOOKUP(K140,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M140" s="8" t="s">
         <v>265</v>
@@ -15752,8 +15647,8 @@
       <c r="K141" t="s">
         <v>273</v>
       </c>
-      <c r="L141" t="s">
-        <v>25</v>
+      <c r="L141">
+        <f>VLOOKUP(K141,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M141" s="8" t="s">
         <v>52</v>
@@ -15826,8 +15721,8 @@
       <c r="K142" t="s">
         <v>276</v>
       </c>
-      <c r="L142" t="s">
-        <v>25</v>
+      <c r="L142">
+        <f>VLOOKUP(K142,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M142" s="8" t="s">
         <v>28</v>
@@ -15900,8 +15795,8 @@
       <c r="K143" t="s">
         <v>279</v>
       </c>
-      <c r="L143" t="s">
-        <v>25</v>
+      <c r="L143">
+        <f>VLOOKUP(K143,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M143" s="8" t="s">
         <v>52</v>
@@ -15974,8 +15869,8 @@
       <c r="K144" t="s">
         <v>98</v>
       </c>
-      <c r="L144" t="s">
-        <v>25</v>
+      <c r="L144">
+        <f>VLOOKUP(K144,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M144" s="8" t="s">
         <v>282</v>
@@ -16048,8 +15943,8 @@
       <c r="K145" t="s">
         <v>51</v>
       </c>
-      <c r="L145" t="s">
-        <v>25</v>
+      <c r="L145">
+        <f>VLOOKUP(K145,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M145" s="8" t="s">
         <v>284</v>
@@ -16122,8 +16017,8 @@
       <c r="K146" t="s">
         <v>41</v>
       </c>
-      <c r="L146" t="s">
-        <v>25</v>
+      <c r="L146">
+        <f>VLOOKUP(K146,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M146" s="8" t="s">
         <v>28</v>
@@ -16196,8 +16091,8 @@
       <c r="K147" t="s">
         <v>41</v>
       </c>
-      <c r="L147" t="s">
-        <v>25</v>
+      <c r="L147">
+        <f>VLOOKUP(K147,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M147" s="8" t="s">
         <v>52</v>
@@ -16270,8 +16165,8 @@
       <c r="K148" t="s">
         <v>146</v>
       </c>
-      <c r="L148" t="s">
-        <v>25</v>
+      <c r="L148">
+        <f>VLOOKUP(K148,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M148" s="8" t="s">
         <v>132</v>
@@ -16344,8 +16239,8 @@
       <c r="K149" t="s">
         <v>169</v>
       </c>
-      <c r="L149" t="s">
-        <v>25</v>
+      <c r="L149">
+        <f>VLOOKUP(K149,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M149" s="8" t="s">
         <v>265</v>
@@ -16418,8 +16313,8 @@
       <c r="K150" t="s">
         <v>98</v>
       </c>
-      <c r="L150" t="s">
-        <v>25</v>
+      <c r="L150">
+        <f>VLOOKUP(K150,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M150" s="8" t="s">
         <v>292</v>
@@ -16492,8 +16387,8 @@
       <c r="K151" t="s">
         <v>51</v>
       </c>
-      <c r="L151" t="s">
-        <v>25</v>
+      <c r="L151">
+        <f>VLOOKUP(K151,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M151" s="8" t="s">
         <v>81</v>
@@ -16566,8 +16461,8 @@
       <c r="K152" t="s">
         <v>98</v>
       </c>
-      <c r="L152" t="s">
-        <v>25</v>
+      <c r="L152">
+        <f>VLOOKUP(K152,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M152" s="8" t="s">
         <v>152</v>
@@ -16640,8 +16535,8 @@
       <c r="K153" t="s">
         <v>51</v>
       </c>
-      <c r="L153" t="s">
-        <v>25</v>
+      <c r="L153">
+        <f>VLOOKUP(K153,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M153" s="8" t="s">
         <v>100</v>
@@ -16714,8 +16609,8 @@
       <c r="K154" t="s">
         <v>41</v>
       </c>
-      <c r="L154" t="s">
-        <v>25</v>
+      <c r="L154">
+        <f>VLOOKUP(K154,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M154" s="8" t="s">
         <v>52</v>
@@ -16788,8 +16683,8 @@
       <c r="K155" t="s">
         <v>130</v>
       </c>
-      <c r="L155" t="s">
-        <v>25</v>
+      <c r="L155">
+        <f>VLOOKUP(K155,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M155" s="8" t="s">
         <v>100</v>
@@ -16862,8 +16757,8 @@
       <c r="K156" t="s">
         <v>67</v>
       </c>
-      <c r="L156" t="s">
-        <v>25</v>
+      <c r="L156">
+        <f>VLOOKUP(K156,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M156" s="8" t="s">
         <v>265</v>
@@ -16936,8 +16831,8 @@
       <c r="K157" t="s">
         <v>146</v>
       </c>
-      <c r="L157" t="s">
-        <v>25</v>
+      <c r="L157">
+        <f>VLOOKUP(K157,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M157" s="8" t="s">
         <v>199</v>
@@ -17010,8 +16905,8 @@
       <c r="K158" t="s">
         <v>279</v>
       </c>
-      <c r="L158" t="s">
-        <v>25</v>
+      <c r="L158">
+        <f>VLOOKUP(K158,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M158" s="8" t="s">
         <v>71</v>
@@ -17084,8 +16979,8 @@
       <c r="K159" t="s">
         <v>305</v>
       </c>
-      <c r="L159" t="s">
-        <v>25</v>
+      <c r="L159">
+        <f>VLOOKUP(K159,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M159" s="8" t="s">
         <v>28</v>
@@ -17158,8 +17053,8 @@
       <c r="K160" t="s">
         <v>46</v>
       </c>
-      <c r="L160" t="s">
-        <v>25</v>
+      <c r="L160">
+        <f>VLOOKUP(K160,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M160" s="8" t="s">
         <v>28</v>
@@ -17232,8 +17127,8 @@
       <c r="K161" t="s">
         <v>207</v>
       </c>
-      <c r="L161" t="s">
-        <v>25</v>
+      <c r="L161">
+        <f>VLOOKUP(K161,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M161" s="8" t="s">
         <v>28</v>
@@ -17306,8 +17201,8 @@
       <c r="K162" t="s">
         <v>130</v>
       </c>
-      <c r="L162" t="s">
-        <v>25</v>
+      <c r="L162">
+        <f>VLOOKUP(K162,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M162" s="8" t="s">
         <v>310</v>
@@ -17380,8 +17275,8 @@
       <c r="K163" t="s">
         <v>67</v>
       </c>
-      <c r="L163" t="s">
-        <v>25</v>
+      <c r="L163">
+        <f>VLOOKUP(K163,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M163" s="8" t="s">
         <v>100</v>
@@ -17454,8 +17349,8 @@
       <c r="K164" t="s">
         <v>41</v>
       </c>
-      <c r="L164" t="s">
-        <v>25</v>
+      <c r="L164">
+        <f>VLOOKUP(K164,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M164" s="8" t="s">
         <v>52</v>
@@ -17528,8 +17423,8 @@
       <c r="K165" t="s">
         <v>36</v>
       </c>
-      <c r="L165" t="s">
-        <v>25</v>
+      <c r="L165">
+        <f>VLOOKUP(K165,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M165" s="8" t="s">
         <v>52</v>
@@ -17602,8 +17497,8 @@
       <c r="K166" t="s">
         <v>180</v>
       </c>
-      <c r="L166" t="s">
-        <v>25</v>
+      <c r="L166">
+        <f>VLOOKUP(K166,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M166" s="8" t="s">
         <v>71</v>
@@ -17676,8 +17571,8 @@
       <c r="K167" t="s">
         <v>104</v>
       </c>
-      <c r="L167" t="s">
-        <v>25</v>
+      <c r="L167">
+        <f>VLOOKUP(K167,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M167" s="8" t="s">
         <v>28</v>
@@ -17750,8 +17645,8 @@
       <c r="K168" t="s">
         <v>130</v>
       </c>
-      <c r="L168" t="s">
-        <v>25</v>
+      <c r="L168">
+        <f>VLOOKUP(K168,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M168" s="8" t="s">
         <v>249</v>
@@ -17824,8 +17719,8 @@
       <c r="K169" t="s">
         <v>67</v>
       </c>
-      <c r="L169" t="s">
-        <v>25</v>
+      <c r="L169">
+        <f>VLOOKUP(K169,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M169" s="8" t="s">
         <v>211</v>
@@ -17898,8 +17793,8 @@
       <c r="K170" t="s">
         <v>36</v>
       </c>
-      <c r="L170" t="s">
-        <v>25</v>
+      <c r="L170">
+        <f>VLOOKUP(K170,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M170" s="8" t="s">
         <v>100</v>
@@ -17972,8 +17867,8 @@
       <c r="K171" t="s">
         <v>180</v>
       </c>
-      <c r="L171" t="s">
-        <v>25</v>
+      <c r="L171">
+        <f>VLOOKUP(K171,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M171" s="8" t="s">
         <v>52</v>
@@ -18046,8 +17941,8 @@
       <c r="K172" t="s">
         <v>104</v>
       </c>
-      <c r="L172" t="s">
-        <v>25</v>
+      <c r="L172">
+        <f>VLOOKUP(K172,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M172" s="8" t="s">
         <v>71</v>
@@ -18120,8 +18015,8 @@
       <c r="K173" t="s">
         <v>130</v>
       </c>
-      <c r="L173" t="s">
-        <v>25</v>
+      <c r="L173">
+        <f>VLOOKUP(K173,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M173" s="8" t="s">
         <v>323</v>
@@ -18194,8 +18089,8 @@
       <c r="K174" t="s">
         <v>67</v>
       </c>
-      <c r="L174" t="s">
-        <v>25</v>
+      <c r="L174">
+        <f>VLOOKUP(K174,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M174" s="8" t="s">
         <v>89</v>
@@ -18268,8 +18163,8 @@
       <c r="K175" t="s">
         <v>180</v>
       </c>
-      <c r="L175" t="s">
-        <v>25</v>
+      <c r="L175">
+        <f>VLOOKUP(K175,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M175" s="8" t="s">
         <v>28</v>
@@ -18342,8 +18237,8 @@
       <c r="K176" t="s">
         <v>191</v>
       </c>
-      <c r="L176" t="s">
-        <v>25</v>
+      <c r="L176">
+        <f>VLOOKUP(K176,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M176" s="8" t="s">
         <v>52</v>
@@ -18416,8 +18311,8 @@
       <c r="K177" t="s">
         <v>98</v>
       </c>
-      <c r="L177" t="s">
-        <v>25</v>
+      <c r="L177">
+        <f>VLOOKUP(K177,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M177" s="8" t="s">
         <v>71</v>
@@ -18490,8 +18385,8 @@
       <c r="K178" t="s">
         <v>51</v>
       </c>
-      <c r="L178" t="s">
-        <v>25</v>
+      <c r="L178">
+        <f>VLOOKUP(K178,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M178" s="8" t="s">
         <v>81</v>
@@ -18564,8 +18459,8 @@
       <c r="K179" t="s">
         <v>36</v>
       </c>
-      <c r="L179" t="s">
-        <v>25</v>
+      <c r="L179">
+        <f>VLOOKUP(K179,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M179" s="8" t="s">
         <v>28</v>
@@ -18638,8 +18533,8 @@
       <c r="K180" t="s">
         <v>169</v>
       </c>
-      <c r="L180" t="s">
-        <v>25</v>
+      <c r="L180">
+        <f>VLOOKUP(K180,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M180" s="8" t="s">
         <v>199</v>
@@ -18712,8 +18607,8 @@
       <c r="K181" t="s">
         <v>98</v>
       </c>
-      <c r="L181" t="s">
-        <v>25</v>
+      <c r="L181">
+        <f>VLOOKUP(K181,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M181" s="8" t="s">
         <v>28</v>
@@ -18786,8 +18681,8 @@
       <c r="K182" t="s">
         <v>169</v>
       </c>
-      <c r="L182" t="s">
-        <v>25</v>
+      <c r="L182">
+        <f>VLOOKUP(K182,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M182" s="8" t="s">
         <v>334</v>
@@ -18860,8 +18755,8 @@
       <c r="K183" t="s">
         <v>51</v>
       </c>
-      <c r="L183" t="s">
-        <v>25</v>
+      <c r="L183">
+        <f>VLOOKUP(K183,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M183" s="8" t="s">
         <v>52</v>
@@ -18934,8 +18829,8 @@
       <c r="K184" t="s">
         <v>41</v>
       </c>
-      <c r="L184" t="s">
-        <v>25</v>
+      <c r="L184">
+        <f>VLOOKUP(K184,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M184" s="8" t="s">
         <v>28</v>
@@ -19008,8 +18903,8 @@
       <c r="K185" t="s">
         <v>41</v>
       </c>
-      <c r="L185" t="s">
-        <v>25</v>
+      <c r="L185">
+        <f>VLOOKUP(K185,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M185" s="8" t="s">
         <v>52</v>
@@ -19082,8 +18977,8 @@
       <c r="K186" t="s">
         <v>36</v>
       </c>
-      <c r="L186" t="s">
-        <v>25</v>
+      <c r="L186">
+        <f>VLOOKUP(K186,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M186" s="8" t="s">
         <v>89</v>
@@ -19156,8 +19051,8 @@
       <c r="K187" t="s">
         <v>180</v>
       </c>
-      <c r="L187" t="s">
-        <v>25</v>
+      <c r="L187">
+        <f>VLOOKUP(K187,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M187" s="8" t="s">
         <v>28</v>
@@ -19230,8 +19125,8 @@
       <c r="K188" t="s">
         <v>104</v>
       </c>
-      <c r="L188" t="s">
-        <v>25</v>
+      <c r="L188">
+        <f>VLOOKUP(K188,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M188" s="8" t="s">
         <v>71</v>
@@ -19304,8 +19199,8 @@
       <c r="K189" t="s">
         <v>41</v>
       </c>
-      <c r="L189" t="s">
-        <v>25</v>
+      <c r="L189">
+        <f>VLOOKUP(K189,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M189" s="8" t="s">
         <v>28</v>
@@ -19378,8 +19273,8 @@
       <c r="K190" t="s">
         <v>36</v>
       </c>
-      <c r="L190" t="s">
-        <v>25</v>
+      <c r="L190">
+        <f>VLOOKUP(K190,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M190" s="8" t="s">
         <v>71</v>
@@ -19452,8 +19347,8 @@
       <c r="K191" t="s">
         <v>180</v>
       </c>
-      <c r="L191" t="s">
-        <v>25</v>
+      <c r="L191">
+        <f>VLOOKUP(K191,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M191" s="8" t="s">
         <v>81</v>
@@ -19526,8 +19421,8 @@
       <c r="K192" t="s">
         <v>104</v>
       </c>
-      <c r="L192" t="s">
-        <v>25</v>
+      <c r="L192">
+        <f>VLOOKUP(K192,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M192" s="8" t="s">
         <v>28</v>
@@ -19600,8 +19495,8 @@
       <c r="K193" t="s">
         <v>191</v>
       </c>
-      <c r="L193" t="s">
-        <v>25</v>
+      <c r="L193">
+        <f>VLOOKUP(K193,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M193" s="8" t="s">
         <v>28</v>
@@ -19674,8 +19569,8 @@
       <c r="K194" t="s">
         <v>348</v>
       </c>
-      <c r="L194" t="s">
-        <v>25</v>
+      <c r="L194">
+        <f>VLOOKUP(K194,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M194" s="8" t="s">
         <v>71</v>
@@ -19748,8 +19643,8 @@
       <c r="K195" t="s">
         <v>120</v>
       </c>
-      <c r="L195" t="s">
-        <v>25</v>
+      <c r="L195">
+        <f>VLOOKUP(K195,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M195" s="8" t="s">
         <v>350</v>
@@ -19822,8 +19717,8 @@
       <c r="K196" t="s">
         <v>123</v>
       </c>
-      <c r="L196" t="s">
-        <v>25</v>
+      <c r="L196">
+        <f>VLOOKUP(K196,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M196" s="8" t="s">
         <v>68</v>
@@ -19896,8 +19791,8 @@
       <c r="K197" t="s">
         <v>84</v>
       </c>
-      <c r="L197" t="s">
-        <v>25</v>
+      <c r="L197">
+        <f>VLOOKUP(K197,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M197" s="8" t="s">
         <v>199</v>
@@ -19970,8 +19865,8 @@
       <c r="K198" t="s">
         <v>87</v>
       </c>
-      <c r="L198" t="s">
-        <v>25</v>
+      <c r="L198">
+        <f>VLOOKUP(K198,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M198" s="8" t="s">
         <v>81</v>
@@ -20044,8 +19939,8 @@
       <c r="K199" t="s">
         <v>36</v>
       </c>
-      <c r="L199" t="s">
-        <v>25</v>
+      <c r="L199">
+        <f>VLOOKUP(K199,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M199" s="8" t="s">
         <v>28</v>
@@ -20118,8 +20013,8 @@
       <c r="K200" t="s">
         <v>104</v>
       </c>
-      <c r="L200" t="s">
-        <v>25</v>
+      <c r="L200">
+        <f>VLOOKUP(K200,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M200" s="8" t="s">
         <v>52</v>
@@ -20192,8 +20087,8 @@
       <c r="K201" t="s">
         <v>84</v>
       </c>
-      <c r="L201" t="s">
-        <v>25</v>
+      <c r="L201">
+        <f>VLOOKUP(K201,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M201" s="8" t="s">
         <v>357</v>
@@ -20266,8 +20161,8 @@
       <c r="K202" t="s">
         <v>87</v>
       </c>
-      <c r="L202" t="s">
-        <v>25</v>
+      <c r="L202">
+        <f>VLOOKUP(K202,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M202" s="8" t="s">
         <v>132</v>
@@ -20340,8 +20235,8 @@
       <c r="K203" t="s">
         <v>41</v>
       </c>
-      <c r="L203" t="s">
-        <v>25</v>
+      <c r="L203">
+        <f>VLOOKUP(K203,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M203" s="8" t="s">
         <v>28</v>
@@ -20414,8 +20309,8 @@
       <c r="K204" t="s">
         <v>180</v>
       </c>
-      <c r="L204" t="s">
-        <v>25</v>
+      <c r="L204">
+        <f>VLOOKUP(K204,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M204" s="8" t="s">
         <v>89</v>
@@ -20488,8 +20383,8 @@
       <c r="K205" t="s">
         <v>191</v>
       </c>
-      <c r="L205" t="s">
-        <v>25</v>
+      <c r="L205">
+        <f>VLOOKUP(K205,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M205" s="8" t="s">
         <v>81</v>
@@ -20562,8 +20457,8 @@
       <c r="K206" t="s">
         <v>36</v>
       </c>
-      <c r="L206" t="s">
-        <v>25</v>
+      <c r="L206">
+        <f>VLOOKUP(K206,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M206" s="8" t="s">
         <v>71</v>
@@ -20636,8 +20531,8 @@
       <c r="K207" t="s">
         <v>180</v>
       </c>
-      <c r="L207" t="s">
-        <v>25</v>
+      <c r="L207">
+        <f>VLOOKUP(K207,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M207" s="8" t="s">
         <v>52</v>
@@ -20710,8 +20605,8 @@
       <c r="K208" t="s">
         <v>104</v>
       </c>
-      <c r="L208" t="s">
-        <v>25</v>
+      <c r="L208">
+        <f>VLOOKUP(K208,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M208" s="8" t="s">
         <v>52</v>
@@ -20784,8 +20679,8 @@
       <c r="K209" t="s">
         <v>191</v>
       </c>
-      <c r="L209" t="s">
-        <v>25</v>
+      <c r="L209">
+        <f>VLOOKUP(K209,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M209" s="8" t="s">
         <v>52</v>
@@ -20858,8 +20753,8 @@
       <c r="K210" t="s">
         <v>41</v>
       </c>
-      <c r="L210" t="s">
-        <v>25</v>
+      <c r="L210">
+        <f>VLOOKUP(K210,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M210" s="8" t="s">
         <v>28</v>
@@ -20932,8 +20827,8 @@
       <c r="K211" t="s">
         <v>36</v>
       </c>
-      <c r="L211" t="s">
-        <v>25</v>
+      <c r="L211">
+        <f>VLOOKUP(K211,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M211" s="8" t="s">
         <v>28</v>
@@ -21006,8 +20901,8 @@
       <c r="K212" t="s">
         <v>180</v>
       </c>
-      <c r="L212" t="s">
-        <v>25</v>
+      <c r="L212">
+        <f>VLOOKUP(K212,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M212" s="8" t="s">
         <v>52</v>
@@ -21080,8 +20975,8 @@
       <c r="K213" t="s">
         <v>104</v>
       </c>
-      <c r="L213" t="s">
-        <v>25</v>
+      <c r="L213">
+        <f>VLOOKUP(K213,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M213" s="8" t="s">
         <v>28</v>
@@ -21154,8 +21049,8 @@
       <c r="K214" t="s">
         <v>191</v>
       </c>
-      <c r="L214" t="s">
-        <v>25</v>
+      <c r="L214">
+        <f>VLOOKUP(K214,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M214" s="8" t="s">
         <v>28</v>
@@ -21228,8 +21123,8 @@
       <c r="K215" t="s">
         <v>36</v>
       </c>
-      <c r="L215" t="s">
-        <v>25</v>
+      <c r="L215">
+        <f>VLOOKUP(K215,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M215" s="8" t="s">
         <v>71</v>
@@ -21302,8 +21197,8 @@
       <c r="K216" t="s">
         <v>180</v>
       </c>
-      <c r="L216" t="s">
-        <v>25</v>
+      <c r="L216">
+        <f>VLOOKUP(K216,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M216" s="8" t="s">
         <v>71</v>
@@ -21376,8 +21271,8 @@
       <c r="K217" t="s">
         <v>104</v>
       </c>
-      <c r="L217" t="s">
-        <v>25</v>
+      <c r="L217">
+        <f>VLOOKUP(K217,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M217" s="8" t="s">
         <v>71</v>
@@ -21450,8 +21345,8 @@
       <c r="K218" t="s">
         <v>191</v>
       </c>
-      <c r="L218" t="s">
-        <v>25</v>
+      <c r="L218">
+        <f>VLOOKUP(K218,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M218" s="8" t="s">
         <v>28</v>
@@ -21524,8 +21419,8 @@
       <c r="K219" t="s">
         <v>41</v>
       </c>
-      <c r="L219" t="s">
-        <v>25</v>
+      <c r="L219">
+        <f>VLOOKUP(K219,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M219" s="8" t="s">
         <v>52</v>
@@ -21598,8 +21493,8 @@
       <c r="K220" t="s">
         <v>36</v>
       </c>
-      <c r="L220" t="s">
-        <v>25</v>
+      <c r="L220">
+        <f>VLOOKUP(K220,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M220" s="8" t="s">
         <v>71</v>
@@ -21672,8 +21567,8 @@
       <c r="K221" t="s">
         <v>180</v>
       </c>
-      <c r="L221" t="s">
-        <v>25</v>
+      <c r="L221">
+        <f>VLOOKUP(K221,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M221" s="8" t="s">
         <v>52</v>
@@ -21746,8 +21641,8 @@
       <c r="K222" t="s">
         <v>104</v>
       </c>
-      <c r="L222" t="s">
-        <v>25</v>
+      <c r="L222">
+        <f>VLOOKUP(K222,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M222" s="8" t="s">
         <v>28</v>
@@ -21820,8 +21715,8 @@
       <c r="K223" t="s">
         <v>41</v>
       </c>
-      <c r="L223" t="s">
-        <v>25</v>
+      <c r="L223">
+        <f>VLOOKUP(K223,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M223" s="8" t="s">
         <v>52</v>
@@ -21894,8 +21789,8 @@
       <c r="K224" t="s">
         <v>36</v>
       </c>
-      <c r="L224" t="s">
-        <v>25</v>
+      <c r="L224">
+        <f>VLOOKUP(K224,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M224" s="8" t="s">
         <v>100</v>
@@ -21968,8 +21863,8 @@
       <c r="K225" t="s">
         <v>180</v>
       </c>
-      <c r="L225" t="s">
-        <v>25</v>
+      <c r="L225">
+        <f>VLOOKUP(K225,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M225" s="8" t="s">
         <v>71</v>
@@ -22042,8 +21937,8 @@
       <c r="K226" t="s">
         <v>305</v>
       </c>
-      <c r="L226" t="s">
-        <v>25</v>
+      <c r="L226">
+        <f>VLOOKUP(K226,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M226" s="8" t="s">
         <v>28</v>
@@ -22116,8 +22011,8 @@
       <c r="K227" t="s">
         <v>378</v>
       </c>
-      <c r="L227" t="s">
-        <v>25</v>
+      <c r="L227">
+        <f>VLOOKUP(K227,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M227" s="8" t="s">
         <v>28</v>
@@ -22190,8 +22085,8 @@
       <c r="K228" t="s">
         <v>273</v>
       </c>
-      <c r="L228" t="s">
-        <v>25</v>
+      <c r="L228">
+        <f>VLOOKUP(K228,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M228" s="8" t="s">
         <v>79</v>
@@ -22264,8 +22159,8 @@
       <c r="K229" t="s">
         <v>276</v>
       </c>
-      <c r="L229" t="s">
-        <v>25</v>
+      <c r="L229">
+        <f>VLOOKUP(K229,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M229" s="8" t="s">
         <v>81</v>
@@ -22338,8 +22233,8 @@
       <c r="K230" t="s">
         <v>279</v>
       </c>
-      <c r="L230" t="s">
-        <v>25</v>
+      <c r="L230">
+        <f>VLOOKUP(K230,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M230" s="8" t="s">
         <v>28</v>
@@ -22412,8 +22307,8 @@
       <c r="K231" t="s">
         <v>36</v>
       </c>
-      <c r="L231" t="s">
-        <v>25</v>
+      <c r="L231">
+        <f>VLOOKUP(K231,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M231" s="8" t="s">
         <v>52</v>
@@ -22486,8 +22381,8 @@
       <c r="K232" t="s">
         <v>41</v>
       </c>
-      <c r="L232" t="s">
-        <v>25</v>
+      <c r="L232">
+        <f>VLOOKUP(K232,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M232" s="8" t="s">
         <v>71</v>
@@ -22560,8 +22455,8 @@
       <c r="K233" t="s">
         <v>41</v>
       </c>
-      <c r="L233" t="s">
-        <v>25</v>
+      <c r="L233">
+        <f>VLOOKUP(K233,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M233" s="8" t="s">
         <v>81</v>
@@ -22634,8 +22529,8 @@
       <c r="K234" t="s">
         <v>180</v>
       </c>
-      <c r="L234" t="s">
-        <v>25</v>
+      <c r="L234">
+        <f>VLOOKUP(K234,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M234" s="8" t="s">
         <v>28</v>
@@ -22708,8 +22603,8 @@
       <c r="K235" t="s">
         <v>36</v>
       </c>
-      <c r="L235" t="s">
-        <v>25</v>
+      <c r="L235">
+        <f>VLOOKUP(K235,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M235" s="8" t="s">
         <v>71</v>
@@ -22782,8 +22677,8 @@
       <c r="K236" t="s">
         <v>51</v>
       </c>
-      <c r="L236" t="s">
-        <v>25</v>
+      <c r="L236">
+        <f>VLOOKUP(K236,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M236" s="8" t="s">
         <v>100</v>
@@ -22856,8 +22751,8 @@
       <c r="K237" t="s">
         <v>41</v>
       </c>
-      <c r="L237" t="s">
-        <v>25</v>
+      <c r="L237">
+        <f>VLOOKUP(K237,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M237" s="8" t="s">
         <v>71</v>
@@ -22930,8 +22825,8 @@
       <c r="K238" t="s">
         <v>36</v>
       </c>
-      <c r="L238" t="s">
-        <v>25</v>
+      <c r="L238">
+        <f>VLOOKUP(K238,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M238" s="8" t="s">
         <v>81</v>
@@ -23004,8 +22899,8 @@
       <c r="K239" t="s">
         <v>41</v>
       </c>
-      <c r="L239" t="s">
-        <v>25</v>
+      <c r="L239">
+        <f>VLOOKUP(K239,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M239" s="8" t="s">
         <v>52</v>
@@ -23078,8 +22973,8 @@
       <c r="K240" t="s">
         <v>51</v>
       </c>
-      <c r="L240" t="s">
-        <v>25</v>
+      <c r="L240">
+        <f>VLOOKUP(K240,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M240" s="8" t="s">
         <v>28</v>
@@ -23152,8 +23047,8 @@
       <c r="K241" t="s">
         <v>146</v>
       </c>
-      <c r="L241" t="s">
-        <v>25</v>
+      <c r="L241">
+        <f>VLOOKUP(K241,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M241" s="8" t="s">
         <v>152</v>
@@ -23226,8 +23121,8 @@
       <c r="K242" t="s">
         <v>46</v>
       </c>
-      <c r="L242" t="s">
-        <v>25</v>
+      <c r="L242">
+        <f>VLOOKUP(K242,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M242" s="8" t="s">
         <v>28</v>
@@ -23300,8 +23195,8 @@
       <c r="K243" t="s">
         <v>180</v>
       </c>
-      <c r="L243" t="s">
-        <v>25</v>
+      <c r="L243">
+        <f>VLOOKUP(K243,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M243" s="8" t="s">
         <v>28</v>
@@ -23374,8 +23269,8 @@
       <c r="K244" t="s">
         <v>180</v>
       </c>
-      <c r="L244" t="s">
-        <v>25</v>
+      <c r="L244">
+        <f>VLOOKUP(K244,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M244" s="8" t="s">
         <v>28</v>
@@ -23448,8 +23343,8 @@
       <c r="K245" t="s">
         <v>36</v>
       </c>
-      <c r="L245" t="s">
-        <v>25</v>
+      <c r="L245">
+        <f>VLOOKUP(K245,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M245" s="8" t="s">
         <v>28</v>
@@ -23522,8 +23417,8 @@
       <c r="K246" t="s">
         <v>41</v>
       </c>
-      <c r="L246" t="s">
-        <v>25</v>
+      <c r="L246">
+        <f>VLOOKUP(K246,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M246" s="8" t="s">
         <v>106</v>
@@ -23596,8 +23491,8 @@
       <c r="K247" t="s">
         <v>51</v>
       </c>
-      <c r="L247" t="s">
-        <v>25</v>
+      <c r="L247">
+        <f>VLOOKUP(K247,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M247" s="8" t="s">
         <v>28</v>
@@ -23670,8 +23565,8 @@
       <c r="K248" t="s">
         <v>95</v>
       </c>
-      <c r="L248" t="s">
-        <v>25</v>
+      <c r="L248">
+        <f>VLOOKUP(K248,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M248" s="8" t="s">
         <v>28</v>
@@ -23744,8 +23639,8 @@
       <c r="K249" t="s">
         <v>95</v>
       </c>
-      <c r="L249" t="s">
-        <v>25</v>
+      <c r="L249">
+        <f>VLOOKUP(K249,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M249" s="8" t="s">
         <v>52</v>
@@ -23818,8 +23713,8 @@
       <c r="K250" t="s">
         <v>51</v>
       </c>
-      <c r="L250" t="s">
-        <v>25</v>
+      <c r="L250">
+        <f>VLOOKUP(K250,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M250" s="8" t="s">
         <v>106</v>
@@ -23892,8 +23787,8 @@
       <c r="K251" t="s">
         <v>146</v>
       </c>
-      <c r="L251" t="s">
-        <v>25</v>
+      <c r="L251">
+        <f>VLOOKUP(K251,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M251" s="8" t="s">
         <v>132</v>
@@ -23966,8 +23861,8 @@
       <c r="K252" t="s">
         <v>169</v>
       </c>
-      <c r="L252" t="s">
-        <v>25</v>
+      <c r="L252">
+        <f>VLOOKUP(K252,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M252" s="8" t="s">
         <v>411</v>
@@ -24040,8 +23935,8 @@
       <c r="K253" t="s">
         <v>41</v>
       </c>
-      <c r="L253" t="s">
-        <v>25</v>
+      <c r="L253">
+        <f>VLOOKUP(K253,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M253" s="8" t="s">
         <v>52</v>
@@ -24114,8 +24009,8 @@
       <c r="K254" t="s">
         <v>36</v>
       </c>
-      <c r="L254" t="s">
-        <v>25</v>
+      <c r="L254">
+        <f>VLOOKUP(K254,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M254" s="8" t="s">
         <v>52</v>
@@ -24188,8 +24083,8 @@
       <c r="K255" t="s">
         <v>180</v>
       </c>
-      <c r="L255" t="s">
-        <v>25</v>
+      <c r="L255">
+        <f>VLOOKUP(K255,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M255" s="8" t="s">
         <v>28</v>
@@ -24262,8 +24157,8 @@
       <c r="K256" t="s">
         <v>41</v>
       </c>
-      <c r="L256" t="s">
-        <v>25</v>
+      <c r="L256">
+        <f>VLOOKUP(K256,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M256" s="8" t="s">
         <v>71</v>
@@ -24336,8 +24231,8 @@
       <c r="K257" t="s">
         <v>36</v>
       </c>
-      <c r="L257" t="s">
-        <v>25</v>
+      <c r="L257">
+        <f>VLOOKUP(K257,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M257" s="8" t="s">
         <v>28</v>
@@ -24410,8 +24305,8 @@
       <c r="K258" t="s">
         <v>41</v>
       </c>
-      <c r="L258" t="s">
-        <v>25</v>
+      <c r="L258">
+        <f>VLOOKUP(K258,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M258" s="8" t="s">
         <v>100</v>
@@ -24484,8 +24379,8 @@
       <c r="K259" t="s">
         <v>36</v>
       </c>
-      <c r="L259" t="s">
-        <v>25</v>
+      <c r="L259">
+        <f>VLOOKUP(K259,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M259" s="8" t="s">
         <v>28</v>
@@ -24558,8 +24453,8 @@
       <c r="K260" t="s">
         <v>180</v>
       </c>
-      <c r="L260" t="s">
-        <v>25</v>
+      <c r="L260">
+        <f>VLOOKUP(K260,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M260" s="8" t="s">
         <v>52</v>
@@ -24632,8 +24527,8 @@
       <c r="K261" t="s">
         <v>41</v>
       </c>
-      <c r="L261" t="s">
-        <v>25</v>
+      <c r="L261">
+        <f>VLOOKUP(K261,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M261" s="8" t="s">
         <v>28</v>
@@ -24706,8 +24601,8 @@
       <c r="K262" t="s">
         <v>36</v>
       </c>
-      <c r="L262" t="s">
-        <v>25</v>
+      <c r="L262">
+        <f>VLOOKUP(K262,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M262" s="8" t="s">
         <v>71</v>
@@ -24780,8 +24675,8 @@
       <c r="K263" t="s">
         <v>180</v>
       </c>
-      <c r="L263" t="s">
-        <v>25</v>
+      <c r="L263">
+        <f>VLOOKUP(K263,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M263" s="8" t="s">
         <v>71</v>
@@ -24854,8 +24749,8 @@
       <c r="K264" t="s">
         <v>104</v>
       </c>
-      <c r="L264" t="s">
-        <v>25</v>
+      <c r="L264">
+        <f>VLOOKUP(K264,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M264" s="8" t="s">
         <v>52</v>
@@ -24928,8 +24823,8 @@
       <c r="K265" t="s">
         <v>191</v>
       </c>
-      <c r="L265" t="s">
-        <v>25</v>
+      <c r="L265">
+        <f>VLOOKUP(K265,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M265" s="8" t="s">
         <v>52</v>
@@ -25002,8 +24897,8 @@
       <c r="K266" t="s">
         <v>36</v>
       </c>
-      <c r="L266" t="s">
-        <v>25</v>
+      <c r="L266">
+        <f>VLOOKUP(K266,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M266" s="8" t="s">
         <v>28</v>
@@ -25076,8 +24971,8 @@
       <c r="K267" t="s">
         <v>180</v>
       </c>
-      <c r="L267" t="s">
-        <v>25</v>
+      <c r="L267">
+        <f>VLOOKUP(K267,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M267" s="8" t="s">
         <v>52</v>
@@ -25150,8 +25045,8 @@
       <c r="K268" t="s">
         <v>104</v>
       </c>
-      <c r="L268" t="s">
-        <v>25</v>
+      <c r="L268">
+        <f>VLOOKUP(K268,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M268" s="8" t="s">
         <v>28</v>
@@ -25224,8 +25119,8 @@
       <c r="K269" t="s">
         <v>180</v>
       </c>
-      <c r="L269" t="s">
-        <v>25</v>
+      <c r="L269">
+        <f>VLOOKUP(K269,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M269" s="8" t="s">
         <v>28</v>
@@ -25298,8 +25193,8 @@
       <c r="K270" t="s">
         <v>104</v>
       </c>
-      <c r="L270" t="s">
-        <v>25</v>
+      <c r="L270">
+        <f>VLOOKUP(K270,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M270" s="8" t="s">
         <v>28</v>
@@ -25372,8 +25267,8 @@
       <c r="K271" t="s">
         <v>41</v>
       </c>
-      <c r="L271" t="s">
-        <v>25</v>
+      <c r="L271">
+        <f>VLOOKUP(K271,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M271" s="8" t="s">
         <v>28</v>
@@ -25446,8 +25341,8 @@
       <c r="K272" t="s">
         <v>36</v>
       </c>
-      <c r="L272" t="s">
-        <v>25</v>
+      <c r="L272">
+        <f>VLOOKUP(K272,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M272" s="8" t="s">
         <v>71</v>
@@ -25520,8 +25415,8 @@
       <c r="K273" t="s">
         <v>180</v>
       </c>
-      <c r="L273" t="s">
-        <v>25</v>
+      <c r="L273">
+        <f>VLOOKUP(K273,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M273" s="8" t="s">
         <v>28</v>
@@ -25594,8 +25489,8 @@
       <c r="K274" t="s">
         <v>104</v>
       </c>
-      <c r="L274" t="s">
-        <v>25</v>
+      <c r="L274">
+        <f>VLOOKUP(K274,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M274" s="8" t="s">
         <v>52</v>
@@ -25668,8 +25563,8 @@
       <c r="K275" t="s">
         <v>98</v>
       </c>
-      <c r="L275" t="s">
-        <v>25</v>
+      <c r="L275">
+        <f>VLOOKUP(K275,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M275" s="8" t="s">
         <v>211</v>
@@ -25742,8 +25637,8 @@
       <c r="K276" t="s">
         <v>51</v>
       </c>
-      <c r="L276" t="s">
-        <v>25</v>
+      <c r="L276">
+        <f>VLOOKUP(K276,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M276" s="8" t="s">
         <v>28</v>
@@ -25816,8 +25711,8 @@
       <c r="K277" t="s">
         <v>98</v>
       </c>
-      <c r="L277" t="s">
-        <v>25</v>
+      <c r="L277">
+        <f>VLOOKUP(K277,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M277" s="8" t="s">
         <v>323</v>
@@ -25890,8 +25785,8 @@
       <c r="K278" t="s">
         <v>51</v>
       </c>
-      <c r="L278" t="s">
-        <v>25</v>
+      <c r="L278">
+        <f>VLOOKUP(K278,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M278" s="8" t="s">
         <v>211</v>
@@ -25964,8 +25859,8 @@
       <c r="K279" t="s">
         <v>27</v>
       </c>
-      <c r="L279" t="s">
-        <v>25</v>
+      <c r="L279">
+        <f>VLOOKUP(K279,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M279" s="8" t="s">
         <v>52</v>
@@ -26038,8 +25933,8 @@
       <c r="K280" t="s">
         <v>77</v>
       </c>
-      <c r="L280" t="s">
-        <v>25</v>
+      <c r="L280">
+        <f>VLOOKUP(K280,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M280" s="8" t="s">
         <v>28</v>
@@ -26112,8 +26007,8 @@
       <c r="K281" t="s">
         <v>270</v>
       </c>
-      <c r="L281" t="s">
-        <v>25</v>
+      <c r="L281">
+        <f>VLOOKUP(K281,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M281" s="8" t="s">
         <v>81</v>
@@ -26186,8 +26081,8 @@
       <c r="K282" t="s">
         <v>273</v>
       </c>
-      <c r="L282" t="s">
-        <v>25</v>
+      <c r="L282">
+        <f>VLOOKUP(K282,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M282" s="8" t="s">
         <v>100</v>
@@ -26260,8 +26155,8 @@
       <c r="K283" t="s">
         <v>276</v>
       </c>
-      <c r="L283" t="s">
-        <v>25</v>
+      <c r="L283">
+        <f>VLOOKUP(K283,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M283" s="8" t="s">
         <v>52</v>
@@ -26334,8 +26229,8 @@
       <c r="K284" t="s">
         <v>279</v>
       </c>
-      <c r="L284" t="s">
-        <v>25</v>
+      <c r="L284">
+        <f>VLOOKUP(K284,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M284" s="8" t="s">
         <v>28</v>
@@ -26408,8 +26303,8 @@
       <c r="K285" t="s">
         <v>77</v>
       </c>
-      <c r="L285" t="s">
-        <v>25</v>
+      <c r="L285">
+        <f>VLOOKUP(K285,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M285" s="8" t="s">
         <v>28</v>
@@ -26482,8 +26377,8 @@
       <c r="K286" t="s">
         <v>270</v>
       </c>
-      <c r="L286" t="s">
-        <v>25</v>
+      <c r="L286">
+        <f>VLOOKUP(K286,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M286" s="8" t="s">
         <v>28</v>
@@ -26556,8 +26451,8 @@
       <c r="K287" t="s">
         <v>77</v>
       </c>
-      <c r="L287" t="s">
-        <v>25</v>
+      <c r="L287">
+        <f>VLOOKUP(K287,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M287" s="8" t="s">
         <v>89</v>
@@ -26630,8 +26525,8 @@
       <c r="K288" t="s">
         <v>270</v>
       </c>
-      <c r="L288" t="s">
-        <v>25</v>
+      <c r="L288">
+        <f>VLOOKUP(K288,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M288" s="8" t="s">
         <v>81</v>
@@ -26704,8 +26599,8 @@
       <c r="K289" t="s">
         <v>120</v>
       </c>
-      <c r="L289" t="s">
-        <v>25</v>
+      <c r="L289">
+        <f>VLOOKUP(K289,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M289" s="8" t="s">
         <v>28</v>
@@ -26778,8 +26673,8 @@
       <c r="K290" t="s">
         <v>123</v>
       </c>
-      <c r="L290" t="s">
-        <v>25</v>
+      <c r="L290">
+        <f>VLOOKUP(K290,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M290" s="8" t="s">
         <v>71</v>
@@ -26852,8 +26747,8 @@
       <c r="K291" t="s">
         <v>84</v>
       </c>
-      <c r="L291" t="s">
-        <v>25</v>
+      <c r="L291">
+        <f>VLOOKUP(K291,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M291" s="8" t="s">
         <v>28</v>
@@ -26926,8 +26821,8 @@
       <c r="K292" t="s">
         <v>123</v>
       </c>
-      <c r="L292" t="s">
-        <v>25</v>
+      <c r="L292">
+        <f>VLOOKUP(K292,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M292" s="8" t="s">
         <v>71</v>
@@ -27000,8 +26895,8 @@
       <c r="K293" t="s">
         <v>120</v>
       </c>
-      <c r="L293" t="s">
-        <v>25</v>
+      <c r="L293">
+        <f>VLOOKUP(K293,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M293" s="8" t="s">
         <v>52</v>
@@ -27074,8 +26969,8 @@
       <c r="K294" t="s">
         <v>123</v>
       </c>
-      <c r="L294" t="s">
-        <v>25</v>
+      <c r="L294">
+        <f>VLOOKUP(K294,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M294" s="8" t="s">
         <v>81</v>
@@ -27148,8 +27043,8 @@
       <c r="K295" t="s">
         <v>84</v>
       </c>
-      <c r="L295" t="s">
-        <v>25</v>
+      <c r="L295">
+        <f>VLOOKUP(K295,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M295" s="8" t="s">
         <v>28</v>
@@ -27222,8 +27117,8 @@
       <c r="K296" t="s">
         <v>120</v>
       </c>
-      <c r="L296" t="s">
-        <v>25</v>
+      <c r="L296">
+        <f>VLOOKUP(K296,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M296" s="8" t="s">
         <v>28</v>
@@ -27296,8 +27191,8 @@
       <c r="K297" t="s">
         <v>84</v>
       </c>
-      <c r="L297" t="s">
-        <v>25</v>
+      <c r="L297">
+        <f>VLOOKUP(K297,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M297" s="8" t="s">
         <v>81</v>
@@ -27370,8 +27265,8 @@
       <c r="K298" t="s">
         <v>46</v>
       </c>
-      <c r="L298" t="s">
-        <v>25</v>
+      <c r="L298">
+        <f>VLOOKUP(K298,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M298" s="8" t="s">
         <v>132</v>
@@ -27444,8 +27339,8 @@
       <c r="K299" t="s">
         <v>51</v>
       </c>
-      <c r="L299" t="s">
-        <v>25</v>
+      <c r="L299">
+        <f>VLOOKUP(K299,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M299" s="8" t="s">
         <v>52</v>
@@ -27518,8 +27413,8 @@
       <c r="K300" t="s">
         <v>41</v>
       </c>
-      <c r="L300" t="s">
-        <v>25</v>
+      <c r="L300">
+        <f>VLOOKUP(K300,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M300" s="8" t="s">
         <v>89</v>
@@ -27592,8 +27487,8 @@
       <c r="K301" t="s">
         <v>36</v>
       </c>
-      <c r="L301" t="s">
-        <v>25</v>
+      <c r="L301">
+        <f>VLOOKUP(K301,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M301" s="8" t="s">
         <v>28</v>
@@ -27666,8 +27561,8 @@
       <c r="K302" t="s">
         <v>36</v>
       </c>
-      <c r="L302" t="s">
-        <v>25</v>
+      <c r="L302">
+        <f>VLOOKUP(K302,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M302" s="8" t="s">
         <v>28</v>
@@ -27740,8 +27635,8 @@
       <c r="K303" t="s">
         <v>180</v>
       </c>
-      <c r="L303" t="s">
-        <v>25</v>
+      <c r="L303">
+        <f>VLOOKUP(K303,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M303" s="8" t="s">
         <v>28</v>
@@ -27814,8 +27709,8 @@
       <c r="K304" t="s">
         <v>104</v>
       </c>
-      <c r="L304" t="s">
-        <v>25</v>
+      <c r="L304">
+        <f>VLOOKUP(K304,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M304" s="8" t="s">
         <v>28</v>
@@ -27888,8 +27783,8 @@
       <c r="K305" t="s">
         <v>348</v>
       </c>
-      <c r="L305" t="s">
-        <v>25</v>
+      <c r="L305">
+        <f>VLOOKUP(K305,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M305" s="8" t="s">
         <v>265</v>
@@ -27962,8 +27857,8 @@
       <c r="K306" t="s">
         <v>120</v>
       </c>
-      <c r="L306" t="s">
-        <v>25</v>
+      <c r="L306">
+        <f>VLOOKUP(K306,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M306" s="8" t="s">
         <v>284</v>
@@ -28036,8 +27931,8 @@
       <c r="K307" t="s">
         <v>123</v>
       </c>
-      <c r="L307" t="s">
-        <v>25</v>
+      <c r="L307">
+        <f>VLOOKUP(K307,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M307" s="8" t="s">
         <v>81</v>
@@ -28110,8 +28005,8 @@
       <c r="K308" t="s">
         <v>36</v>
       </c>
-      <c r="L308" t="s">
-        <v>25</v>
+      <c r="L308">
+        <f>VLOOKUP(K308,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M308" s="8" t="s">
         <v>81</v>
@@ -28184,8 +28079,8 @@
       <c r="K309" t="s">
         <v>104</v>
       </c>
-      <c r="L309" t="s">
-        <v>25</v>
+      <c r="L309">
+        <f>VLOOKUP(K309,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M309" s="8" t="s">
         <v>28</v>
@@ -28258,8 +28153,8 @@
       <c r="K310" t="s">
         <v>169</v>
       </c>
-      <c r="L310" t="s">
-        <v>25</v>
+      <c r="L310">
+        <f>VLOOKUP(K310,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M310" s="8" t="s">
         <v>211</v>
@@ -28332,8 +28227,8 @@
       <c r="K311" t="s">
         <v>169</v>
       </c>
-      <c r="L311" t="s">
-        <v>25</v>
+      <c r="L311">
+        <f>VLOOKUP(K311,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M311" s="8" t="s">
         <v>71</v>
@@ -28406,8 +28301,8 @@
       <c r="K312" t="s">
         <v>169</v>
       </c>
-      <c r="L312" t="s">
-        <v>25</v>
+      <c r="L312">
+        <f>VLOOKUP(K312,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M312" s="8" t="s">
         <v>357</v>
@@ -28480,8 +28375,8 @@
       <c r="K313" t="s">
         <v>169</v>
       </c>
-      <c r="L313" t="s">
-        <v>25</v>
+      <c r="L313">
+        <f>VLOOKUP(K313,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M313" s="8" t="s">
         <v>233</v>
@@ -28554,8 +28449,8 @@
       <c r="K314" t="s">
         <v>98</v>
       </c>
-      <c r="L314" t="s">
-        <v>25</v>
+      <c r="L314">
+        <f>VLOOKUP(K314,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M314" s="8" t="s">
         <v>52</v>
@@ -28628,8 +28523,8 @@
       <c r="K315" t="s">
         <v>98</v>
       </c>
-      <c r="L315" t="s">
-        <v>25</v>
+      <c r="L315">
+        <f>VLOOKUP(K315,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M315" s="8" t="s">
         <v>477</v>
@@ -28702,8 +28597,8 @@
       <c r="K316" t="s">
         <v>51</v>
       </c>
-      <c r="L316" t="s">
-        <v>25</v>
+      <c r="L316">
+        <f>VLOOKUP(K316,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M316" s="8" t="s">
         <v>106</v>
@@ -28776,8 +28671,8 @@
       <c r="K317" t="s">
         <v>41</v>
       </c>
-      <c r="L317" t="s">
-        <v>25</v>
+      <c r="L317">
+        <f>VLOOKUP(K317,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M317" s="8" t="s">
         <v>71</v>
@@ -28850,8 +28745,8 @@
       <c r="K318" t="s">
         <v>169</v>
       </c>
-      <c r="L318" t="s">
-        <v>25</v>
+      <c r="L318">
+        <f>VLOOKUP(K318,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M318" s="8" t="s">
         <v>350</v>
@@ -28924,8 +28819,8 @@
       <c r="K319" t="s">
         <v>98</v>
       </c>
-      <c r="L319" t="s">
-        <v>25</v>
+      <c r="L319">
+        <f>VLOOKUP(K319,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M319" s="8" t="s">
         <v>136</v>
@@ -28998,8 +28893,8 @@
       <c r="K320" t="s">
         <v>51</v>
       </c>
-      <c r="L320" t="s">
-        <v>25</v>
+      <c r="L320">
+        <f>VLOOKUP(K320,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M320" s="8" t="s">
         <v>28</v>
@@ -29072,8 +28967,8 @@
       <c r="K321" t="s">
         <v>41</v>
       </c>
-      <c r="L321" t="s">
-        <v>25</v>
+      <c r="L321">
+        <f>VLOOKUP(K321,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M321" s="8" t="s">
         <v>28</v>
@@ -29146,8 +29041,8 @@
       <c r="K322" t="s">
         <v>146</v>
       </c>
-      <c r="L322" t="s">
-        <v>25</v>
+      <c r="L322">
+        <f>VLOOKUP(K322,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M322" s="8" t="s">
         <v>132</v>
@@ -29220,8 +29115,8 @@
       <c r="K323" t="s">
         <v>169</v>
       </c>
-      <c r="L323" t="s">
-        <v>25</v>
+      <c r="L323">
+        <f>VLOOKUP(K323,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M323" s="8" t="s">
         <v>489</v>
@@ -29294,8 +29189,8 @@
       <c r="K324" t="s">
         <v>41</v>
       </c>
-      <c r="L324" t="s">
-        <v>25</v>
+      <c r="L324">
+        <f>VLOOKUP(K324,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M324" s="8" t="s">
         <v>100</v>
@@ -29368,8 +29263,8 @@
       <c r="K325" t="s">
         <v>36</v>
       </c>
-      <c r="L325" t="s">
-        <v>25</v>
+      <c r="L325">
+        <f>VLOOKUP(K325,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M325" s="8" t="s">
         <v>71</v>
@@ -29442,8 +29337,8 @@
       <c r="K326" t="s">
         <v>180</v>
       </c>
-      <c r="L326" t="s">
-        <v>25</v>
+      <c r="L326">
+        <f>VLOOKUP(K326,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M326" s="8" t="s">
         <v>89</v>
@@ -29516,8 +29411,8 @@
       <c r="K327" t="s">
         <v>36</v>
       </c>
-      <c r="L327" t="s">
-        <v>25</v>
+      <c r="L327">
+        <f>VLOOKUP(K327,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M327" s="8" t="s">
         <v>52</v>
@@ -29590,8 +29485,8 @@
       <c r="K328" t="s">
         <v>180</v>
       </c>
-      <c r="L328" t="s">
-        <v>25</v>
+      <c r="L328">
+        <f>VLOOKUP(K328,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M328" s="8" t="s">
         <v>81</v>
@@ -29664,8 +29559,8 @@
       <c r="K329" t="s">
         <v>41</v>
       </c>
-      <c r="L329" t="s">
-        <v>25</v>
+      <c r="L329">
+        <f>VLOOKUP(K329,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M329" s="8" t="s">
         <v>52</v>
@@ -29738,8 +29633,8 @@
       <c r="K330" t="s">
         <v>36</v>
       </c>
-      <c r="L330" t="s">
-        <v>25</v>
+      <c r="L330">
+        <f>VLOOKUP(K330,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M330" s="8" t="s">
         <v>28</v>
@@ -29812,8 +29707,8 @@
       <c r="K331" t="s">
         <v>180</v>
       </c>
-      <c r="L331" t="s">
-        <v>25</v>
+      <c r="L331">
+        <f>VLOOKUP(K331,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M331" s="8" t="s">
         <v>71</v>
@@ -29886,8 +29781,8 @@
       <c r="K332" t="s">
         <v>104</v>
       </c>
-      <c r="L332" t="s">
-        <v>25</v>
+      <c r="L332">
+        <f>VLOOKUP(K332,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M332" s="8" t="s">
         <v>52</v>
@@ -29960,8 +29855,8 @@
       <c r="K333" t="s">
         <v>51</v>
       </c>
-      <c r="L333" t="s">
-        <v>25</v>
+      <c r="L333">
+        <f>VLOOKUP(K333,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M333" s="8" t="s">
         <v>71</v>
@@ -30034,8 +29929,8 @@
       <c r="K334" t="s">
         <v>41</v>
       </c>
-      <c r="L334" t="s">
-        <v>25</v>
+      <c r="L334">
+        <f>VLOOKUP(K334,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M334" s="8" t="s">
         <v>71</v>
@@ -30108,8 +30003,8 @@
       <c r="K335" t="s">
         <v>36</v>
       </c>
-      <c r="L335" t="s">
-        <v>25</v>
+      <c r="L335">
+        <f>VLOOKUP(K335,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M335" s="8" t="s">
         <v>28</v>
@@ -30182,8 +30077,8 @@
       <c r="K336" t="s">
         <v>98</v>
       </c>
-      <c r="L336" t="s">
-        <v>25</v>
+      <c r="L336">
+        <f>VLOOKUP(K336,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M336" s="8" t="s">
         <v>71</v>
@@ -30256,8 +30151,8 @@
       <c r="K337" t="s">
         <v>51</v>
       </c>
-      <c r="L337" t="s">
-        <v>25</v>
+      <c r="L337">
+        <f>VLOOKUP(K337,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M337" s="8" t="s">
         <v>52</v>
@@ -30330,8 +30225,8 @@
       <c r="K338" t="s">
         <v>169</v>
       </c>
-      <c r="L338" t="s">
-        <v>25</v>
+      <c r="L338">
+        <f>VLOOKUP(K338,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M338" s="8" t="s">
         <v>323</v>
@@ -30404,8 +30299,8 @@
       <c r="K339" t="s">
         <v>146</v>
       </c>
-      <c r="L339" t="s">
-        <v>25</v>
+      <c r="L339">
+        <f>VLOOKUP(K339,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M339" s="8" t="s">
         <v>265</v>
@@ -30478,8 +30373,8 @@
       <c r="K340" t="s">
         <v>46</v>
       </c>
-      <c r="L340" t="s">
-        <v>25</v>
+      <c r="L340">
+        <f>VLOOKUP(K340,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M340" s="8" t="s">
         <v>89</v>
@@ -30552,8 +30447,8 @@
       <c r="K341" t="s">
         <v>77</v>
       </c>
-      <c r="L341" t="s">
-        <v>25</v>
+      <c r="L341">
+        <f>VLOOKUP(K341,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M341" s="8" t="s">
         <v>52</v>
@@ -30626,8 +30521,8 @@
       <c r="K342" t="s">
         <v>27</v>
       </c>
-      <c r="L342" t="s">
-        <v>25</v>
+      <c r="L342">
+        <f>VLOOKUP(K342,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M342" s="8" t="s">
         <v>52</v>
@@ -30700,8 +30595,8 @@
       <c r="K343" t="s">
         <v>77</v>
       </c>
-      <c r="L343" t="s">
-        <v>25</v>
+      <c r="L343">
+        <f>VLOOKUP(K343,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M343" s="8" t="s">
         <v>28</v>
@@ -30774,8 +30669,8 @@
       <c r="K344" t="s">
         <v>77</v>
       </c>
-      <c r="L344" t="s">
-        <v>25</v>
+      <c r="L344">
+        <f>VLOOKUP(K344,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M344" s="8" t="s">
         <v>28</v>
@@ -30848,8 +30743,8 @@
       <c r="K345" t="s">
         <v>123</v>
       </c>
-      <c r="L345" t="s">
-        <v>25</v>
+      <c r="L345">
+        <f>VLOOKUP(K345,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M345" s="8" t="s">
         <v>89</v>
@@ -30922,8 +30817,8 @@
       <c r="K346" t="s">
         <v>84</v>
       </c>
-      <c r="L346" t="s">
-        <v>25</v>
+      <c r="L346">
+        <f>VLOOKUP(K346,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M346" s="8" t="s">
         <v>152</v>
@@ -30996,8 +30891,8 @@
       <c r="K347" t="s">
         <v>87</v>
       </c>
-      <c r="L347" t="s">
-        <v>25</v>
+      <c r="L347">
+        <f>VLOOKUP(K347,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M347" s="8" t="s">
         <v>28</v>
@@ -31070,8 +30965,8 @@
       <c r="K348" t="s">
         <v>123</v>
       </c>
-      <c r="L348" t="s">
-        <v>25</v>
+      <c r="L348">
+        <f>VLOOKUP(K348,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M348" s="8" t="s">
         <v>28</v>
@@ -31144,8 +31039,8 @@
       <c r="K349" t="s">
         <v>84</v>
       </c>
-      <c r="L349" t="s">
-        <v>25</v>
+      <c r="L349">
+        <f>VLOOKUP(K349,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M349" s="8" t="s">
         <v>71</v>
@@ -31218,8 +31113,8 @@
       <c r="K350" t="s">
         <v>27</v>
       </c>
-      <c r="L350" t="s">
-        <v>25</v>
+      <c r="L350">
+        <f>VLOOKUP(K350,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M350" s="8" t="s">
         <v>28</v>
@@ -31292,8 +31187,8 @@
       <c r="K351" t="s">
         <v>77</v>
       </c>
-      <c r="L351" t="s">
-        <v>25</v>
+      <c r="L351">
+        <f>VLOOKUP(K351,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M351" s="8" t="s">
         <v>28</v>
@@ -31366,8 +31261,8 @@
       <c r="K352" t="s">
         <v>270</v>
       </c>
-      <c r="L352" t="s">
-        <v>25</v>
+      <c r="L352">
+        <f>VLOOKUP(K352,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M352" s="8" t="s">
         <v>28</v>
@@ -31440,8 +31335,8 @@
       <c r="K353" t="s">
         <v>270</v>
       </c>
-      <c r="L353" t="s">
-        <v>25</v>
+      <c r="L353">
+        <f>VLOOKUP(K353,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M353" s="8" t="s">
         <v>28</v>
@@ -31514,8 +31409,8 @@
       <c r="K354" t="s">
         <v>146</v>
       </c>
-      <c r="L354" t="s">
-        <v>25</v>
+      <c r="L354">
+        <f>VLOOKUP(K354,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M354" s="8" t="s">
         <v>89</v>
@@ -31588,8 +31483,8 @@
       <c r="K355" t="s">
         <v>46</v>
       </c>
-      <c r="L355" t="s">
-        <v>25</v>
+      <c r="L355">
+        <f>VLOOKUP(K355,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M355" s="8" t="s">
         <v>265</v>
@@ -31662,8 +31557,8 @@
       <c r="K356" t="s">
         <v>51</v>
       </c>
-      <c r="L356" t="s">
-        <v>25</v>
+      <c r="L356">
+        <f>VLOOKUP(K356,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M356" s="8" t="s">
         <v>28</v>
@@ -31736,8 +31631,8 @@
       <c r="K357" t="s">
         <v>36</v>
       </c>
-      <c r="L357" t="s">
-        <v>25</v>
+      <c r="L357">
+        <f>VLOOKUP(K357,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M357" s="8" t="s">
         <v>28</v>
@@ -31810,8 +31705,8 @@
       <c r="K358" t="s">
         <v>180</v>
       </c>
-      <c r="L358" t="s">
-        <v>25</v>
+      <c r="L358">
+        <f>VLOOKUP(K358,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M358" s="8" t="s">
         <v>52</v>
@@ -31884,8 +31779,8 @@
       <c r="K359" t="s">
         <v>191</v>
       </c>
-      <c r="L359" t="s">
-        <v>25</v>
+      <c r="L359">
+        <f>VLOOKUP(K359,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M359" s="8" t="s">
         <v>52</v>
@@ -31958,8 +31853,8 @@
       <c r="K360" t="s">
         <v>51</v>
       </c>
-      <c r="L360" t="s">
-        <v>25</v>
+      <c r="L360">
+        <f>VLOOKUP(K360,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M360" s="8" t="s">
         <v>28</v>
@@ -32032,8 +31927,8 @@
       <c r="K361" t="s">
         <v>41</v>
       </c>
-      <c r="L361" t="s">
-        <v>25</v>
+      <c r="L361">
+        <f>VLOOKUP(K361,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M361" s="8" t="s">
         <v>28</v>
@@ -32106,8 +32001,8 @@
       <c r="K362" t="s">
         <v>36</v>
       </c>
-      <c r="L362" t="s">
-        <v>25</v>
+      <c r="L362">
+        <f>VLOOKUP(K362,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M362" s="8" t="s">
         <v>28</v>
@@ -32180,8 +32075,8 @@
       <c r="K363" t="s">
         <v>180</v>
       </c>
-      <c r="L363" t="s">
-        <v>25</v>
+      <c r="L363">
+        <f>VLOOKUP(K363,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M363" s="8" t="s">
         <v>28</v>
@@ -32254,8 +32149,8 @@
       <c r="K364" t="s">
         <v>104</v>
       </c>
-      <c r="L364" t="s">
-        <v>25</v>
+      <c r="L364">
+        <f>VLOOKUP(K364,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M364" s="8" t="s">
         <v>28</v>
@@ -32328,8 +32223,8 @@
       <c r="K365" t="s">
         <v>41</v>
       </c>
-      <c r="L365" t="s">
-        <v>25</v>
+      <c r="L365">
+        <f>VLOOKUP(K365,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M365" s="8" t="s">
         <v>52</v>
@@ -32402,8 +32297,8 @@
       <c r="K366" t="s">
         <v>36</v>
       </c>
-      <c r="L366" t="s">
-        <v>25</v>
+      <c r="L366">
+        <f>VLOOKUP(K366,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M366" s="8" t="s">
         <v>71</v>
@@ -32476,8 +32371,8 @@
       <c r="K367" t="s">
         <v>180</v>
       </c>
-      <c r="L367" t="s">
-        <v>25</v>
+      <c r="L367">
+        <f>VLOOKUP(K367,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M367" s="8" t="s">
         <v>52</v>
@@ -32550,8 +32445,8 @@
       <c r="K368" t="s">
         <v>41</v>
       </c>
-      <c r="L368" t="s">
-        <v>25</v>
+      <c r="L368">
+        <f>VLOOKUP(K368,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M368" s="8" t="s">
         <v>28</v>
@@ -32624,8 +32519,8 @@
       <c r="K369" t="s">
         <v>36</v>
       </c>
-      <c r="L369" t="s">
-        <v>25</v>
+      <c r="L369">
+        <f>VLOOKUP(K369,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M369" s="8" t="s">
         <v>81</v>
@@ -32698,8 +32593,8 @@
       <c r="K370" t="s">
         <v>98</v>
       </c>
-      <c r="L370" t="s">
-        <v>25</v>
+      <c r="L370">
+        <f>VLOOKUP(K370,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M370" s="8" t="s">
         <v>28</v>
@@ -32772,8 +32667,8 @@
       <c r="K371" t="s">
         <v>51</v>
       </c>
-      <c r="L371" t="s">
-        <v>25</v>
+      <c r="L371">
+        <f>VLOOKUP(K371,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M371" s="8" t="s">
         <v>28</v>
@@ -32846,8 +32741,8 @@
       <c r="K372" t="s">
         <v>36</v>
       </c>
-      <c r="L372" t="s">
-        <v>25</v>
+      <c r="L372">
+        <f>VLOOKUP(K372,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M372" s="8" t="s">
         <v>71</v>
@@ -32920,8 +32815,8 @@
       <c r="K373" t="s">
         <v>180</v>
       </c>
-      <c r="L373" t="s">
-        <v>25</v>
+      <c r="L373">
+        <f>VLOOKUP(K373,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M373" s="8" t="s">
         <v>28</v>
@@ -32994,8 +32889,8 @@
       <c r="K374" t="s">
         <v>51</v>
       </c>
-      <c r="L374" t="s">
-        <v>25</v>
+      <c r="L374">
+        <f>VLOOKUP(K374,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M374" s="8" t="s">
         <v>52</v>
@@ -33068,8 +32963,8 @@
       <c r="K375" t="s">
         <v>51</v>
       </c>
-      <c r="L375" t="s">
-        <v>25</v>
+      <c r="L375">
+        <f>VLOOKUP(K375,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M375" s="8" t="s">
         <v>28</v>
@@ -33142,8 +33037,8 @@
       <c r="K376" t="s">
         <v>41</v>
       </c>
-      <c r="L376" t="s">
-        <v>25</v>
+      <c r="L376">
+        <f>VLOOKUP(K376,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M376" s="8" t="s">
         <v>52</v>
@@ -33216,8 +33111,8 @@
       <c r="K377" t="s">
         <v>41</v>
       </c>
-      <c r="L377" t="s">
-        <v>25</v>
+      <c r="L377">
+        <f>VLOOKUP(K377,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M377" s="8" t="s">
         <v>28</v>
@@ -33290,8 +33185,8 @@
       <c r="K378" t="s">
         <v>180</v>
       </c>
-      <c r="L378" t="s">
-        <v>25</v>
+      <c r="L378">
+        <f>VLOOKUP(K378,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M378" s="8" t="s">
         <v>52</v>
@@ -33364,8 +33259,8 @@
       <c r="K379" t="s">
         <v>77</v>
       </c>
-      <c r="L379" t="s">
-        <v>25</v>
+      <c r="L379">
+        <f>VLOOKUP(K379,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M379" s="8" t="s">
         <v>28</v>
@@ -33438,8 +33333,8 @@
       <c r="K380" t="s">
         <v>104</v>
       </c>
-      <c r="L380" t="s">
-        <v>25</v>
+      <c r="L380">
+        <f>VLOOKUP(K380,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M380" s="8" t="s">
         <v>28</v>
@@ -33512,8 +33407,8 @@
       <c r="K381" t="s">
         <v>305</v>
       </c>
-      <c r="L381" t="s">
-        <v>25</v>
+      <c r="L381">
+        <f>VLOOKUP(K381,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M381" s="8" t="s">
         <v>28</v>
@@ -33586,8 +33481,8 @@
       <c r="K382" t="s">
         <v>180</v>
       </c>
-      <c r="L382" t="s">
-        <v>25</v>
+      <c r="L382">
+        <f>VLOOKUP(K382,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M382" s="8" t="s">
         <v>28</v>
@@ -33660,8 +33555,8 @@
       <c r="K383" t="s">
         <v>549</v>
       </c>
-      <c r="L383" t="s">
-        <v>25</v>
+      <c r="L383">
+        <f>VLOOKUP(K383,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M383" s="8" t="s">
         <v>28</v>
@@ -33734,8 +33629,8 @@
       <c r="K384" t="s">
         <v>180</v>
       </c>
-      <c r="L384" t="s">
-        <v>25</v>
+      <c r="L384">
+        <f>VLOOKUP(K384,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M384" s="8" t="s">
         <v>52</v>
@@ -33808,8 +33703,8 @@
       <c r="K385" t="s">
         <v>104</v>
       </c>
-      <c r="L385" t="s">
-        <v>25</v>
+      <c r="L385">
+        <f>VLOOKUP(K385,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M385" s="8" t="s">
         <v>52</v>
@@ -33882,8 +33777,8 @@
       <c r="K386" t="s">
         <v>180</v>
       </c>
-      <c r="L386" t="s">
-        <v>25</v>
+      <c r="L386">
+        <f>VLOOKUP(K386,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M386" s="8" t="s">
         <v>52</v>
@@ -33956,8 +33851,8 @@
       <c r="K387" t="s">
         <v>104</v>
       </c>
-      <c r="L387" t="s">
-        <v>25</v>
+      <c r="L387">
+        <f>VLOOKUP(K387,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M387" s="8" t="s">
         <v>52</v>
@@ -34030,8 +33925,8 @@
       <c r="K388" t="s">
         <v>41</v>
       </c>
-      <c r="L388" t="s">
-        <v>25</v>
+      <c r="L388">
+        <f>VLOOKUP(K388,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M388" s="8" t="s">
         <v>28</v>
@@ -34104,8 +33999,8 @@
       <c r="K389" t="s">
         <v>180</v>
       </c>
-      <c r="L389" t="s">
-        <v>25</v>
+      <c r="L389">
+        <f>VLOOKUP(K389,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M389" s="8" t="s">
         <v>71</v>
@@ -34178,8 +34073,8 @@
       <c r="K390" t="s">
         <v>104</v>
       </c>
-      <c r="L390" t="s">
-        <v>25</v>
+      <c r="L390">
+        <f>VLOOKUP(K390,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M390" s="8" t="s">
         <v>28</v>
@@ -34252,8 +34147,8 @@
       <c r="K391" t="s">
         <v>77</v>
       </c>
-      <c r="L391" t="s">
-        <v>25</v>
+      <c r="L391">
+        <f>VLOOKUP(K391,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M391" s="8" t="s">
         <v>28</v>
@@ -34326,8 +34221,8 @@
       <c r="K392" t="s">
         <v>67</v>
       </c>
-      <c r="L392" t="s">
-        <v>25</v>
+      <c r="L392">
+        <f>VLOOKUP(K392,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M392" s="8" t="s">
         <v>28</v>
@@ -34400,8 +34295,8 @@
       <c r="K393" t="s">
         <v>41</v>
       </c>
-      <c r="L393" t="s">
-        <v>25</v>
+      <c r="L393">
+        <f>VLOOKUP(K393,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M393" s="8" t="s">
         <v>28</v>
@@ -34474,8 +34369,8 @@
       <c r="K394" t="s">
         <v>180</v>
       </c>
-      <c r="L394" t="s">
-        <v>25</v>
+      <c r="L394">
+        <f>VLOOKUP(K394,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M394" s="8" t="s">
         <v>81</v>
@@ -34548,8 +34443,8 @@
       <c r="K395" t="s">
         <v>36</v>
       </c>
-      <c r="L395" t="s">
-        <v>25</v>
+      <c r="L395">
+        <f>VLOOKUP(K395,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M395" s="8" t="s">
         <v>52</v>
@@ -34622,8 +34517,8 @@
       <c r="K396" t="s">
         <v>180</v>
       </c>
-      <c r="L396" t="s">
-        <v>25</v>
+      <c r="L396">
+        <f>VLOOKUP(K396,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M396" s="8" t="s">
         <v>89</v>
@@ -34696,8 +34591,8 @@
       <c r="K397" t="s">
         <v>104</v>
       </c>
-      <c r="L397" t="s">
-        <v>25</v>
+      <c r="L397">
+        <f>VLOOKUP(K397,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M397" s="8" t="s">
         <v>52</v>
@@ -34770,8 +34665,8 @@
       <c r="K398" t="s">
         <v>41</v>
       </c>
-      <c r="L398" t="s">
-        <v>25</v>
+      <c r="L398">
+        <f>VLOOKUP(K398,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M398" s="8" t="s">
         <v>52</v>
@@ -34844,8 +34739,8 @@
       <c r="K399" t="s">
         <v>98</v>
       </c>
-      <c r="L399" t="s">
-        <v>25</v>
+      <c r="L399">
+        <f>VLOOKUP(K399,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M399" s="8" t="s">
         <v>563</v>
@@ -34918,8 +34813,8 @@
       <c r="K400" t="s">
         <v>98</v>
       </c>
-      <c r="L400" t="s">
-        <v>25</v>
+      <c r="L400">
+        <f>VLOOKUP(K400,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M400" s="8" t="s">
         <v>284</v>
@@ -34992,8 +34887,8 @@
       <c r="K401" t="s">
         <v>51</v>
       </c>
-      <c r="L401" t="s">
-        <v>25</v>
+      <c r="L401">
+        <f>VLOOKUP(K401,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M401" s="8" t="s">
         <v>100</v>
@@ -35066,8 +34961,8 @@
       <c r="K402" t="s">
         <v>51</v>
       </c>
-      <c r="L402" t="s">
-        <v>25</v>
+      <c r="L402">
+        <f>VLOOKUP(K402,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M402" s="8" t="s">
         <v>89</v>
@@ -35140,8 +35035,8 @@
       <c r="K403" t="s">
         <v>276</v>
       </c>
-      <c r="L403" t="s">
-        <v>25</v>
+      <c r="L403">
+        <f>VLOOKUP(K403,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M403" s="8" t="s">
         <v>71</v>
@@ -35214,8 +35109,8 @@
       <c r="K404" t="s">
         <v>279</v>
       </c>
-      <c r="L404" t="s">
-        <v>25</v>
+      <c r="L404">
+        <f>VLOOKUP(K404,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M404" s="8" t="s">
         <v>52</v>
@@ -35288,8 +35183,8 @@
       <c r="K405" t="s">
         <v>169</v>
       </c>
-      <c r="L405" t="s">
-        <v>25</v>
+      <c r="L405">
+        <f>VLOOKUP(K405,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M405" s="8" t="s">
         <v>52</v>
@@ -35362,8 +35257,8 @@
       <c r="K406" t="s">
         <v>98</v>
       </c>
-      <c r="L406" t="s">
-        <v>25</v>
+      <c r="L406">
+        <f>VLOOKUP(K406,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M406" s="8" t="s">
         <v>573</v>
@@ -35436,8 +35331,8 @@
       <c r="K407" t="s">
         <v>51</v>
       </c>
-      <c r="L407" t="s">
-        <v>25</v>
+      <c r="L407">
+        <f>VLOOKUP(K407,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M407" s="8" t="s">
         <v>79</v>
@@ -35510,8 +35405,8 @@
       <c r="K408" t="s">
         <v>98</v>
       </c>
-      <c r="L408" t="s">
-        <v>25</v>
+      <c r="L408">
+        <f>VLOOKUP(K408,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M408" s="8" t="s">
         <v>577</v>
@@ -35584,8 +35479,8 @@
       <c r="K409" t="s">
         <v>51</v>
       </c>
-      <c r="L409" t="s">
-        <v>25</v>
+      <c r="L409">
+        <f>VLOOKUP(K409,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M409" s="8" t="s">
         <v>211</v>
@@ -35658,8 +35553,8 @@
       <c r="K410" t="s">
         <v>98</v>
       </c>
-      <c r="L410" t="s">
-        <v>25</v>
+      <c r="L410">
+        <f>VLOOKUP(K410,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M410" s="8" t="s">
         <v>28</v>
@@ -35732,8 +35627,8 @@
       <c r="K411" t="s">
         <v>146</v>
       </c>
-      <c r="L411" t="s">
-        <v>25</v>
+      <c r="L411">
+        <f>VLOOKUP(K411,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M411" s="8" t="s">
         <v>284</v>
@@ -35806,8 +35701,8 @@
       <c r="K412" t="s">
         <v>46</v>
       </c>
-      <c r="L412" t="s">
-        <v>25</v>
+      <c r="L412">
+        <f>VLOOKUP(K412,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M412" s="8" t="s">
         <v>28</v>
@@ -35880,8 +35775,8 @@
       <c r="K413" t="s">
         <v>169</v>
       </c>
-      <c r="L413" t="s">
-        <v>25</v>
+      <c r="L413">
+        <f>VLOOKUP(K413,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M413" s="8" t="s">
         <v>585</v>
@@ -35954,8 +35849,8 @@
       <c r="K414" t="s">
         <v>98</v>
       </c>
-      <c r="L414" t="s">
-        <v>25</v>
+      <c r="L414">
+        <f>VLOOKUP(K414,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M414" s="8" t="s">
         <v>81</v>
@@ -36028,8 +35923,8 @@
       <c r="K415" t="s">
         <v>98</v>
       </c>
-      <c r="L415" t="s">
-        <v>25</v>
+      <c r="L415">
+        <f>VLOOKUP(K415,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M415" s="8" t="s">
         <v>52</v>
@@ -36102,8 +35997,8 @@
       <c r="K416" t="s">
         <v>169</v>
       </c>
-      <c r="L416" t="s">
-        <v>25</v>
+      <c r="L416">
+        <f>VLOOKUP(K416,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M416" s="8" t="s">
         <v>71</v>
@@ -36176,8 +36071,8 @@
       <c r="K417" t="s">
         <v>98</v>
       </c>
-      <c r="L417" t="s">
-        <v>25</v>
+      <c r="L417">
+        <f>VLOOKUP(K417,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M417" s="8" t="s">
         <v>81</v>
@@ -36250,8 +36145,8 @@
       <c r="K418" t="s">
         <v>169</v>
       </c>
-      <c r="L418" t="s">
-        <v>25</v>
+      <c r="L418">
+        <f>VLOOKUP(K418,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M418" s="8" t="s">
         <v>591</v>
@@ -36324,8 +36219,8 @@
       <c r="K419" t="s">
         <v>51</v>
       </c>
-      <c r="L419" t="s">
-        <v>25</v>
+      <c r="L419">
+        <f>VLOOKUP(K419,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M419" s="8" t="s">
         <v>71</v>
@@ -36398,8 +36293,8 @@
       <c r="K420" t="s">
         <v>41</v>
       </c>
-      <c r="L420" t="s">
-        <v>25</v>
+      <c r="L420">
+        <f>VLOOKUP(K420,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M420" s="8" t="s">
         <v>28</v>
@@ -36472,8 +36367,8 @@
       <c r="K421" t="s">
         <v>169</v>
       </c>
-      <c r="L421" t="s">
-        <v>25</v>
+      <c r="L421">
+        <f>VLOOKUP(K421,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M421" s="8" t="s">
         <v>199</v>
@@ -36546,8 +36441,8 @@
       <c r="K422" t="s">
         <v>51</v>
       </c>
-      <c r="L422" t="s">
-        <v>25</v>
+      <c r="L422">
+        <f>VLOOKUP(K422,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M422" s="8" t="s">
         <v>28</v>
@@ -36620,8 +36515,8 @@
       <c r="K423" t="s">
         <v>146</v>
       </c>
-      <c r="L423" t="s">
-        <v>25</v>
+      <c r="L423">
+        <f>VLOOKUP(K423,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M423" s="8" t="s">
         <v>132</v>
@@ -36694,8 +36589,8 @@
       <c r="K424" t="s">
         <v>169</v>
       </c>
-      <c r="L424" t="s">
-        <v>25</v>
+      <c r="L424">
+        <f>VLOOKUP(K424,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M424" s="8" t="s">
         <v>174</v>
@@ -36768,8 +36663,8 @@
       <c r="K425" t="s">
         <v>98</v>
       </c>
-      <c r="L425" t="s">
-        <v>25</v>
+      <c r="L425">
+        <f>VLOOKUP(K425,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M425" s="8" t="s">
         <v>71</v>
@@ -36842,8 +36737,8 @@
       <c r="K426" t="s">
         <v>51</v>
       </c>
-      <c r="L426" t="s">
-        <v>25</v>
+      <c r="L426">
+        <f>VLOOKUP(K426,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M426" s="8" t="s">
         <v>52</v>
@@ -36916,8 +36811,8 @@
       <c r="K427" t="s">
         <v>41</v>
       </c>
-      <c r="L427" t="s">
-        <v>25</v>
+      <c r="L427">
+        <f>VLOOKUP(K427,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M427" s="8" t="s">
         <v>52</v>
@@ -36990,8 +36885,8 @@
       <c r="K428" t="s">
         <v>146</v>
       </c>
-      <c r="L428" t="s">
-        <v>25</v>
+      <c r="L428">
+        <f>VLOOKUP(K428,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M428" s="8" t="s">
         <v>132</v>
@@ -37064,8 +36959,8 @@
       <c r="K429" t="s">
         <v>123</v>
       </c>
-      <c r="L429" t="s">
-        <v>25</v>
+      <c r="L429">
+        <f>VLOOKUP(K429,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M429" s="8" t="s">
         <v>100</v>
@@ -37138,8 +37033,8 @@
       <c r="K430" t="s">
         <v>84</v>
       </c>
-      <c r="L430" t="s">
-        <v>25</v>
+      <c r="L430">
+        <f>VLOOKUP(K430,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M430" s="8" t="s">
         <v>132</v>
@@ -37212,8 +37107,8 @@
       <c r="K431" t="s">
         <v>87</v>
       </c>
-      <c r="L431" t="s">
-        <v>25</v>
+      <c r="L431">
+        <f>VLOOKUP(K431,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M431" s="8" t="s">
         <v>28</v>
@@ -37286,8 +37181,8 @@
       <c r="K432" t="s">
         <v>120</v>
       </c>
-      <c r="L432" t="s">
-        <v>25</v>
+      <c r="L432">
+        <f>VLOOKUP(K432,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M432" s="8" t="s">
         <v>52</v>
@@ -37360,8 +37255,8 @@
       <c r="K433" t="s">
         <v>123</v>
       </c>
-      <c r="L433" t="s">
-        <v>25</v>
+      <c r="L433">
+        <f>VLOOKUP(K433,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M433" s="8" t="s">
         <v>71</v>
@@ -37434,8 +37329,8 @@
       <c r="K434" t="s">
         <v>84</v>
       </c>
-      <c r="L434" t="s">
-        <v>25</v>
+      <c r="L434">
+        <f>VLOOKUP(K434,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M434" s="8" t="s">
         <v>71</v>
@@ -37508,8 +37403,8 @@
       <c r="K435" t="s">
         <v>84</v>
       </c>
-      <c r="L435" t="s">
-        <v>25</v>
+      <c r="L435">
+        <f>VLOOKUP(K435,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M435" s="8" t="s">
         <v>89</v>
@@ -37582,8 +37477,8 @@
       <c r="K436" t="s">
         <v>614</v>
       </c>
-      <c r="L436" t="s">
-        <v>25</v>
+      <c r="L436">
+        <f>VLOOKUP(K436,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M436" s="8" t="s">
         <v>28</v>
@@ -37656,8 +37551,8 @@
       <c r="K437" t="s">
         <v>378</v>
       </c>
-      <c r="L437" t="s">
-        <v>25</v>
+      <c r="L437">
+        <f>VLOOKUP(K437,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M437" s="8" t="s">
         <v>28</v>
@@ -37730,8 +37625,8 @@
       <c r="K438" t="s">
         <v>619</v>
       </c>
-      <c r="L438" t="s">
-        <v>25</v>
+      <c r="L438">
+        <f>VLOOKUP(K438,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M438" s="8" t="s">
         <v>81</v>
@@ -37804,8 +37699,8 @@
       <c r="K439" t="s">
         <v>614</v>
       </c>
-      <c r="L439" t="s">
-        <v>25</v>
+      <c r="L439">
+        <f>VLOOKUP(K439,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M439" s="8" t="s">
         <v>52</v>
@@ -37878,8 +37773,8 @@
       <c r="K440" t="s">
         <v>378</v>
       </c>
-      <c r="L440" t="s">
-        <v>25</v>
+      <c r="L440">
+        <f>VLOOKUP(K440,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M440" s="8" t="s">
         <v>71</v>
@@ -37952,8 +37847,8 @@
       <c r="K441" t="s">
         <v>619</v>
       </c>
-      <c r="L441" t="s">
-        <v>25</v>
+      <c r="L441">
+        <f>VLOOKUP(K441,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M441" s="8" t="s">
         <v>211</v>
@@ -38026,8 +37921,8 @@
       <c r="K442" t="s">
         <v>619</v>
       </c>
-      <c r="L442" t="s">
-        <v>25</v>
+      <c r="L442">
+        <f>VLOOKUP(K442,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M442" s="8" t="s">
         <v>81</v>
@@ -38100,8 +37995,8 @@
       <c r="K443" t="s">
         <v>104</v>
       </c>
-      <c r="L443" t="s">
-        <v>25</v>
+      <c r="L443">
+        <f>VLOOKUP(K443,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M443" s="8" t="s">
         <v>52</v>
@@ -38174,8 +38069,8 @@
       <c r="K444" t="s">
         <v>628</v>
       </c>
-      <c r="L444" t="s">
-        <v>25</v>
+      <c r="L444">
+        <f>VLOOKUP(K444,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M444" s="8" t="s">
         <v>52</v>
@@ -38248,8 +38143,8 @@
       <c r="K445" t="s">
         <v>226</v>
       </c>
-      <c r="L445" t="s">
-        <v>25</v>
+      <c r="L445">
+        <f>VLOOKUP(K445,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M445" s="8" t="s">
         <v>71</v>
@@ -38322,8 +38217,8 @@
       <c r="K446" t="s">
         <v>632</v>
       </c>
-      <c r="L446" t="s">
-        <v>25</v>
+      <c r="L446">
+        <f>VLOOKUP(K446,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M446" s="8" t="s">
         <v>28</v>
@@ -38396,8 +38291,8 @@
       <c r="K447" t="s">
         <v>635</v>
       </c>
-      <c r="L447" t="s">
-        <v>25</v>
+      <c r="L447">
+        <f>VLOOKUP(K447,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M447" s="8" t="s">
         <v>28</v>
@@ -38470,8 +38365,8 @@
       <c r="K448" t="s">
         <v>120</v>
       </c>
-      <c r="L448" t="s">
-        <v>25</v>
+      <c r="L448">
+        <f>VLOOKUP(K448,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M448" s="8" t="s">
         <v>28</v>
@@ -38544,8 +38439,8 @@
       <c r="K449" t="s">
         <v>123</v>
       </c>
-      <c r="L449" t="s">
-        <v>25</v>
+      <c r="L449">
+        <f>VLOOKUP(K449,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M449" s="8" t="s">
         <v>265</v>
@@ -38618,8 +38513,8 @@
       <c r="K450" t="s">
         <v>84</v>
       </c>
-      <c r="L450" t="s">
-        <v>25</v>
+      <c r="L450">
+        <f>VLOOKUP(K450,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M450" s="8" t="s">
         <v>79</v>
@@ -38692,8 +38587,8 @@
       <c r="K451" t="s">
         <v>87</v>
       </c>
-      <c r="L451" t="s">
-        <v>25</v>
+      <c r="L451">
+        <f>VLOOKUP(K451,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M451" s="8" t="s">
         <v>265</v>
@@ -38766,8 +38661,8 @@
       <c r="K452" t="s">
         <v>104</v>
       </c>
-      <c r="L452" t="s">
-        <v>25</v>
+      <c r="L452">
+        <f>VLOOKUP(K452,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M452" s="8" t="s">
         <v>28</v>
@@ -38840,8 +38735,8 @@
       <c r="K453" t="s">
         <v>67</v>
       </c>
-      <c r="L453" t="s">
-        <v>25</v>
+      <c r="L453">
+        <f>VLOOKUP(K453,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M453" s="8" t="s">
         <v>100</v>
@@ -38914,8 +38809,8 @@
       <c r="K454" t="s">
         <v>27</v>
       </c>
-      <c r="L454" t="s">
-        <v>25</v>
+      <c r="L454">
+        <f>VLOOKUP(K454,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M454" s="8" t="s">
         <v>89</v>
@@ -38988,8 +38883,8 @@
       <c r="K455" t="s">
         <v>226</v>
       </c>
-      <c r="L455" t="s">
-        <v>25</v>
+      <c r="L455">
+        <f>VLOOKUP(K455,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M455" s="8" t="s">
         <v>28</v>
@@ -39062,8 +38957,8 @@
       <c r="K456" t="s">
         <v>632</v>
       </c>
-      <c r="L456" t="s">
-        <v>25</v>
+      <c r="L456">
+        <f>VLOOKUP(K456,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M456" s="8" t="s">
         <v>28</v>
@@ -39136,8 +39031,8 @@
       <c r="K457" t="s">
         <v>130</v>
       </c>
-      <c r="L457" t="s">
-        <v>25</v>
+      <c r="L457">
+        <f>VLOOKUP(K457,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M457" s="8" t="s">
         <v>28</v>
@@ -39210,8 +39105,8 @@
       <c r="K458" t="s">
         <v>67</v>
       </c>
-      <c r="L458" t="s">
-        <v>25</v>
+      <c r="L458">
+        <f>VLOOKUP(K458,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M458" s="8" t="s">
         <v>648</v>
@@ -39284,8 +39179,8 @@
       <c r="K459" t="s">
         <v>27</v>
       </c>
-      <c r="L459" t="s">
-        <v>25</v>
+      <c r="L459">
+        <f>VLOOKUP(K459,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M459" s="8" t="s">
         <v>106</v>
@@ -39358,8 +39253,8 @@
       <c r="K460" t="s">
         <v>67</v>
       </c>
-      <c r="L460" t="s">
-        <v>25</v>
+      <c r="L460">
+        <f>VLOOKUP(K460,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M460" s="8" t="s">
         <v>265</v>
@@ -39432,8 +39327,8 @@
       <c r="K461" t="s">
         <v>27</v>
       </c>
-      <c r="L461" t="s">
-        <v>25</v>
+      <c r="L461">
+        <f>VLOOKUP(K461,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M461" s="8" t="s">
         <v>52</v>
@@ -39506,8 +39401,8 @@
       <c r="K462" t="s">
         <v>180</v>
       </c>
-      <c r="L462" t="s">
-        <v>25</v>
+      <c r="L462">
+        <f>VLOOKUP(K462,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M462" s="8" t="s">
         <v>28</v>
@@ -39580,8 +39475,8 @@
       <c r="K463" t="s">
         <v>67</v>
       </c>
-      <c r="L463" t="s">
-        <v>25</v>
+      <c r="L463">
+        <f>VLOOKUP(K463,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M463" s="8" t="s">
         <v>28</v>
@@ -39654,8 +39549,8 @@
       <c r="K464" t="s">
         <v>67</v>
       </c>
-      <c r="L464" t="s">
-        <v>25</v>
+      <c r="L464">
+        <f>VLOOKUP(K464,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M464" s="8" t="s">
         <v>89</v>
@@ -39728,8 +39623,8 @@
       <c r="K465" t="s">
         <v>27</v>
       </c>
-      <c r="L465" t="s">
-        <v>25</v>
+      <c r="L465">
+        <f>VLOOKUP(K465,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M465" s="8" t="s">
         <v>81</v>
@@ -39802,8 +39697,8 @@
       <c r="K466" t="s">
         <v>36</v>
       </c>
-      <c r="L466" t="s">
-        <v>25</v>
+      <c r="L466">
+        <f>VLOOKUP(K466,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M466" s="8" t="s">
         <v>28</v>
@@ -39876,8 +39771,8 @@
       <c r="K467" t="s">
         <v>180</v>
       </c>
-      <c r="L467" t="s">
-        <v>25</v>
+      <c r="L467">
+        <f>VLOOKUP(K467,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M467" s="8" t="s">
         <v>81</v>
@@ -39950,8 +39845,8 @@
       <c r="K468" t="s">
         <v>104</v>
       </c>
-      <c r="L468" t="s">
-        <v>25</v>
+      <c r="L468">
+        <f>VLOOKUP(K468,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M468" s="8" t="s">
         <v>81</v>
@@ -40024,8 +39919,8 @@
       <c r="K469" t="s">
         <v>87</v>
       </c>
-      <c r="L469" t="s">
-        <v>25</v>
+      <c r="L469">
+        <f>VLOOKUP(K469,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M469" s="8" t="s">
         <v>284</v>
@@ -40098,8 +39993,8 @@
       <c r="K470" t="s">
         <v>130</v>
       </c>
-      <c r="L470" t="s">
-        <v>25</v>
+      <c r="L470">
+        <f>VLOOKUP(K470,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M470" s="8" t="s">
         <v>100</v>
@@ -40172,8 +40067,8 @@
       <c r="K471" t="s">
         <v>67</v>
       </c>
-      <c r="L471" t="s">
-        <v>25</v>
+      <c r="L471">
+        <f>VLOOKUP(K471,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M471" s="8" t="s">
         <v>664</v>
@@ -40246,8 +40141,8 @@
       <c r="K472" t="s">
         <v>27</v>
       </c>
-      <c r="L472" t="s">
-        <v>25</v>
+      <c r="L472">
+        <f>VLOOKUP(K472,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M472" s="8" t="s">
         <v>52</v>
@@ -40320,8 +40215,8 @@
       <c r="K473" t="s">
         <v>130</v>
       </c>
-      <c r="L473" t="s">
-        <v>25</v>
+      <c r="L473">
+        <f>VLOOKUP(K473,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M473" s="8" t="s">
         <v>52</v>
@@ -40394,8 +40289,8 @@
       <c r="K474" t="s">
         <v>67</v>
       </c>
-      <c r="L474" t="s">
-        <v>25</v>
+      <c r="L474">
+        <f>VLOOKUP(K474,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M474" s="8" t="s">
         <v>254</v>
@@ -40468,8 +40363,8 @@
       <c r="K475" t="s">
         <v>27</v>
       </c>
-      <c r="L475" t="s">
-        <v>25</v>
+      <c r="L475">
+        <f>VLOOKUP(K475,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M475" s="8" t="s">
         <v>28</v>
@@ -40542,8 +40437,8 @@
       <c r="K476" t="s">
         <v>77</v>
       </c>
-      <c r="L476" t="s">
-        <v>25</v>
+      <c r="L476">
+        <f>VLOOKUP(K476,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M476" s="8" t="s">
         <v>28</v>
@@ -40616,8 +40511,8 @@
       <c r="K477" t="s">
         <v>191</v>
       </c>
-      <c r="L477" t="s">
-        <v>25</v>
+      <c r="L477">
+        <f>VLOOKUP(K477,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M477" s="8" t="s">
         <v>52</v>
@@ -40690,8 +40585,8 @@
       <c r="K478" t="s">
         <v>191</v>
       </c>
-      <c r="L478" t="s">
-        <v>25</v>
+      <c r="L478">
+        <f>VLOOKUP(K478,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M478" s="8" t="s">
         <v>71</v>
@@ -40764,8 +40659,8 @@
       <c r="K479" t="s">
         <v>628</v>
       </c>
-      <c r="L479" t="s">
-        <v>25</v>
+      <c r="L479">
+        <f>VLOOKUP(K479,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M479" s="8" t="s">
         <v>28</v>
@@ -40838,8 +40733,8 @@
       <c r="K480" t="s">
         <v>120</v>
       </c>
-      <c r="L480" t="s">
-        <v>25</v>
+      <c r="L480">
+        <f>VLOOKUP(K480,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M480" s="8" t="s">
         <v>28</v>
@@ -40912,8 +40807,8 @@
       <c r="K481" t="s">
         <v>123</v>
       </c>
-      <c r="L481" t="s">
-        <v>25</v>
+      <c r="L481">
+        <f>VLOOKUP(K481,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M481" s="8" t="s">
         <v>211</v>
@@ -40986,8 +40881,8 @@
       <c r="K482" t="s">
         <v>84</v>
       </c>
-      <c r="L482" t="s">
-        <v>25</v>
+      <c r="L482">
+        <f>VLOOKUP(K482,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M482" s="8" t="s">
         <v>648</v>
@@ -41060,8 +40955,8 @@
       <c r="K483" t="s">
         <v>87</v>
       </c>
-      <c r="L483" t="s">
-        <v>25</v>
+      <c r="L483">
+        <f>VLOOKUP(K483,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M483" s="8" t="s">
         <v>174</v>
@@ -41134,8 +41029,8 @@
       <c r="K484" t="s">
         <v>207</v>
       </c>
-      <c r="L484" t="s">
-        <v>25</v>
+      <c r="L484">
+        <f>VLOOKUP(K484,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M484" s="8" t="s">
         <v>52</v>
@@ -41208,8 +41103,8 @@
       <c r="K485" t="s">
         <v>104</v>
       </c>
-      <c r="L485" t="s">
-        <v>25</v>
+      <c r="L485">
+        <f>VLOOKUP(K485,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M485" s="8" t="s">
         <v>28</v>
@@ -41282,8 +41177,8 @@
       <c r="K486" t="s">
         <v>84</v>
       </c>
-      <c r="L486" t="s">
-        <v>25</v>
+      <c r="L486">
+        <f>VLOOKUP(K486,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M486" s="8" t="s">
         <v>100</v>
@@ -41356,8 +41251,8 @@
       <c r="K487" t="s">
         <v>87</v>
       </c>
-      <c r="L487" t="s">
-        <v>25</v>
+      <c r="L487">
+        <f>VLOOKUP(K487,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M487" s="8" t="s">
         <v>52</v>
@@ -41430,8 +41325,8 @@
       <c r="K488" t="s">
         <v>67</v>
       </c>
-      <c r="L488" t="s">
-        <v>25</v>
+      <c r="L488">
+        <f>VLOOKUP(K488,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M488" s="8" t="s">
         <v>79</v>
@@ -41504,8 +41399,8 @@
       <c r="K489" t="s">
         <v>27</v>
       </c>
-      <c r="L489" t="s">
-        <v>25</v>
+      <c r="L489">
+        <f>VLOOKUP(K489,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M489" s="8" t="s">
         <v>100</v>
@@ -41578,8 +41473,8 @@
       <c r="K490" t="s">
         <v>123</v>
       </c>
-      <c r="L490" t="s">
-        <v>25</v>
+      <c r="L490">
+        <f>VLOOKUP(K490,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M490" s="8" t="s">
         <v>52</v>
@@ -41652,8 +41547,8 @@
       <c r="K491" t="s">
         <v>123</v>
       </c>
-      <c r="L491" t="s">
-        <v>25</v>
+      <c r="L491">
+        <f>VLOOKUP(K491,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M491" s="8" t="s">
         <v>52</v>
@@ -41726,8 +41621,8 @@
       <c r="K492" t="s">
         <v>84</v>
       </c>
-      <c r="L492" t="s">
-        <v>25</v>
+      <c r="L492">
+        <f>VLOOKUP(K492,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M492" s="8" t="s">
         <v>100</v>
@@ -41800,8 +41695,8 @@
       <c r="K493" t="s">
         <v>87</v>
       </c>
-      <c r="L493" t="s">
-        <v>25</v>
+      <c r="L493">
+        <f>VLOOKUP(K493,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M493" s="8" t="s">
         <v>249</v>
@@ -41874,8 +41769,8 @@
       <c r="K494" t="s">
         <v>180</v>
       </c>
-      <c r="L494" t="s">
-        <v>25</v>
+      <c r="L494">
+        <f>VLOOKUP(K494,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M494" s="8" t="s">
         <v>52</v>
@@ -41948,8 +41843,8 @@
       <c r="K495" t="s">
         <v>191</v>
       </c>
-      <c r="L495" t="s">
-        <v>25</v>
+      <c r="L495">
+        <f>VLOOKUP(K495,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M495" s="8" t="s">
         <v>28</v>
@@ -42022,8 +41917,8 @@
       <c r="K496" t="s">
         <v>84</v>
       </c>
-      <c r="L496" t="s">
-        <v>25</v>
+      <c r="L496">
+        <f>VLOOKUP(K496,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M496" s="8" t="s">
         <v>52</v>
@@ -42096,8 +41991,8 @@
       <c r="K497" t="s">
         <v>191</v>
       </c>
-      <c r="L497" t="s">
-        <v>25</v>
+      <c r="L497">
+        <f>VLOOKUP(K497,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M497" s="8" t="s">
         <v>28</v>
@@ -42170,8 +42065,8 @@
       <c r="K498" t="s">
         <v>104</v>
       </c>
-      <c r="L498" t="s">
-        <v>25</v>
+      <c r="L498">
+        <f>VLOOKUP(K498,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M498" s="8" t="s">
         <v>28</v>
@@ -42244,8 +42139,8 @@
       <c r="K499" t="s">
         <v>191</v>
       </c>
-      <c r="L499" t="s">
-        <v>25</v>
+      <c r="L499">
+        <f>VLOOKUP(K499,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M499" s="8" t="s">
         <v>81</v>
@@ -42318,8 +42213,8 @@
       <c r="K500" t="s">
         <v>628</v>
       </c>
-      <c r="L500" t="s">
-        <v>25</v>
+      <c r="L500">
+        <f>VLOOKUP(K500,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M500" s="8" t="s">
         <v>28</v>
@@ -42392,8 +42287,8 @@
       <c r="K501" t="s">
         <v>36</v>
       </c>
-      <c r="L501" t="s">
-        <v>25</v>
+      <c r="L501">
+        <f>VLOOKUP(K501,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M501" s="8" t="s">
         <v>28</v>
@@ -42466,8 +42361,8 @@
       <c r="K502" t="s">
         <v>104</v>
       </c>
-      <c r="L502" t="s">
-        <v>25</v>
+      <c r="L502">
+        <f>VLOOKUP(K502,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M502" s="8" t="s">
         <v>71</v>
@@ -42540,8 +42435,8 @@
       <c r="K503" t="s">
         <v>191</v>
       </c>
-      <c r="L503" t="s">
-        <v>25</v>
+      <c r="L503">
+        <f>VLOOKUP(K503,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M503" s="8" t="s">
         <v>28</v>
@@ -42614,8 +42509,8 @@
       <c r="K504" t="s">
         <v>84</v>
       </c>
-      <c r="L504" t="s">
-        <v>25</v>
+      <c r="L504">
+        <f>VLOOKUP(K504,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M504" s="8" t="s">
         <v>152</v>
@@ -42688,8 +42583,8 @@
       <c r="K505" t="s">
         <v>87</v>
       </c>
-      <c r="L505" t="s">
-        <v>25</v>
+      <c r="L505">
+        <f>VLOOKUP(K505,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M505" s="8" t="s">
         <v>199</v>
@@ -42762,8 +42657,8 @@
       <c r="K506" t="s">
         <v>207</v>
       </c>
-      <c r="L506" t="s">
-        <v>25</v>
+      <c r="L506">
+        <f>VLOOKUP(K506,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M506" s="8" t="s">
         <v>28</v>
@@ -42836,8 +42731,8 @@
       <c r="K507" t="s">
         <v>67</v>
       </c>
-      <c r="L507" t="s">
-        <v>25</v>
+      <c r="L507">
+        <f>VLOOKUP(K507,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M507" s="8" t="s">
         <v>204</v>
@@ -42910,8 +42805,8 @@
       <c r="K508" t="s">
         <v>27</v>
       </c>
-      <c r="L508" t="s">
-        <v>25</v>
+      <c r="L508">
+        <f>VLOOKUP(K508,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M508" s="8" t="s">
         <v>52</v>
@@ -42984,8 +42879,8 @@
       <c r="K509" t="s">
         <v>123</v>
       </c>
-      <c r="L509" t="s">
-        <v>25</v>
+      <c r="L509">
+        <f>VLOOKUP(K509,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M509" s="8" t="s">
         <v>81</v>
@@ -43058,8 +42953,8 @@
       <c r="K510" t="s">
         <v>130</v>
       </c>
-      <c r="L510" t="s">
-        <v>25</v>
+      <c r="L510">
+        <f>VLOOKUP(K510,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M510" s="8" t="s">
         <v>249</v>
@@ -43132,8 +43027,8 @@
       <c r="K511" t="s">
         <v>130</v>
       </c>
-      <c r="L511" t="s">
-        <v>25</v>
+      <c r="L511">
+        <f>VLOOKUP(K511,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M511" s="8" t="s">
         <v>71</v>
@@ -43206,8 +43101,8 @@
       <c r="K512" t="s">
         <v>27</v>
       </c>
-      <c r="L512" t="s">
-        <v>25</v>
+      <c r="L512">
+        <f>VLOOKUP(K512,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M512" s="8" t="s">
         <v>81</v>
@@ -43280,8 +43175,8 @@
       <c r="K513" t="s">
         <v>67</v>
       </c>
-      <c r="L513" t="s">
-        <v>25</v>
+      <c r="L513">
+        <f>VLOOKUP(K513,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M513" s="8" t="s">
         <v>707</v>
@@ -43354,8 +43249,8 @@
       <c r="K514" t="s">
         <v>67</v>
       </c>
-      <c r="L514" t="s">
-        <v>25</v>
+      <c r="L514">
+        <f>VLOOKUP(K514,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M514" s="8" t="s">
         <v>81</v>
@@ -43428,8 +43323,8 @@
       <c r="K515" t="s">
         <v>130</v>
       </c>
-      <c r="L515" t="s">
-        <v>25</v>
+      <c r="L515">
+        <f>VLOOKUP(K515,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M515" s="8" t="s">
         <v>711</v>
@@ -43502,8 +43397,8 @@
       <c r="K516" t="s">
         <v>67</v>
       </c>
-      <c r="L516" t="s">
-        <v>25</v>
+      <c r="L516">
+        <f>VLOOKUP(K516,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M516" s="8" t="s">
         <v>28</v>
@@ -43576,8 +43471,8 @@
       <c r="K517" t="s">
         <v>67</v>
       </c>
-      <c r="L517" t="s">
-        <v>25</v>
+      <c r="L517">
+        <f>VLOOKUP(K517,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M517" s="8" t="s">
         <v>714</v>
@@ -43650,8 +43545,8 @@
       <c r="K518" t="s">
         <v>27</v>
       </c>
-      <c r="L518" t="s">
-        <v>25</v>
+      <c r="L518">
+        <f>VLOOKUP(K518,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M518" s="8" t="s">
         <v>71</v>
@@ -43724,8 +43619,8 @@
       <c r="K519" t="s">
         <v>632</v>
       </c>
-      <c r="L519" t="s">
-        <v>25</v>
+      <c r="L519">
+        <f>VLOOKUP(K519,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M519" s="8" t="s">
         <v>52</v>
@@ -43798,8 +43693,8 @@
       <c r="K520" t="s">
         <v>130</v>
       </c>
-      <c r="L520" t="s">
-        <v>25</v>
+      <c r="L520">
+        <f>VLOOKUP(K520,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M520" s="8" t="s">
         <v>71</v>
@@ -43872,8 +43767,8 @@
       <c r="K521" t="s">
         <v>67</v>
       </c>
-      <c r="L521" t="s">
-        <v>25</v>
+      <c r="L521">
+        <f>VLOOKUP(K521,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M521" s="8" t="s">
         <v>260</v>
@@ -43946,8 +43841,8 @@
       <c r="K522" t="s">
         <v>27</v>
       </c>
-      <c r="L522" t="s">
-        <v>25</v>
+      <c r="L522">
+        <f>VLOOKUP(K522,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M522" s="8" t="s">
         <v>52</v>
@@ -44020,8 +43915,8 @@
       <c r="K523" t="s">
         <v>207</v>
       </c>
-      <c r="L523" t="s">
-        <v>25</v>
+      <c r="L523">
+        <f>VLOOKUP(K523,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M523" s="8" t="s">
         <v>28</v>
@@ -44094,8 +43989,8 @@
       <c r="K524" t="s">
         <v>130</v>
       </c>
-      <c r="L524" t="s">
-        <v>25</v>
+      <c r="L524">
+        <f>VLOOKUP(K524,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M524" s="8" t="s">
         <v>714</v>
@@ -44168,8 +44063,8 @@
       <c r="K525" t="s">
         <v>130</v>
       </c>
-      <c r="L525" t="s">
-        <v>25</v>
+      <c r="L525">
+        <f>VLOOKUP(K525,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M525" s="8" t="s">
         <v>724</v>
@@ -44242,8 +44137,8 @@
       <c r="K526" t="s">
         <v>226</v>
       </c>
-      <c r="L526" t="s">
-        <v>25</v>
+      <c r="L526">
+        <f>VLOOKUP(K526,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M526" s="8" t="s">
         <v>28</v>
@@ -44316,8 +44211,8 @@
       <c r="K527" t="s">
         <v>67</v>
       </c>
-      <c r="L527" t="s">
-        <v>25</v>
+      <c r="L527">
+        <f>VLOOKUP(K527,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M527" s="8" t="s">
         <v>727</v>
@@ -44390,8 +44285,8 @@
       <c r="K528" t="s">
         <v>67</v>
       </c>
-      <c r="L528" t="s">
-        <v>25</v>
+      <c r="L528">
+        <f>VLOOKUP(K528,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M528" s="8" t="s">
         <v>591</v>
@@ -44464,8 +44359,8 @@
       <c r="K529" t="s">
         <v>27</v>
       </c>
-      <c r="L529" t="s">
-        <v>25</v>
+      <c r="L529">
+        <f>VLOOKUP(K529,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M529" s="8" t="s">
         <v>89</v>
@@ -44538,8 +44433,8 @@
       <c r="K530" t="s">
         <v>27</v>
       </c>
-      <c r="L530" t="s">
-        <v>25</v>
+      <c r="L530">
+        <f>VLOOKUP(K530,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M530" s="8" t="s">
         <v>52</v>
@@ -44612,8 +44507,8 @@
       <c r="K531" t="s">
         <v>130</v>
       </c>
-      <c r="L531" t="s">
-        <v>25</v>
+      <c r="L531">
+        <f>VLOOKUP(K531,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M531" s="8" t="s">
         <v>211</v>
@@ -44686,8 +44581,8 @@
       <c r="K532" t="s">
         <v>67</v>
       </c>
-      <c r="L532" t="s">
-        <v>25</v>
+      <c r="L532">
+        <f>VLOOKUP(K532,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M532" s="8" t="s">
         <v>734</v>
@@ -44760,8 +44655,8 @@
       <c r="K533" t="s">
         <v>27</v>
       </c>
-      <c r="L533" t="s">
-        <v>25</v>
+      <c r="L533">
+        <f>VLOOKUP(K533,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M533" s="8" t="s">
         <v>81</v>
@@ -44834,8 +44729,8 @@
       <c r="K534" t="s">
         <v>130</v>
       </c>
-      <c r="L534" t="s">
-        <v>25</v>
+      <c r="L534">
+        <f>VLOOKUP(K534,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M534" s="8" t="s">
         <v>52</v>
@@ -44908,8 +44803,8 @@
       <c r="K535" t="s">
         <v>67</v>
       </c>
-      <c r="L535" t="s">
-        <v>25</v>
+      <c r="L535">
+        <f>VLOOKUP(K535,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M535" s="8" t="s">
         <v>81</v>
@@ -44982,8 +44877,8 @@
       <c r="K536" t="s">
         <v>27</v>
       </c>
-      <c r="L536" t="s">
-        <v>25</v>
+      <c r="L536">
+        <f>VLOOKUP(K536,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M536" s="8" t="s">
         <v>28</v>
@@ -45056,8 +44951,8 @@
       <c r="K537" t="s">
         <v>130</v>
       </c>
-      <c r="L537" t="s">
-        <v>25</v>
+      <c r="L537">
+        <f>VLOOKUP(K537,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M537" s="8" t="s">
         <v>711</v>
@@ -45130,8 +45025,8 @@
       <c r="K538" t="s">
         <v>67</v>
       </c>
-      <c r="L538" t="s">
-        <v>25</v>
+      <c r="L538">
+        <f>VLOOKUP(K538,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M538" s="8" t="s">
         <v>174</v>
@@ -45204,8 +45099,8 @@
       <c r="K539" t="s">
         <v>27</v>
       </c>
-      <c r="L539" t="s">
-        <v>25</v>
+      <c r="L539">
+        <f>VLOOKUP(K539,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M539" s="8" t="s">
         <v>28</v>
@@ -45278,8 +45173,8 @@
       <c r="K540" t="s">
         <v>226</v>
       </c>
-      <c r="L540" t="s">
-        <v>25</v>
+      <c r="L540">
+        <f>VLOOKUP(K540,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M540" s="8" t="s">
         <v>28</v>
@@ -45352,8 +45247,8 @@
       <c r="K541" t="s">
         <v>27</v>
       </c>
-      <c r="L541" t="s">
-        <v>25</v>
+      <c r="L541">
+        <f>VLOOKUP(K541,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M541" s="8" t="s">
         <v>71</v>
@@ -45426,8 +45321,8 @@
       <c r="K542" t="s">
         <v>130</v>
       </c>
-      <c r="L542" t="s">
-        <v>25</v>
+      <c r="L542">
+        <f>VLOOKUP(K542,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M542" s="8" t="s">
         <v>89</v>
@@ -45500,8 +45395,8 @@
       <c r="K543" t="s">
         <v>67</v>
       </c>
-      <c r="L543" t="s">
-        <v>25</v>
+      <c r="L543">
+        <f>VLOOKUP(K543,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M543" s="8" t="s">
         <v>711</v>
@@ -45574,8 +45469,8 @@
       <c r="K544" t="s">
         <v>67</v>
       </c>
-      <c r="L544" t="s">
-        <v>25</v>
+      <c r="L544">
+        <f>VLOOKUP(K544,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M544" s="8" t="s">
         <v>714</v>
@@ -45648,8 +45543,8 @@
       <c r="K545" t="s">
         <v>27</v>
       </c>
-      <c r="L545" t="s">
-        <v>25</v>
+      <c r="L545">
+        <f>VLOOKUP(K545,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M545" s="8" t="s">
         <v>100</v>
@@ -45722,8 +45617,8 @@
       <c r="K546" t="s">
         <v>27</v>
       </c>
-      <c r="L546" t="s">
-        <v>25</v>
+      <c r="L546">
+        <f>VLOOKUP(K546,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M546" s="8" t="s">
         <v>52</v>
@@ -45796,8 +45691,8 @@
       <c r="K547" t="s">
         <v>130</v>
       </c>
-      <c r="L547" t="s">
-        <v>25</v>
+      <c r="L547">
+        <f>VLOOKUP(K547,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M547" s="8" t="s">
         <v>265</v>
@@ -45870,8 +45765,8 @@
       <c r="K548" t="s">
         <v>130</v>
       </c>
-      <c r="L548" t="s">
-        <v>25</v>
+      <c r="L548">
+        <f>VLOOKUP(K548,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M548" s="8" t="s">
         <v>71</v>
@@ -45944,8 +45839,8 @@
       <c r="K549" t="s">
         <v>130</v>
       </c>
-      <c r="L549" t="s">
-        <v>25</v>
+      <c r="L549">
+        <f>VLOOKUP(K549,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M549" s="8" t="s">
         <v>52</v>
@@ -46018,8 +45913,8 @@
       <c r="K550" t="s">
         <v>27</v>
       </c>
-      <c r="L550" t="s">
-        <v>25</v>
+      <c r="L550">
+        <f>VLOOKUP(K550,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M550" s="8" t="s">
         <v>28</v>
@@ -46092,8 +45987,8 @@
       <c r="K551" t="s">
         <v>67</v>
       </c>
-      <c r="L551" t="s">
-        <v>25</v>
+      <c r="L551">
+        <f>VLOOKUP(K551,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M551" s="8" t="s">
         <v>152</v>
@@ -46166,8 +46061,8 @@
       <c r="K552" t="s">
         <v>130</v>
       </c>
-      <c r="L552" t="s">
-        <v>25</v>
+      <c r="L552">
+        <f>VLOOKUP(K552,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M552" s="8" t="s">
         <v>664</v>
@@ -46240,8 +46135,8 @@
       <c r="K553" t="s">
         <v>27</v>
       </c>
-      <c r="L553" t="s">
-        <v>25</v>
+      <c r="L553">
+        <f>VLOOKUP(K553,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M553" s="8" t="s">
         <v>52</v>
@@ -46314,8 +46209,8 @@
       <c r="K554" t="s">
         <v>67</v>
       </c>
-      <c r="L554" t="s">
-        <v>25</v>
+      <c r="L554">
+        <f>VLOOKUP(K554,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M554" s="8" t="s">
         <v>260</v>
@@ -46388,8 +46283,8 @@
       <c r="K555" t="s">
         <v>67</v>
       </c>
-      <c r="L555" t="s">
-        <v>25</v>
+      <c r="L555">
+        <f>VLOOKUP(K555,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M555" s="8" t="s">
         <v>81</v>
@@ -46462,8 +46357,8 @@
       <c r="K556" t="s">
         <v>123</v>
       </c>
-      <c r="L556" t="s">
-        <v>25</v>
+      <c r="L556">
+        <f>VLOOKUP(K556,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M556" s="8" t="s">
         <v>28</v>
@@ -46536,8 +46431,8 @@
       <c r="K557" t="s">
         <v>84</v>
       </c>
-      <c r="L557" t="s">
-        <v>25</v>
+      <c r="L557">
+        <f>VLOOKUP(K557,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M557" s="8" t="s">
         <v>265</v>
@@ -46610,8 +46505,8 @@
       <c r="K558" t="s">
         <v>87</v>
       </c>
-      <c r="L558" t="s">
-        <v>25</v>
+      <c r="L558">
+        <f>VLOOKUP(K558,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M558" s="8" t="s">
         <v>126</v>
@@ -46684,8 +46579,8 @@
       <c r="K559" t="s">
         <v>180</v>
       </c>
-      <c r="L559" t="s">
-        <v>25</v>
+      <c r="L559">
+        <f>VLOOKUP(K559,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M559" s="8" t="s">
         <v>28</v>
@@ -46758,8 +46653,8 @@
       <c r="K560" t="s">
         <v>191</v>
       </c>
-      <c r="L560" t="s">
-        <v>25</v>
+      <c r="L560">
+        <f>VLOOKUP(K560,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M560" s="8" t="s">
         <v>28</v>
@@ -46832,8 +46727,8 @@
       <c r="K561" t="s">
         <v>628</v>
       </c>
-      <c r="L561" t="s">
-        <v>25</v>
+      <c r="L561">
+        <f>VLOOKUP(K561,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M561" s="8" t="s">
         <v>52</v>
@@ -46906,8 +46801,8 @@
       <c r="K562" t="s">
         <v>123</v>
       </c>
-      <c r="L562" t="s">
-        <v>25</v>
+      <c r="L562">
+        <f>VLOOKUP(K562,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M562" s="8" t="s">
         <v>89</v>
@@ -46980,8 +46875,8 @@
       <c r="K563" t="s">
         <v>84</v>
       </c>
-      <c r="L563" t="s">
-        <v>25</v>
+      <c r="L563">
+        <f>VLOOKUP(K563,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M563" s="8" t="s">
         <v>100</v>
@@ -47054,8 +46949,8 @@
       <c r="K564" t="s">
         <v>104</v>
       </c>
-      <c r="L564" t="s">
-        <v>25</v>
+      <c r="L564">
+        <f>VLOOKUP(K564,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M564" s="8" t="s">
         <v>28</v>
@@ -47128,8 +47023,8 @@
       <c r="K565" t="s">
         <v>123</v>
       </c>
-      <c r="L565" t="s">
-        <v>25</v>
+      <c r="L565">
+        <f>VLOOKUP(K565,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M565" s="8" t="s">
         <v>81</v>
@@ -47202,8 +47097,8 @@
       <c r="K566" t="s">
         <v>84</v>
       </c>
-      <c r="L566" t="s">
-        <v>25</v>
+      <c r="L566">
+        <f>VLOOKUP(K566,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M566" s="8" t="s">
         <v>71</v>
@@ -47276,8 +47171,8 @@
       <c r="K567" t="s">
         <v>104</v>
       </c>
-      <c r="L567" t="s">
-        <v>25</v>
+      <c r="L567">
+        <f>VLOOKUP(K567,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M567" s="8" t="s">
         <v>28</v>
@@ -47350,8 +47245,8 @@
       <c r="K568" t="s">
         <v>104</v>
       </c>
-      <c r="L568" t="s">
-        <v>25</v>
+      <c r="L568">
+        <f>VLOOKUP(K568,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M568" s="8" t="s">
         <v>28</v>
@@ -47424,8 +47319,8 @@
       <c r="K569" t="s">
         <v>120</v>
       </c>
-      <c r="L569" t="s">
-        <v>25</v>
+      <c r="L569">
+        <f>VLOOKUP(K569,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M569" s="8" t="s">
         <v>52</v>
@@ -47498,8 +47393,8 @@
       <c r="K570" t="s">
         <v>123</v>
       </c>
-      <c r="L570" t="s">
-        <v>25</v>
+      <c r="L570">
+        <f>VLOOKUP(K570,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M570" s="8" t="s">
         <v>284</v>
@@ -47572,8 +47467,8 @@
       <c r="K571" t="s">
         <v>84</v>
       </c>
-      <c r="L571" t="s">
-        <v>25</v>
+      <c r="L571">
+        <f>VLOOKUP(K571,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M571" s="8" t="s">
         <v>100</v>
@@ -47646,8 +47541,8 @@
       <c r="K572" t="s">
         <v>191</v>
       </c>
-      <c r="L572" t="s">
-        <v>25</v>
+      <c r="L572">
+        <f>VLOOKUP(K572,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M572" s="8" t="s">
         <v>28</v>
@@ -47720,8 +47615,8 @@
       <c r="K573" t="s">
         <v>123</v>
       </c>
-      <c r="L573" t="s">
-        <v>25</v>
+      <c r="L573">
+        <f>VLOOKUP(K573,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M573" s="8" t="s">
         <v>28</v>
@@ -47794,8 +47689,8 @@
       <c r="K574" t="s">
         <v>84</v>
       </c>
-      <c r="L574" t="s">
-        <v>25</v>
+      <c r="L574">
+        <f>VLOOKUP(K574,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M574" s="8" t="s">
         <v>89</v>
@@ -47868,8 +47763,8 @@
       <c r="K575" t="s">
         <v>87</v>
       </c>
-      <c r="L575" t="s">
-        <v>25</v>
+      <c r="L575">
+        <f>VLOOKUP(K575,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M575" s="8" t="s">
         <v>28</v>
@@ -47942,8 +47837,8 @@
       <c r="K576" t="s">
         <v>348</v>
       </c>
-      <c r="L576" t="s">
-        <v>25</v>
+      <c r="L576">
+        <f>VLOOKUP(K576,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M576" s="8" t="s">
         <v>28</v>
@@ -48016,8 +47911,8 @@
       <c r="K577" t="s">
         <v>123</v>
       </c>
-      <c r="L577" t="s">
-        <v>25</v>
+      <c r="L577">
+        <f>VLOOKUP(K577,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M577" s="8" t="s">
         <v>100</v>
@@ -48090,8 +47985,8 @@
       <c r="K578" t="s">
         <v>84</v>
       </c>
-      <c r="L578" t="s">
-        <v>25</v>
+      <c r="L578">
+        <f>VLOOKUP(K578,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M578" s="8" t="s">
         <v>254</v>
@@ -48164,8 +48059,8 @@
       <c r="K579" t="s">
         <v>87</v>
       </c>
-      <c r="L579" t="s">
-        <v>25</v>
+      <c r="L579">
+        <f>VLOOKUP(K579,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M579" s="8" t="s">
         <v>28</v>
@@ -48238,8 +48133,8 @@
       <c r="K580" t="s">
         <v>36</v>
       </c>
-      <c r="L580" t="s">
-        <v>25</v>
+      <c r="L580">
+        <f>VLOOKUP(K580,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M580" s="8" t="s">
         <v>28</v>
@@ -48312,8 +48207,8 @@
       <c r="K581" t="s">
         <v>123</v>
       </c>
-      <c r="L581" t="s">
-        <v>25</v>
+      <c r="L581">
+        <f>VLOOKUP(K581,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M581" s="8" t="s">
         <v>71</v>
@@ -48386,8 +48281,8 @@
       <c r="K582" t="s">
         <v>84</v>
       </c>
-      <c r="L582" t="s">
-        <v>25</v>
+      <c r="L582">
+        <f>VLOOKUP(K582,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M582" s="8" t="s">
         <v>89</v>
@@ -48460,8 +48355,8 @@
       <c r="K583" t="s">
         <v>87</v>
       </c>
-      <c r="L583" t="s">
-        <v>25</v>
+      <c r="L583">
+        <f>VLOOKUP(K583,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M583" s="8" t="s">
         <v>28</v>
@@ -48534,8 +48429,8 @@
       <c r="K584" t="s">
         <v>36</v>
       </c>
-      <c r="L584" t="s">
-        <v>25</v>
+      <c r="L584">
+        <f>VLOOKUP(K584,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M584" s="8" t="s">
         <v>28</v>
@@ -48608,8 +48503,8 @@
       <c r="K585" t="s">
         <v>123</v>
       </c>
-      <c r="L585" t="s">
-        <v>25</v>
+      <c r="L585">
+        <f>VLOOKUP(K585,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M585" s="8" t="s">
         <v>81</v>
@@ -48682,8 +48577,8 @@
       <c r="K586" t="s">
         <v>84</v>
       </c>
-      <c r="L586" t="s">
-        <v>25</v>
+      <c r="L586">
+        <f>VLOOKUP(K586,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M586" s="8" t="s">
         <v>357</v>
@@ -48756,8 +48651,8 @@
       <c r="K587" t="s">
         <v>87</v>
       </c>
-      <c r="L587" t="s">
-        <v>25</v>
+      <c r="L587">
+        <f>VLOOKUP(K587,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M587" s="8" t="s">
         <v>28</v>
@@ -48830,8 +48725,8 @@
       <c r="K588" t="s">
         <v>84</v>
       </c>
-      <c r="L588" t="s">
-        <v>25</v>
+      <c r="L588">
+        <f>VLOOKUP(K588,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M588" s="8" t="s">
         <v>254</v>
@@ -48904,8 +48799,8 @@
       <c r="K589" t="s">
         <v>87</v>
       </c>
-      <c r="L589" t="s">
-        <v>25</v>
+      <c r="L589">
+        <f>VLOOKUP(K589,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M589" s="8" t="s">
         <v>585</v>
@@ -48978,8 +48873,8 @@
       <c r="K590" t="s">
         <v>207</v>
       </c>
-      <c r="L590" t="s">
-        <v>25</v>
+      <c r="L590">
+        <f>VLOOKUP(K590,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M590" s="8" t="s">
         <v>52</v>
@@ -49052,8 +48947,8 @@
       <c r="K591" t="s">
         <v>180</v>
       </c>
-      <c r="L591" t="s">
-        <v>25</v>
+      <c r="L591">
+        <f>VLOOKUP(K591,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M591" s="8" t="s">
         <v>28</v>
@@ -49126,8 +49021,8 @@
       <c r="K592" t="s">
         <v>104</v>
       </c>
-      <c r="L592" t="s">
-        <v>25</v>
+      <c r="L592">
+        <f>VLOOKUP(K592,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M592" s="8" t="s">
         <v>71</v>
@@ -49200,8 +49095,8 @@
       <c r="K593" t="s">
         <v>628</v>
       </c>
-      <c r="L593" t="s">
-        <v>25</v>
+      <c r="L593">
+        <f>VLOOKUP(K593,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M593" s="8" t="s">
         <v>28</v>
@@ -49274,8 +49169,8 @@
       <c r="K594" t="s">
         <v>549</v>
       </c>
-      <c r="L594" t="s">
-        <v>25</v>
+      <c r="L594">
+        <f>VLOOKUP(K594,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M594" s="8" t="s">
         <v>28</v>
@@ -49348,8 +49243,8 @@
       <c r="K595" t="s">
         <v>614</v>
       </c>
-      <c r="L595" t="s">
-        <v>25</v>
+      <c r="L595">
+        <f>VLOOKUP(K595,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M595" s="8" t="s">
         <v>28</v>
@@ -49422,8 +49317,8 @@
       <c r="K596" t="s">
         <v>84</v>
       </c>
-      <c r="L596" t="s">
-        <v>25</v>
+      <c r="L596">
+        <f>VLOOKUP(K596,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M596" s="8" t="s">
         <v>28</v>
@@ -49496,8 +49391,8 @@
       <c r="K597" t="s">
         <v>87</v>
       </c>
-      <c r="L597" t="s">
-        <v>25</v>
+      <c r="L597">
+        <f>VLOOKUP(K597,SKU_SWINE!C2:F106,{4},FALSE)</f>
       </c>
       <c r="M597" s="8" t="s">
         <v>28</v>
